--- a/0_0_Data/2_Processed_Data/1_combined_GDP_series/qoq_combined_GDP_data.xlsx
+++ b/0_0_Data/2_Processed_Data/1_combined_GDP_series/qoq_combined_GDP_data.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ES224"/>
+  <dimension ref="A1:ET225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:149">
+    <row r="1" spans="1:150">
       <c r="B1" s="1">
         <v>32508</v>
       </c>
@@ -820,13 +820,16 @@
       <c r="ES1" s="1">
         <v>45891</v>
       </c>
+      <c r="ET1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:149">
+    <row r="2" spans="1:150">
       <c r="A2" s="1">
         <v>25569</v>
       </c>
     </row>
-    <row r="3" spans="1:149">
+    <row r="3" spans="1:150">
       <c r="A3" s="1">
         <v>25659</v>
       </c>
@@ -1274,8 +1277,11 @@
       <c r="ES3">
         <v>3.949077682514924</v>
       </c>
+      <c r="ET3">
+        <v>3.949077682514924</v>
+      </c>
     </row>
-    <row r="4" spans="1:149">
+    <row r="4" spans="1:150">
       <c r="A4" s="1">
         <v>25750</v>
       </c>
@@ -1723,8 +1729,11 @@
       <c r="ES4">
         <v>1.874531367158206</v>
       </c>
+      <c r="ET4">
+        <v>1.874531367158206</v>
+      </c>
     </row>
-    <row r="5" spans="1:149">
+    <row r="5" spans="1:150">
       <c r="A5" s="1">
         <v>25842</v>
       </c>
@@ -2172,8 +2181,11 @@
       <c r="ES5">
         <v>0.8586849852796945</v>
       </c>
+      <c r="ET5">
+        <v>0.8586849852796945</v>
+      </c>
     </row>
-    <row r="6" spans="1:149">
+    <row r="6" spans="1:150">
       <c r="A6" s="1">
         <v>25934</v>
       </c>
@@ -2621,8 +2633,11 @@
       <c r="ES6">
         <v>-1.945998540501086</v>
       </c>
+      <c r="ET6">
+        <v>-1.945998540501086</v>
+      </c>
     </row>
-    <row r="7" spans="1:149">
+    <row r="7" spans="1:150">
       <c r="A7" s="1">
         <v>26024</v>
       </c>
@@ -3070,8 +3085,11 @@
       <c r="ES7">
         <v>2.133465641280074</v>
       </c>
+      <c r="ET7">
+        <v>2.133465641280074</v>
+      </c>
     </row>
-    <row r="8" spans="1:149">
+    <row r="8" spans="1:150">
       <c r="A8" s="1">
         <v>26115</v>
       </c>
@@ -3519,8 +3537,11 @@
       <c r="ES8">
         <v>1.700267184843332</v>
       </c>
+      <c r="ET8">
+        <v>1.700267184843332</v>
+      </c>
     </row>
-    <row r="9" spans="1:149">
+    <row r="9" spans="1:150">
       <c r="A9" s="1">
         <v>26207</v>
       </c>
@@ -3968,8 +3989,11 @@
       <c r="ES9">
         <v>-0.09553379508001679</v>
       </c>
+      <c r="ET9">
+        <v>-0.09553379508001679</v>
+      </c>
     </row>
-    <row r="10" spans="1:149">
+    <row r="10" spans="1:150">
       <c r="A10" s="1">
         <v>26299</v>
       </c>
@@ -4417,8 +4441,11 @@
       <c r="ES10">
         <v>0.0956251494143032</v>
       </c>
+      <c r="ET10">
+        <v>0.0956251494143032</v>
+      </c>
     </row>
-    <row r="11" spans="1:149">
+    <row r="11" spans="1:150">
       <c r="A11" s="1">
         <v>26390</v>
       </c>
@@ -4866,8 +4893,11 @@
       <c r="ES11">
         <v>1.647957965130175</v>
       </c>
+      <c r="ET11">
+        <v>1.647957965130175</v>
+      </c>
     </row>
-    <row r="12" spans="1:149">
+    <row r="12" spans="1:150">
       <c r="A12" s="1">
         <v>26481</v>
       </c>
@@ -5315,8 +5345,11 @@
       <c r="ES12">
         <v>2.32612781954886</v>
       </c>
+      <c r="ET12">
+        <v>2.32612781954886</v>
+      </c>
     </row>
-    <row r="13" spans="1:149">
+    <row r="13" spans="1:150">
       <c r="A13" s="1">
         <v>26573</v>
       </c>
@@ -5764,8 +5797,11 @@
       <c r="ES13">
         <v>1.538461538461537</v>
       </c>
+      <c r="ET13">
+        <v>1.538461538461537</v>
+      </c>
     </row>
-    <row r="14" spans="1:149">
+    <row r="14" spans="1:150">
       <c r="A14" s="1">
         <v>26665</v>
       </c>
@@ -6213,8 +6249,11 @@
       <c r="ES14">
         <v>1.447308909995474</v>
       </c>
+      <c r="ET14">
+        <v>1.447308909995474</v>
+      </c>
     </row>
-    <row r="15" spans="1:149">
+    <row r="15" spans="1:150">
       <c r="A15" s="1">
         <v>26755</v>
       </c>
@@ -6662,8 +6701,11 @@
       <c r="ES15">
         <v>0.6910387873384027</v>
       </c>
+      <c r="ET15">
+        <v>0.6910387873384027</v>
+      </c>
     </row>
-    <row r="16" spans="1:149">
+    <row r="16" spans="1:150">
       <c r="A16" s="1">
         <v>26846</v>
       </c>
@@ -7111,8 +7153,11 @@
       <c r="ES16">
         <v>0.3542174009298003</v>
       </c>
+      <c r="ET16">
+        <v>0.3542174009298003</v>
+      </c>
     </row>
-    <row r="17" spans="1:149">
+    <row r="17" spans="1:150">
       <c r="A17" s="1">
         <v>26938</v>
       </c>
@@ -7560,8 +7605,11 @@
       <c r="ES17">
         <v>0.2206044562100243</v>
       </c>
+      <c r="ET17">
+        <v>0.2206044562100243</v>
+      </c>
     </row>
-    <row r="18" spans="1:149">
+    <row r="18" spans="1:150">
       <c r="A18" s="1">
         <v>27030</v>
       </c>
@@ -8009,8 +8057,11 @@
       <c r="ES18">
         <v>0.8364516839093197</v>
       </c>
+      <c r="ET18">
+        <v>0.8364516839093197</v>
+      </c>
     </row>
-    <row r="19" spans="1:149">
+    <row r="19" spans="1:150">
       <c r="A19" s="1">
         <v>27120</v>
       </c>
@@ -8458,8 +8509,11 @@
       <c r="ES19">
         <v>-0.08731717965510374</v>
       </c>
+      <c r="ET19">
+        <v>-0.08731717965510374</v>
+      </c>
     </row>
-    <row r="20" spans="1:149">
+    <row r="20" spans="1:150">
       <c r="A20" s="1">
         <v>27211</v>
       </c>
@@ -8907,8 +8961,11 @@
       <c r="ES20">
         <v>0.02184837229626946</v>
       </c>
+      <c r="ET20">
+        <v>0.02184837229626946</v>
+      </c>
     </row>
-    <row r="21" spans="1:149">
+    <row r="21" spans="1:150">
       <c r="A21" s="1">
         <v>27303</v>
       </c>
@@ -9356,8 +9413,11 @@
       <c r="ES21">
         <v>-1.245085190039323</v>
       </c>
+      <c r="ET21">
+        <v>-1.245085190039323</v>
+      </c>
     </row>
-    <row r="22" spans="1:149">
+    <row r="22" spans="1:150">
       <c r="A22" s="1">
         <v>27395</v>
       </c>
@@ -9805,8 +9865,11 @@
       <c r="ES22">
         <v>-0.5750940057509286</v>
       </c>
+      <c r="ET22">
+        <v>-0.5750940057509286</v>
+      </c>
     </row>
-    <row r="23" spans="1:149">
+    <row r="23" spans="1:150">
       <c r="A23" s="1">
         <v>27485</v>
       </c>
@@ -10254,8 +10317,11 @@
       <c r="ES23">
         <v>-0.5116796440489622</v>
       </c>
+      <c r="ET23">
+        <v>-0.5116796440489622</v>
+      </c>
     </row>
-    <row r="24" spans="1:149">
+    <row r="24" spans="1:150">
       <c r="A24" s="1">
         <v>27576</v>
       </c>
@@ -10703,8 +10769,11 @@
       <c r="ES24">
         <v>1.09570661896244</v>
       </c>
+      <c r="ET24">
+        <v>1.09570661896244</v>
+      </c>
     </row>
-    <row r="25" spans="1:149">
+    <row r="25" spans="1:150">
       <c r="A25" s="1">
         <v>27668</v>
       </c>
@@ -11152,8 +11221,11 @@
       <c r="ES25">
         <v>1.968591019685906</v>
       </c>
+      <c r="ET25">
+        <v>1.968591019685906</v>
+      </c>
     </row>
-    <row r="26" spans="1:149">
+    <row r="26" spans="1:150">
       <c r="A26" s="1">
         <v>27760</v>
       </c>
@@ -11601,8 +11673,11 @@
       <c r="ES26">
         <v>0.8676789587852535</v>
       </c>
+      <c r="ET26">
+        <v>0.8676789587852535</v>
+      </c>
     </row>
-    <row r="27" spans="1:149">
+    <row r="27" spans="1:150">
       <c r="A27" s="1">
         <v>27851</v>
       </c>
@@ -12050,8 +12125,11 @@
       <c r="ES27">
         <v>1.505376344086021</v>
       </c>
+      <c r="ET27">
+        <v>1.505376344086021</v>
+      </c>
     </row>
-    <row r="28" spans="1:149">
+    <row r="28" spans="1:150">
       <c r="A28" s="1">
         <v>27942</v>
       </c>
@@ -12499,8 +12577,11 @@
       <c r="ES28">
         <v>0.02118644067797147</v>
       </c>
+      <c r="ET28">
+        <v>0.02118644067797147</v>
+      </c>
     </row>
-    <row r="29" spans="1:149">
+    <row r="29" spans="1:150">
       <c r="A29" s="1">
         <v>28034</v>
       </c>
@@ -12948,8 +13029,11 @@
       <c r="ES29">
         <v>1.864011861893672</v>
       </c>
+      <c r="ET29">
+        <v>1.864011861893672</v>
+      </c>
     </row>
-    <row r="30" spans="1:149">
+    <row r="30" spans="1:150">
       <c r="A30" s="1">
         <v>28126</v>
       </c>
@@ -13397,8 +13481,11 @@
       <c r="ES30">
         <v>0.873362445414832</v>
       </c>
+      <c r="ET30">
+        <v>0.873362445414832</v>
+      </c>
     </row>
-    <row r="31" spans="1:149">
+    <row r="31" spans="1:150">
       <c r="A31" s="1">
         <v>28216</v>
       </c>
@@ -13846,8 +13933,11 @@
       <c r="ES31">
         <v>0.5565862708719943</v>
       </c>
+      <c r="ET31">
+        <v>0.5565862708719943</v>
+      </c>
     </row>
-    <row r="32" spans="1:149">
+    <row r="32" spans="1:150">
       <c r="A32" s="1">
         <v>28307</v>
       </c>
@@ -14295,8 +14385,11 @@
       <c r="ES32">
         <v>-0.04100041000411042</v>
       </c>
+      <c r="ET32">
+        <v>-0.04100041000411042</v>
+      </c>
     </row>
-    <row r="33" spans="1:149">
+    <row r="33" spans="1:150">
       <c r="A33" s="1">
         <v>28399</v>
       </c>
@@ -14744,8 +14837,11 @@
       <c r="ES33">
         <v>1.722723543888447</v>
       </c>
+      <c r="ET33">
+        <v>1.722723543888447</v>
+      </c>
     </row>
-    <row r="34" spans="1:149">
+    <row r="34" spans="1:150">
       <c r="A34" s="1">
         <v>28491</v>
       </c>
@@ -15193,8 +15289,11 @@
       <c r="ES34">
         <v>0.4032258064516004</v>
       </c>
+      <c r="ET34">
+        <v>0.4032258064516004</v>
+      </c>
     </row>
-    <row r="35" spans="1:149">
+    <row r="35" spans="1:150">
       <c r="A35" s="1">
         <v>28581</v>
       </c>
@@ -15642,8 +15741,11 @@
       <c r="ES35">
         <v>0.4216867469879588</v>
       </c>
+      <c r="ET35">
+        <v>0.4216867469879588</v>
+      </c>
     </row>
-    <row r="36" spans="1:149">
+    <row r="36" spans="1:150">
       <c r="A36" s="1">
         <v>28672</v>
       </c>
@@ -16091,8 +16193,11 @@
       <c r="ES36">
         <v>1.29974005198959</v>
       </c>
+      <c r="ET36">
+        <v>1.29974005198959</v>
+      </c>
     </row>
-    <row r="37" spans="1:149">
+    <row r="37" spans="1:150">
       <c r="A37" s="1">
         <v>28764</v>
       </c>
@@ -16540,8 +16645,11 @@
       <c r="ES37">
         <v>1.164626924595356</v>
       </c>
+      <c r="ET37">
+        <v>1.164626924595356</v>
+      </c>
     </row>
-    <row r="38" spans="1:149">
+    <row r="38" spans="1:150">
       <c r="A38" s="1">
         <v>28856</v>
       </c>
@@ -16989,8 +17097,11 @@
       <c r="ES38">
         <v>0.1365853658536516</v>
       </c>
+      <c r="ET38">
+        <v>0.1365853658536516</v>
+      </c>
     </row>
-    <row r="39" spans="1:149">
+    <row r="39" spans="1:150">
       <c r="A39" s="1">
         <v>28946</v>
       </c>
@@ -17438,8 +17549,11 @@
       <c r="ES39">
         <v>3.098207326578328</v>
       </c>
+      <c r="ET39">
+        <v>3.098207326578328</v>
+      </c>
     </row>
-    <row r="40" spans="1:149">
+    <row r="40" spans="1:150">
       <c r="A40" s="1">
         <v>29037</v>
       </c>
@@ -17887,8 +18001,11 @@
       <c r="ES40">
         <v>0</v>
       </c>
+      <c r="ET40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:149">
+    <row r="41" spans="1:150">
       <c r="A41" s="1">
         <v>29129</v>
       </c>
@@ -18336,8 +18453,11 @@
       <c r="ES41">
         <v>0.6237006237006341</v>
       </c>
+      <c r="ET41">
+        <v>0.6237006237006341</v>
+      </c>
     </row>
-    <row r="42" spans="1:149">
+    <row r="42" spans="1:150">
       <c r="A42" s="1">
         <v>29221</v>
       </c>
@@ -18785,8 +18905,11 @@
       <c r="ES42">
         <v>0.7888805409466429</v>
       </c>
+      <c r="ET42">
+        <v>0.7888805409466429</v>
+      </c>
     </row>
-    <row r="43" spans="1:149">
+    <row r="43" spans="1:150">
       <c r="A43" s="1">
         <v>29312</v>
       </c>
@@ -19234,8 +19357,11 @@
       <c r="ES43">
         <v>-0.6522549385016704</v>
       </c>
+      <c r="ET43">
+        <v>-0.6522549385016704</v>
+      </c>
     </row>
-    <row r="44" spans="1:149">
+    <row r="44" spans="1:150">
       <c r="A44" s="1">
         <v>29403</v>
       </c>
@@ -19683,8 +19809,11 @@
       <c r="ES44">
         <v>-0.412680547739634</v>
       </c>
+      <c r="ET44">
+        <v>-0.412680547739634</v>
+      </c>
     </row>
-    <row r="45" spans="1:149">
+    <row r="45" spans="1:150">
       <c r="A45" s="1">
         <v>29495</v>
       </c>
@@ -20132,8 +20261,11 @@
       <c r="ES45">
         <v>-0.1318515728008974</v>
       </c>
+      <c r="ET45">
+        <v>-0.1318515728008974</v>
+      </c>
     </row>
-    <row r="46" spans="1:149">
+    <row r="46" spans="1:150">
       <c r="A46" s="1">
         <v>29587</v>
       </c>
@@ -20581,8 +20713,11 @@
       <c r="ES46">
         <v>1.207091663523183</v>
       </c>
+      <c r="ET46">
+        <v>1.207091663523183</v>
+      </c>
     </row>
-    <row r="47" spans="1:149">
+    <row r="47" spans="1:150">
       <c r="A47" s="1">
         <v>29677</v>
       </c>
@@ -21030,8 +21165,11 @@
       <c r="ES47">
         <v>-0.2609019754006576</v>
       </c>
+      <c r="ET47">
+        <v>-0.2609019754006576</v>
+      </c>
     </row>
-    <row r="48" spans="1:149">
+    <row r="48" spans="1:150">
       <c r="A48" s="1">
         <v>29768</v>
       </c>
@@ -21479,8 +21617,11 @@
       <c r="ES48">
         <v>0.2802690582959688</v>
       </c>
+      <c r="ET48">
+        <v>0.2802690582959688</v>
+      </c>
     </row>
-    <row r="49" spans="1:149">
+    <row r="49" spans="1:150">
       <c r="A49" s="1">
         <v>29860</v>
       </c>
@@ -21928,8 +22069,11 @@
       <c r="ES49">
         <v>-0.111794298490792</v>
       </c>
+      <c r="ET49">
+        <v>-0.111794298490792</v>
+      </c>
     </row>
-    <row r="50" spans="1:149">
+    <row r="50" spans="1:150">
       <c r="A50" s="1">
         <v>29952</v>
       </c>
@@ -22377,8 +22521,11 @@
       <c r="ES50">
         <v>0.4103711994030944</v>
       </c>
+      <c r="ET50">
+        <v>0.4103711994030944</v>
+      </c>
     </row>
-    <row r="51" spans="1:149">
+    <row r="51" spans="1:150">
       <c r="A51" s="1">
         <v>30042</v>
       </c>
@@ -22826,8 +22973,11 @@
       <c r="ES51">
         <v>-0.6316180568456136</v>
       </c>
+      <c r="ET51">
+        <v>-0.6316180568456136</v>
+      </c>
     </row>
-    <row r="52" spans="1:149">
+    <row r="52" spans="1:150">
       <c r="A52" s="1">
         <v>30133</v>
       </c>
@@ -23275,8 +23425,11 @@
       <c r="ES52">
         <v>-0.9534492428491463</v>
       </c>
+      <c r="ET52">
+        <v>-0.9534492428491463</v>
+      </c>
     </row>
-    <row r="53" spans="1:149">
+    <row r="53" spans="1:150">
       <c r="A53" s="1">
         <v>30225</v>
       </c>
@@ -23724,8 +23877,11 @@
       <c r="ES53">
         <v>0.20762551906381</v>
       </c>
+      <c r="ET53">
+        <v>0.20762551906381</v>
+      </c>
     </row>
-    <row r="54" spans="1:149">
+    <row r="54" spans="1:150">
       <c r="A54" s="1">
         <v>30317</v>
       </c>
@@ -24173,8 +24329,11 @@
       <c r="ES54">
         <v>0.9229610096063218</v>
       </c>
+      <c r="ET54">
+        <v>0.9229610096063218</v>
+      </c>
     </row>
-    <row r="55" spans="1:149">
+    <row r="55" spans="1:150">
       <c r="A55" s="1">
         <v>30407</v>
       </c>
@@ -24622,8 +24781,11 @@
       <c r="ES55">
         <v>1.063829787234047</v>
       </c>
+      <c r="ET55">
+        <v>1.063829787234047</v>
+      </c>
     </row>
-    <row r="56" spans="1:149">
+    <row r="56" spans="1:150">
       <c r="A56" s="1">
         <v>30498</v>
       </c>
@@ -25071,8 +25233,11 @@
       <c r="ES56">
         <v>-0.2400738688827284</v>
       </c>
+      <c r="ET56">
+        <v>-0.2400738688827284</v>
+      </c>
     </row>
-    <row r="57" spans="1:149">
+    <row r="57" spans="1:150">
       <c r="A57" s="1">
         <v>30590</v>
       </c>
@@ -25520,8 +25685,11 @@
       <c r="ES57">
         <v>1.388374676045919</v>
       </c>
+      <c r="ET57">
+        <v>1.388374676045919</v>
+      </c>
     </row>
-    <row r="58" spans="1:149">
+    <row r="58" spans="1:150">
       <c r="A58" s="1">
         <v>30682</v>
       </c>
@@ -25969,8 +26137,11 @@
       <c r="ES58">
         <v>1.314588278254514</v>
       </c>
+      <c r="ET58">
+        <v>1.314588278254514</v>
+      </c>
     </row>
-    <row r="59" spans="1:149">
+    <row r="59" spans="1:150">
       <c r="A59" s="1">
         <v>30773</v>
       </c>
@@ -26418,8 +26589,11 @@
       <c r="ES59">
         <v>-1.567850063074441</v>
       </c>
+      <c r="ET59">
+        <v>-1.567850063074441</v>
+      </c>
     </row>
-    <row r="60" spans="1:149">
+    <row r="60" spans="1:150">
       <c r="A60" s="1">
         <v>30864</v>
       </c>
@@ -26867,8 +27041,11 @@
       <c r="ES60">
         <v>2.72793848407177</v>
       </c>
+      <c r="ET60">
+        <v>2.72793848407177</v>
+      </c>
     </row>
-    <row r="61" spans="1:149">
+    <row r="61" spans="1:150">
       <c r="A61" s="1">
         <v>30956</v>
       </c>
@@ -27316,8 +27493,11 @@
       <c r="ES61">
         <v>0.8376403493138448</v>
       </c>
+      <c r="ET61">
+        <v>0.8376403493138448</v>
+      </c>
     </row>
-    <row r="62" spans="1:149">
+    <row r="62" spans="1:150">
       <c r="A62" s="1">
         <v>31048</v>
       </c>
@@ -27765,8 +27945,11 @@
       <c r="ES62">
         <v>-0.5302226935312794</v>
       </c>
+      <c r="ET62">
+        <v>-0.5302226935312794</v>
+      </c>
     </row>
-    <row r="63" spans="1:149">
+    <row r="63" spans="1:150">
       <c r="A63" s="1">
         <v>31138</v>
       </c>
@@ -28214,8 +28397,11 @@
       <c r="ES63">
         <v>0.9772565742714947</v>
       </c>
+      <c r="ET63">
+        <v>0.9772565742714947</v>
+      </c>
     </row>
-    <row r="64" spans="1:149">
+    <row r="64" spans="1:150">
       <c r="A64" s="1">
         <v>31229</v>
       </c>
@@ -28663,8 +28849,11 @@
       <c r="ES64">
         <v>1.302129157135321</v>
       </c>
+      <c r="ET64">
+        <v>1.302129157135321</v>
+      </c>
     </row>
-    <row r="65" spans="1:149">
+    <row r="65" spans="1:150">
       <c r="A65" s="1">
         <v>31321</v>
       </c>
@@ -29112,8 +29301,11 @@
       <c r="ES65">
         <v>0.6079555323953507</v>
       </c>
+      <c r="ET65">
+        <v>0.6079555323953507</v>
+      </c>
     </row>
-    <row r="66" spans="1:149">
+    <row r="66" spans="1:150">
       <c r="A66" s="1">
         <v>31413</v>
       </c>
@@ -29561,8 +29753,11 @@
       <c r="ES66">
         <v>-0.5697513812154668</v>
       </c>
+      <c r="ET66">
+        <v>-0.5697513812154668</v>
+      </c>
     </row>
-    <row r="67" spans="1:149">
+    <row r="67" spans="1:150">
       <c r="A67" s="1">
         <v>31503</v>
       </c>
@@ -30010,8 +30205,11 @@
       <c r="ES67">
         <v>1.163396422990089</v>
       </c>
+      <c r="ET67">
+        <v>1.163396422990089</v>
+      </c>
     </row>
-    <row r="68" spans="1:149">
+    <row r="68" spans="1:150">
       <c r="A68" s="1">
         <v>31594</v>
       </c>
@@ -30459,8 +30657,11 @@
       <c r="ES68">
         <v>0.7380707174733993</v>
       </c>
+      <c r="ET68">
+        <v>0.7380707174733993</v>
+      </c>
     </row>
-    <row r="69" spans="1:149">
+    <row r="69" spans="1:150">
       <c r="A69" s="1">
         <v>31686</v>
       </c>
@@ -30908,8 +31109,11 @@
       <c r="ES69">
         <v>0.9882433123189723</v>
       </c>
+      <c r="ET69">
+        <v>0.9882433123189723</v>
+      </c>
     </row>
-    <row r="70" spans="1:149">
+    <row r="70" spans="1:150">
       <c r="A70" s="1">
         <v>31778</v>
       </c>
@@ -31357,8 +31561,11 @@
       <c r="ES70">
         <v>-2.51391935211743</v>
       </c>
+      <c r="ET70">
+        <v>-2.51391935211743</v>
+      </c>
     </row>
-    <row r="71" spans="1:149">
+    <row r="71" spans="1:150">
       <c r="A71" s="1">
         <v>31868</v>
       </c>
@@ -31806,8 +32013,11 @@
       <c r="ES71">
         <v>2.249913464866728</v>
       </c>
+      <c r="ET71">
+        <v>2.249913464866728</v>
+      </c>
     </row>
-    <row r="72" spans="1:149">
+    <row r="72" spans="1:150">
       <c r="A72" s="1">
         <v>31959</v>
       </c>
@@ -32255,8 +32465,11 @@
       <c r="ES72">
         <v>0.710900473933649</v>
       </c>
+      <c r="ET72">
+        <v>0.710900473933649</v>
+      </c>
     </row>
-    <row r="73" spans="1:149">
+    <row r="73" spans="1:150">
       <c r="A73" s="1">
         <v>32051</v>
       </c>
@@ -32704,8 +32917,11 @@
       <c r="ES73">
         <v>1.579831932773116</v>
       </c>
+      <c r="ET73">
+        <v>1.579831932773116</v>
+      </c>
     </row>
-    <row r="74" spans="1:149">
+    <row r="74" spans="1:150">
       <c r="A74" s="1">
         <v>32143</v>
       </c>
@@ -33153,8 +33369,11 @@
       <c r="ES74">
         <v>-0.8934480476505656</v>
       </c>
+      <c r="ET74">
+        <v>-0.8934480476505656</v>
+      </c>
     </row>
-    <row r="75" spans="1:149">
+    <row r="75" spans="1:150">
       <c r="A75" s="1">
         <v>32234</v>
       </c>
@@ -33602,8 +33821,11 @@
       <c r="ES75">
         <v>1.819699499165286</v>
       </c>
+      <c r="ET75">
+        <v>1.819699499165286</v>
+      </c>
     </row>
-    <row r="76" spans="1:149">
+    <row r="76" spans="1:150">
       <c r="A76" s="1">
         <v>32325</v>
       </c>
@@ -34051,8 +34273,11 @@
       <c r="ES76">
         <v>1.098540744384312</v>
       </c>
+      <c r="ET76">
+        <v>1.098540744384312</v>
+      </c>
     </row>
-    <row r="77" spans="1:149">
+    <row r="77" spans="1:150">
       <c r="A77" s="1">
         <v>32417</v>
       </c>
@@ -34497,8 +34722,11 @@
       <c r="ES77">
         <v>1.200129743756086</v>
       </c>
+      <c r="ET77">
+        <v>1.200129743756086</v>
+      </c>
     </row>
-    <row r="78" spans="1:149">
+    <row r="78" spans="1:150">
       <c r="A78" s="1">
         <v>32509</v>
       </c>
@@ -34940,8 +35168,11 @@
       <c r="ES78">
         <v>1.025641025641024</v>
       </c>
+      <c r="ET78">
+        <v>1.025641025641024</v>
+      </c>
     </row>
-    <row r="79" spans="1:149">
+    <row r="79" spans="1:150">
       <c r="A79" s="1">
         <v>32599</v>
       </c>
@@ -35380,8 +35611,11 @@
       <c r="ES79">
         <v>0.4124365482233533</v>
       </c>
+      <c r="ET79">
+        <v>0.4124365482233533</v>
+      </c>
     </row>
-    <row r="80" spans="1:149">
+    <row r="80" spans="1:150">
       <c r="A80" s="1">
         <v>32690</v>
       </c>
@@ -35817,8 +36051,11 @@
       <c r="ES80">
         <v>0.9004739336492815</v>
       </c>
+      <c r="ET80">
+        <v>0.9004739336492815</v>
+      </c>
     </row>
-    <row r="81" spans="1:149">
+    <row r="81" spans="1:150">
       <c r="A81" s="1">
         <v>32782</v>
       </c>
@@ -36251,8 +36488,11 @@
       <c r="ES81">
         <v>1.174260216063888</v>
       </c>
+      <c r="ET81">
+        <v>1.174260216063888</v>
+      </c>
     </row>
-    <row r="82" spans="1:149">
+    <row r="82" spans="1:150">
       <c r="A82" s="1">
         <v>32874</v>
       </c>
@@ -36682,8 +36922,11 @@
       <c r="ES82">
         <v>2.073661405137726</v>
       </c>
+      <c r="ET82">
+        <v>2.073661405137726</v>
+      </c>
     </row>
-    <row r="83" spans="1:149">
+    <row r="83" spans="1:150">
       <c r="A83" s="1">
         <v>32964</v>
       </c>
@@ -37110,8 +37353,11 @@
       <c r="ES83">
         <v>0.4851425106124861</v>
       </c>
+      <c r="ET83">
+        <v>0.4851425106124861</v>
+      </c>
     </row>
-    <row r="84" spans="1:149">
+    <row r="84" spans="1:150">
       <c r="A84" s="1">
         <v>33055</v>
       </c>
@@ -37535,8 +37781,11 @@
       <c r="ES84">
         <v>2.112251056125549</v>
       </c>
+      <c r="ET84">
+        <v>2.112251056125549</v>
+      </c>
     </row>
-    <row r="85" spans="1:149">
+    <row r="85" spans="1:150">
       <c r="A85" s="1">
         <v>33147</v>
       </c>
@@ -37957,8 +38206,11 @@
       <c r="ES85">
         <v>1.773049645390058</v>
       </c>
+      <c r="ET85">
+        <v>1.773049645390058</v>
+      </c>
     </row>
-    <row r="86" spans="1:149">
+    <row r="86" spans="1:150">
       <c r="A86" s="1">
         <v>33239</v>
       </c>
@@ -38376,8 +38628,11 @@
       <c r="ES86">
         <v>2.758420441347268</v>
       </c>
+      <c r="ET86">
+        <v>2.758420441347268</v>
+      </c>
     </row>
-    <row r="87" spans="1:149">
+    <row r="87" spans="1:150">
       <c r="A87" s="1">
         <v>33329</v>
       </c>
@@ -38792,8 +39047,11 @@
       <c r="ES87">
         <v>-0.4801581697500401</v>
       </c>
+      <c r="ET87">
+        <v>-0.4801581697500401</v>
+      </c>
     </row>
-    <row r="88" spans="1:149">
+    <row r="88" spans="1:150">
       <c r="A88" s="1">
         <v>33420</v>
       </c>
@@ -39205,8 +39463,11 @@
       <c r="ES88">
         <v>-0.156094792110117</v>
       </c>
+      <c r="ET88">
+        <v>-0.156094792110117</v>
+      </c>
     </row>
-    <row r="89" spans="1:149">
+    <row r="89" spans="1:150">
       <c r="A89" s="1">
         <v>33512</v>
       </c>
@@ -39615,8 +39876,11 @@
       <c r="ES89">
         <v>1.43547470153497</v>
       </c>
+      <c r="ET89">
+        <v>1.43547470153497</v>
+      </c>
     </row>
-    <row r="90" spans="1:149">
+    <row r="90" spans="1:150">
       <c r="A90" s="1">
         <v>33604</v>
       </c>
@@ -40022,8 +40286,11 @@
       <c r="ES90">
         <v>1.373125963289883</v>
       </c>
+      <c r="ET90">
+        <v>1.373125963289883</v>
+      </c>
     </row>
-    <row r="91" spans="1:149">
+    <row r="91" spans="1:150">
       <c r="A91" s="1">
         <v>33695</v>
       </c>
@@ -40426,8 +40693,11 @@
       <c r="ES91">
         <v>-0.6219765031098669</v>
       </c>
+      <c r="ET91">
+        <v>-0.6219765031098669</v>
+      </c>
     </row>
-    <row r="92" spans="1:149">
+    <row r="92" spans="1:150">
       <c r="A92" s="1">
         <v>33786</v>
       </c>
@@ -40827,8 +41097,11 @@
       <c r="ES92">
         <v>-0.2364394993045921</v>
       </c>
+      <c r="ET92">
+        <v>-0.2364394993045921</v>
+      </c>
     </row>
-    <row r="93" spans="1:149">
+    <row r="93" spans="1:150">
       <c r="A93" s="1">
         <v>33878</v>
       </c>
@@ -41225,8 +41498,11 @@
       <c r="ES93">
         <v>-0.2788233653980243</v>
       </c>
+      <c r="ET93">
+        <v>-0.2788233653980243</v>
+      </c>
     </row>
-    <row r="94" spans="1:149">
+    <row r="94" spans="1:150">
       <c r="A94" s="1">
         <v>33970</v>
       </c>
@@ -41620,8 +41896,11 @@
       <c r="ES94">
         <v>-0.7968684468055465</v>
       </c>
+      <c r="ET94">
+        <v>-0.7968684468055465</v>
+      </c>
     </row>
-    <row r="95" spans="1:149">
+    <row r="95" spans="1:150">
       <c r="A95" s="1">
         <v>34060</v>
       </c>
@@ -42012,8 +42291,11 @@
       <c r="ES95">
         <v>0.01409244644871071</v>
       </c>
+      <c r="ET95">
+        <v>0.01409244644871071</v>
+      </c>
     </row>
-    <row r="96" spans="1:149">
+    <row r="96" spans="1:150">
       <c r="A96" s="1">
         <v>34151</v>
       </c>
@@ -42401,8 +42683,11 @@
       <c r="ES96">
         <v>0.5917993518388075</v>
       </c>
+      <c r="ET96">
+        <v>0.5917993518388075</v>
+      </c>
     </row>
-    <row r="97" spans="1:149">
+    <row r="97" spans="1:150">
       <c r="A97" s="1">
         <v>34243</v>
       </c>
@@ -42787,8 +43072,11 @@
       <c r="ES97">
         <v>-0.08404538450763731</v>
       </c>
+      <c r="ET97">
+        <v>-0.08404538450763731</v>
+      </c>
     </row>
-    <row r="98" spans="1:149">
+    <row r="98" spans="1:150">
       <c r="A98" s="1">
         <v>34335</v>
       </c>
@@ -43170,8 +43458,11 @@
       <c r="ES98">
         <v>1.415954016542836</v>
       </c>
+      <c r="ET98">
+        <v>1.415954016542836</v>
+      </c>
     </row>
-    <row r="99" spans="1:149">
+    <row r="99" spans="1:150">
       <c r="A99" s="1">
         <v>34425</v>
       </c>
@@ -43550,8 +43841,11 @@
       <c r="ES99">
         <v>0.5529444290848651</v>
       </c>
+      <c r="ET99">
+        <v>0.5529444290848651</v>
+      </c>
     </row>
-    <row r="100" spans="1:149">
+    <row r="100" spans="1:150">
       <c r="A100" s="1">
         <v>34516</v>
       </c>
@@ -43927,8 +44221,11 @@
       <c r="ES100">
         <v>0.5911465493538725</v>
       </c>
+      <c r="ET100">
+        <v>0.5911465493538725</v>
+      </c>
     </row>
-    <row r="101" spans="1:149">
+    <row r="101" spans="1:150">
       <c r="A101" s="1">
         <v>34608</v>
       </c>
@@ -44301,8 +44598,11 @@
       <c r="ES101">
         <v>1.107011070110704</v>
       </c>
+      <c r="ET101">
+        <v>1.107011070110704</v>
+      </c>
     </row>
-    <row r="102" spans="1:149">
+    <row r="102" spans="1:150">
       <c r="A102" s="1">
         <v>34700</v>
       </c>
@@ -44672,8 +44972,11 @@
       <c r="ES102">
         <v>-0.3919978372533202</v>
       </c>
+      <c r="ET102">
+        <v>-0.3919978372533202</v>
+      </c>
     </row>
-    <row r="103" spans="1:149">
+    <row r="103" spans="1:150">
       <c r="A103" s="1">
         <v>34790</v>
       </c>
@@ -45040,8 +45343,11 @@
       <c r="ES103">
         <v>0.8006513773917809</v>
       </c>
+      <c r="ET103">
+        <v>0.8006513773917809</v>
+      </c>
     </row>
-    <row r="104" spans="1:149">
+    <row r="104" spans="1:150">
       <c r="A104" s="1">
         <v>34881</v>
       </c>
@@ -45405,8 +45711,11 @@
       <c r="ES104">
         <v>0.2019386106623663</v>
       </c>
+      <c r="ET104">
+        <v>0.2019386106623663</v>
+      </c>
     </row>
-    <row r="105" spans="1:149">
+    <row r="105" spans="1:150">
       <c r="A105" s="1">
         <v>34973</v>
       </c>
@@ -45767,8 +46076,11 @@
       <c r="ES105">
         <v>0.04030632809349311</v>
       </c>
+      <c r="ET105">
+        <v>0.04030632809349311</v>
+      </c>
     </row>
-    <row r="106" spans="1:149">
+    <row r="106" spans="1:150">
       <c r="A106" s="1">
         <v>35065</v>
       </c>
@@ -46126,8 +46438,11 @@
       <c r="ES106">
         <v>-0.7117915659414276</v>
       </c>
+      <c r="ET106">
+        <v>-0.7117915659414276</v>
+      </c>
     </row>
-    <row r="107" spans="1:149">
+    <row r="107" spans="1:150">
       <c r="A107" s="1">
         <v>35156</v>
       </c>
@@ -46482,8 +46797,11 @@
       <c r="ES107">
         <v>1.366157175706737</v>
       </c>
+      <c r="ET107">
+        <v>1.366157175706737</v>
+      </c>
     </row>
-    <row r="108" spans="1:149">
+    <row r="108" spans="1:150">
       <c r="A108" s="1">
         <v>35247</v>
       </c>
@@ -46835,8 +47153,11 @@
       <c r="ES108">
         <v>0.3869762476648069</v>
       </c>
+      <c r="ET108">
+        <v>0.3869762476648069</v>
+      </c>
     </row>
-    <row r="109" spans="1:149">
+    <row r="109" spans="1:150">
       <c r="A109" s="1">
         <v>35339</v>
       </c>
@@ -47185,8 +47506,11 @@
       <c r="ES109">
         <v>0.9171872923035993</v>
       </c>
+      <c r="ET109">
+        <v>0.9171872923035993</v>
+      </c>
     </row>
-    <row r="110" spans="1:149">
+    <row r="110" spans="1:150">
       <c r="A110" s="1">
         <v>35431</v>
       </c>
@@ -47532,8 +47856,11 @@
       <c r="ES110">
         <v>-0.513698630136987</v>
       </c>
+      <c r="ET110">
+        <v>-0.513698630136987</v>
+      </c>
     </row>
-    <row r="111" spans="1:149">
+    <row r="111" spans="1:150">
       <c r="A111" s="1">
         <v>35521</v>
       </c>
@@ -47876,8 +48203,11 @@
       <c r="ES111">
         <v>1.11214087117702</v>
       </c>
+      <c r="ET111">
+        <v>1.11214087117702</v>
+      </c>
     </row>
-    <row r="112" spans="1:149">
+    <row r="112" spans="1:150">
       <c r="A112" s="1">
         <v>35612</v>
       </c>
@@ -48217,8 +48547,11 @@
       <c r="ES112">
         <v>0.3928244074898483</v>
       </c>
+      <c r="ET112">
+        <v>0.3928244074898483</v>
+      </c>
     </row>
-    <row r="113" spans="1:149">
+    <row r="113" spans="1:150">
       <c r="A113" s="1">
         <v>35704</v>
       </c>
@@ -48555,8 +48888,11 @@
       <c r="ES113">
         <v>0.7434459371331592</v>
       </c>
+      <c r="ET113">
+        <v>0.7434459371331592</v>
+      </c>
     </row>
-    <row r="114" spans="1:149">
+    <row r="114" spans="1:150">
       <c r="A114" s="1">
         <v>35796</v>
       </c>
@@ -48890,8 +49226,11 @@
       <c r="ES114">
         <v>0.95805282237184</v>
       </c>
+      <c r="ET114">
+        <v>0.95805282237184</v>
+      </c>
     </row>
-    <row r="115" spans="1:149">
+    <row r="115" spans="1:150">
       <c r="A115" s="1">
         <v>35886</v>
       </c>
@@ -49222,8 +49561,11 @@
       <c r="ES115">
         <v>-0.4616568350859187</v>
       </c>
+      <c r="ET115">
+        <v>-0.4616568350859187</v>
+      </c>
     </row>
-    <row r="116" spans="1:149">
+    <row r="116" spans="1:150">
       <c r="A116" s="1">
         <v>35977</v>
       </c>
@@ -49551,8 +49893,11 @@
       <c r="ES116">
         <v>0.4895645452202981</v>
       </c>
+      <c r="ET116">
+        <v>0.4895645452202981</v>
+      </c>
     </row>
-    <row r="117" spans="1:149">
+    <row r="117" spans="1:150">
       <c r="A117" s="1">
         <v>36069</v>
       </c>
@@ -49877,8 +50222,11 @@
       <c r="ES117">
         <v>-0.02564102564102054</v>
       </c>
+      <c r="ET117">
+        <v>-0.02564102564102054</v>
+      </c>
     </row>
-    <row r="118" spans="1:149">
+    <row r="118" spans="1:150">
       <c r="A118" s="1">
         <v>36161</v>
       </c>
@@ -50200,8 +50548,11 @@
       <c r="ES118">
         <v>1.154142087714788</v>
       </c>
+      <c r="ET118">
+        <v>1.154142087714788</v>
+      </c>
     </row>
-    <row r="119" spans="1:149">
+    <row r="119" spans="1:150">
       <c r="A119" s="1">
         <v>36251</v>
       </c>
@@ -50520,8 +50871,11 @@
       <c r="ES119">
         <v>-0.1267748478701753</v>
       </c>
+      <c r="ET119">
+        <v>-0.1267748478701753</v>
+      </c>
     </row>
-    <row r="120" spans="1:149">
+    <row r="120" spans="1:150">
       <c r="A120" s="1">
         <v>36342</v>
       </c>
@@ -50837,8 +51191,11 @@
       <c r="ES120">
         <v>1.370906321401369</v>
       </c>
+      <c r="ET120">
+        <v>1.370906321401369</v>
+      </c>
     </row>
-    <row r="121" spans="1:149">
+    <row r="121" spans="1:150">
       <c r="A121" s="1">
         <v>36434</v>
       </c>
@@ -51151,8 +51508,11 @@
       <c r="ES121">
         <v>0.4758327072376602</v>
       </c>
+      <c r="ET121">
+        <v>0.4758327072376602</v>
+      </c>
     </row>
-    <row r="122" spans="1:149">
+    <row r="122" spans="1:150">
       <c r="A122" s="1">
         <v>36526</v>
       </c>
@@ -51462,8 +51822,11 @@
       <c r="ES122">
         <v>1.545363908275186</v>
       </c>
+      <c r="ET122">
+        <v>1.545363908275186</v>
+      </c>
     </row>
-    <row r="123" spans="1:149">
+    <row r="123" spans="1:150">
       <c r="A123" s="1">
         <v>36617</v>
       </c>
@@ -51770,8 +52133,11 @@
       <c r="ES123">
         <v>0.7977417771232099</v>
       </c>
+      <c r="ET123">
+        <v>0.7977417771232099</v>
+      </c>
     </row>
-    <row r="124" spans="1:149">
+    <row r="124" spans="1:150">
       <c r="A124" s="1">
         <v>36708</v>
       </c>
@@ -52075,8 +52441,11 @@
       <c r="ES124">
         <v>0.07305491294289818</v>
       </c>
+      <c r="ET124">
+        <v>0.07305491294289818</v>
+      </c>
     </row>
-    <row r="125" spans="1:149">
+    <row r="125" spans="1:150">
       <c r="A125" s="1">
         <v>36800</v>
       </c>
@@ -52377,8 +52746,11 @@
       <c r="ES125">
         <v>-0.4258425599221248</v>
       </c>
+      <c r="ET125">
+        <v>-0.4258425599221248</v>
+      </c>
     </row>
-    <row r="126" spans="1:149">
+    <row r="126" spans="1:150">
       <c r="A126" s="1">
         <v>36892</v>
       </c>
@@ -52676,8 +53048,11 @@
       <c r="ES126">
         <v>2.126099706744862</v>
       </c>
+      <c r="ET126">
+        <v>2.126099706744862</v>
+      </c>
     </row>
-    <row r="127" spans="1:149">
+    <row r="127" spans="1:150">
       <c r="A127" s="1">
         <v>36982</v>
       </c>
@@ -52972,8 +53347,11 @@
       <c r="ES127">
         <v>-0.2512562814070277</v>
       </c>
+      <c r="ET127">
+        <v>-0.2512562814070277</v>
+      </c>
     </row>
-    <row r="128" spans="1:149">
+    <row r="128" spans="1:150">
       <c r="A128" s="1">
         <v>37073</v>
       </c>
@@ -53265,8 +53643,11 @@
       <c r="ES128">
         <v>0</v>
       </c>
+      <c r="ET128">
+        <v>0</v>
+      </c>
     </row>
-    <row r="129" spans="1:149">
+    <row r="129" spans="1:150">
       <c r="A129" s="1">
         <v>37165</v>
       </c>
@@ -53555,8 +53936,11 @@
       <c r="ES129">
         <v>-0.3118627803766404</v>
       </c>
+      <c r="ET129">
+        <v>-0.3118627803766404</v>
+      </c>
     </row>
-    <row r="130" spans="1:149">
+    <row r="130" spans="1:150">
       <c r="A130" s="1">
         <v>37257</v>
       </c>
@@ -53842,8 +54226,11 @@
       <c r="ES130">
         <v>-0.4692576103958616</v>
       </c>
+      <c r="ET130">
+        <v>-0.4692576103958616</v>
+      </c>
     </row>
-    <row r="131" spans="1:149">
+    <row r="131" spans="1:150">
       <c r="A131" s="1">
         <v>37347</v>
       </c>
@@ -54126,8 +54513,11 @@
       <c r="ES131">
         <v>0.3868471953578426</v>
       </c>
+      <c r="ET131">
+        <v>0.3868471953578426</v>
+      </c>
     </row>
-    <row r="132" spans="1:149">
+    <row r="132" spans="1:150">
       <c r="A132" s="1">
         <v>37438</v>
       </c>
@@ -54407,8 +54797,11 @@
       <c r="ES132">
         <v>0.68641618497109</v>
       </c>
+      <c r="ET132">
+        <v>0.68641618497109</v>
+      </c>
     </row>
-    <row r="133" spans="1:149">
+    <row r="133" spans="1:150">
       <c r="A133" s="1">
         <v>37530</v>
       </c>
@@ -54685,8 +55078,11 @@
       <c r="ES133">
         <v>-0.2750867121157804</v>
       </c>
+      <c r="ET133">
+        <v>-0.2750867121157804</v>
+      </c>
     </row>
-    <row r="134" spans="1:149">
+    <row r="134" spans="1:150">
       <c r="A134" s="1">
         <v>37622</v>
       </c>
@@ -54960,8 +55356,11 @@
       <c r="ES134">
         <v>-1.355241065003592</v>
       </c>
+      <c r="ET134">
+        <v>-1.355241065003592</v>
+      </c>
     </row>
-    <row r="135" spans="1:149">
+    <row r="135" spans="1:150">
       <c r="A135" s="1">
         <v>37712</v>
       </c>
@@ -55232,8 +55631,11 @@
       <c r="ES135">
         <v>0.1458966565349599</v>
       </c>
+      <c r="ET135">
+        <v>0.1458966565349599</v>
+      </c>
     </row>
-    <row r="136" spans="1:149">
+    <row r="136" spans="1:150">
       <c r="A136" s="1">
         <v>37803</v>
       </c>
@@ -55501,8 +55903,11 @@
       <c r="ES136">
         <v>0.9105256768240864</v>
       </c>
+      <c r="ET136">
+        <v>0.9105256768240864</v>
+      </c>
     </row>
-    <row r="137" spans="1:149">
+    <row r="137" spans="1:150">
       <c r="A137" s="1">
         <v>37895</v>
       </c>
@@ -55767,8 +56172,11 @@
       <c r="ES137">
         <v>0.1203079884504263</v>
       </c>
+      <c r="ET137">
+        <v>0.1203079884504263</v>
+      </c>
     </row>
-    <row r="138" spans="1:149">
+    <row r="138" spans="1:150">
       <c r="A138" s="1">
         <v>37987</v>
       </c>
@@ -56030,8 +56438,11 @@
       <c r="ES138">
         <v>-0.1562124489305401</v>
       </c>
+      <c r="ET138">
+        <v>-0.1562124489305401</v>
+      </c>
     </row>
-    <row r="139" spans="1:149">
+    <row r="139" spans="1:150">
       <c r="A139" s="1">
         <v>38078</v>
       </c>
@@ -56290,8 +56701,11 @@
       <c r="ES139">
         <v>0.589721988205554</v>
       </c>
+      <c r="ET139">
+        <v>0.589721988205554</v>
+      </c>
     </row>
-    <row r="140" spans="1:149">
+    <row r="140" spans="1:150">
       <c r="A140" s="1">
         <v>38169</v>
       </c>
@@ -56547,8 +56961,11 @@
       <c r="ES140">
         <v>-0.323043790380469</v>
       </c>
+      <c r="ET140">
+        <v>-0.323043790380469</v>
+      </c>
     </row>
-    <row r="141" spans="1:149">
+    <row r="141" spans="1:150">
       <c r="A141" s="1">
         <v>38261</v>
       </c>
@@ -56801,8 +57218,11 @@
       <c r="ES141">
         <v>-0.03601008282319185</v>
       </c>
+      <c r="ET141">
+        <v>-0.03601008282319185</v>
+      </c>
     </row>
-    <row r="142" spans="1:149">
+    <row r="142" spans="1:150">
       <c r="A142" s="1">
         <v>38353</v>
       </c>
@@ -57052,8 +57472,11 @@
       <c r="ES142">
         <v>0.1560999039385152</v>
       </c>
+      <c r="ET142">
+        <v>0.1560999039385152</v>
+      </c>
     </row>
-    <row r="143" spans="1:149">
+    <row r="143" spans="1:150">
       <c r="A143" s="1">
         <v>38443</v>
       </c>
@@ -57300,8 +57723,11 @@
       <c r="ES143">
         <v>0.5994485073732168</v>
       </c>
+      <c r="ET143">
+        <v>0.5994485073732168</v>
+      </c>
     </row>
-    <row r="144" spans="1:149">
+    <row r="144" spans="1:150">
       <c r="A144" s="1">
         <v>38534</v>
       </c>
@@ -57545,8 +57971,11 @@
       <c r="ES144">
         <v>0.7865570253843364</v>
       </c>
+      <c r="ET144">
+        <v>0.7865570253843364</v>
+      </c>
     </row>
-    <row r="145" spans="1:149">
+    <row r="145" spans="1:150">
       <c r="A145" s="1">
         <v>38626</v>
       </c>
@@ -57787,8 +58216,11 @@
       <c r="ES145">
         <v>0.3783847700130157</v>
       </c>
+      <c r="ET145">
+        <v>0.3783847700130157</v>
+      </c>
     </row>
-    <row r="146" spans="1:149">
+    <row r="146" spans="1:150">
       <c r="A146" s="1">
         <v>38718</v>
       </c>
@@ -58026,8 +58458,11 @@
       <c r="ES146">
         <v>1.119095299799744</v>
       </c>
+      <c r="ET146">
+        <v>1.119095299799744</v>
+      </c>
     </row>
-    <row r="147" spans="1:149">
+    <row r="147" spans="1:150">
       <c r="A147" s="1">
         <v>38808</v>
       </c>
@@ -58262,8 +58697,11 @@
       <c r="ES147">
         <v>1.712488350419384</v>
       </c>
+      <c r="ET147">
+        <v>1.712488350419384</v>
+      </c>
     </row>
-    <row r="148" spans="1:149">
+    <row r="148" spans="1:150">
       <c r="A148" s="1">
         <v>38899</v>
       </c>
@@ -58495,8 +58933,11 @@
       <c r="ES148">
         <v>0.7559271561104073</v>
       </c>
+      <c r="ET148">
+        <v>0.7559271561104073</v>
+      </c>
     </row>
-    <row r="149" spans="1:149">
+    <row r="149" spans="1:150">
       <c r="A149" s="1">
         <v>38991</v>
       </c>
@@ -58725,8 +59166,11 @@
       <c r="ES149">
         <v>1.466409003069235</v>
       </c>
+      <c r="ET149">
+        <v>1.466409003069235</v>
+      </c>
     </row>
-    <row r="150" spans="1:149">
+    <row r="150" spans="1:150">
       <c r="A150" s="1">
         <v>39083</v>
       </c>
@@ -58952,8 +59396,11 @@
       <c r="ES150">
         <v>0.1344387183508742</v>
       </c>
+      <c r="ET150">
+        <v>0.1344387183508742</v>
+      </c>
     </row>
-    <row r="151" spans="1:149">
+    <row r="151" spans="1:150">
       <c r="A151" s="1">
         <v>39173</v>
       </c>
@@ -59176,8 +59623,11 @@
       <c r="ES151">
         <v>0.6601029313045462</v>
       </c>
+      <c r="ET151">
+        <v>0.6601029313045462</v>
+      </c>
     </row>
-    <row r="152" spans="1:149">
+    <row r="152" spans="1:150">
       <c r="A152" s="1">
         <v>39264</v>
       </c>
@@ -59397,8 +59847,11 @@
       <c r="ES152">
         <v>0.5112815382905501</v>
       </c>
+      <c r="ET152">
+        <v>0.5112815382905501</v>
+      </c>
     </row>
-    <row r="153" spans="1:149">
+    <row r="153" spans="1:150">
       <c r="A153" s="1">
         <v>39356</v>
       </c>
@@ -59615,8 +60068,11 @@
       <c r="ES153">
         <v>0.7409045670684369</v>
       </c>
+      <c r="ET153">
+        <v>0.7409045670684369</v>
+      </c>
     </row>
-    <row r="154" spans="1:149">
+    <row r="154" spans="1:150">
       <c r="A154" s="1">
         <v>39448</v>
       </c>
@@ -59830,8 +60286,11 @@
       <c r="ES154">
         <v>0.5817782656421527</v>
       </c>
+      <c r="ET154">
+        <v>0.5817782656421527</v>
+      </c>
     </row>
-    <row r="155" spans="1:149">
+    <row r="155" spans="1:150">
       <c r="A155" s="1">
         <v>39539</v>
       </c>
@@ -60042,8 +60501,11 @@
       <c r="ES155">
         <v>-0.3601440576230474</v>
       </c>
+      <c r="ET155">
+        <v>-0.3601440576230474</v>
+      </c>
     </row>
-    <row r="156" spans="1:149">
+    <row r="156" spans="1:150">
       <c r="A156" s="1">
         <v>39630</v>
       </c>
@@ -60251,8 +60713,11 @@
       <c r="ES156">
         <v>-0.547645125958379</v>
       </c>
+      <c r="ET156">
+        <v>-0.547645125958379</v>
+      </c>
     </row>
-    <row r="157" spans="1:149">
+    <row r="157" spans="1:150">
       <c r="A157" s="1">
         <v>39722</v>
       </c>
@@ -60457,8 +60922,11 @@
       <c r="ES157">
         <v>-1.552863436123344</v>
       </c>
+      <c r="ET157">
+        <v>-1.552863436123344</v>
+      </c>
     </row>
-    <row r="158" spans="1:149">
+    <row r="158" spans="1:150">
       <c r="A158" s="1">
         <v>39814</v>
       </c>
@@ -60660,8 +61128,11 @@
       <c r="ES158">
         <v>-4.687325204161537</v>
       </c>
+      <c r="ET158">
+        <v>-4.687325204161537</v>
+      </c>
     </row>
-    <row r="159" spans="1:149">
+    <row r="159" spans="1:150">
       <c r="A159" s="1">
         <v>39904</v>
       </c>
@@ -60860,8 +61331,11 @@
       <c r="ES159">
         <v>0.2464788732394293</v>
       </c>
+      <c r="ET159">
+        <v>0.2464788732394293</v>
+      </c>
     </row>
-    <row r="160" spans="1:149">
+    <row r="160" spans="1:150">
       <c r="A160" s="1">
         <v>39995</v>
       </c>
@@ -61057,8 +61531,11 @@
       <c r="ES160">
         <v>0.6205362369745945</v>
       </c>
+      <c r="ET160">
+        <v>0.6205362369745945</v>
+      </c>
     </row>
-    <row r="161" spans="1:149">
+    <row r="161" spans="1:150">
       <c r="A161" s="1">
         <v>40087</v>
       </c>
@@ -61251,8 +61728,11 @@
       <c r="ES161">
         <v>0.7679776588317392</v>
       </c>
+      <c r="ET161">
+        <v>0.7679776588317392</v>
+      </c>
     </row>
-    <row r="162" spans="1:149">
+    <row r="162" spans="1:150">
       <c r="A162" s="1">
         <v>40179</v>
       </c>
@@ -61442,8 +61922,11 @@
       <c r="ES162">
         <v>0.7274826789838449</v>
       </c>
+      <c r="ET162">
+        <v>0.7274826789838449</v>
+      </c>
     </row>
-    <row r="163" spans="1:149">
+    <row r="163" spans="1:150">
       <c r="A163" s="1">
         <v>40269</v>
       </c>
@@ -61630,8 +62113,11 @@
       <c r="ES163">
         <v>2.166685773243151</v>
       </c>
+      <c r="ET163">
+        <v>2.166685773243151</v>
+      </c>
     </row>
-    <row r="164" spans="1:149">
+    <row r="164" spans="1:150">
       <c r="A164" s="1">
         <v>40360</v>
       </c>
@@ -61815,8 +62301,11 @@
       <c r="ES164">
         <v>0.9649910233393171</v>
       </c>
+      <c r="ET164">
+        <v>0.9649910233393171</v>
+      </c>
     </row>
-    <row r="165" spans="1:149">
+    <row r="165" spans="1:150">
       <c r="A165" s="1">
         <v>40452</v>
       </c>
@@ -61997,8 +62486,11 @@
       <c r="ES165">
         <v>0.6557012669481986</v>
       </c>
+      <c r="ET165">
+        <v>0.6557012669481986</v>
+      </c>
     </row>
-    <row r="166" spans="1:149">
+    <row r="166" spans="1:150">
       <c r="A166" s="1">
         <v>40544</v>
       </c>
@@ -62176,8 +62668,11 @@
       <c r="ES166">
         <v>1.810754112840897</v>
       </c>
+      <c r="ET166">
+        <v>1.810754112840897</v>
+      </c>
     </row>
-    <row r="167" spans="1:149">
+    <row r="167" spans="1:150">
       <c r="A167" s="1">
         <v>40634</v>
       </c>
@@ -62352,8 +62847,11 @@
       <c r="ES167">
         <v>0.2711202689513068</v>
       </c>
+      <c r="ET167">
+        <v>0.2711202689513068</v>
+      </c>
     </row>
-    <row r="168" spans="1:149">
+    <row r="168" spans="1:150">
       <c r="A168" s="1">
         <v>40725</v>
       </c>
@@ -62525,8 +63023,11 @@
       <c r="ES168">
         <v>0.5407743889249406</v>
       </c>
+      <c r="ET168">
+        <v>0.5407743889249406</v>
+      </c>
     </row>
-    <row r="169" spans="1:149">
+    <row r="169" spans="1:150">
       <c r="A169" s="1">
         <v>40817</v>
       </c>
@@ -62695,8 +63196,11 @@
       <c r="ES169">
         <v>-0.01075731497417266</v>
       </c>
+      <c r="ET169">
+        <v>-0.01075731497417266</v>
+      </c>
     </row>
-    <row r="170" spans="1:149">
+    <row r="170" spans="1:150">
       <c r="A170" s="1">
         <v>40909</v>
       </c>
@@ -62862,8 +63366,11 @@
       <c r="ES170">
         <v>0.2151694459386798</v>
       </c>
+      <c r="ET170">
+        <v>0.2151694459386798</v>
+      </c>
     </row>
-    <row r="171" spans="1:149">
+    <row r="171" spans="1:150">
       <c r="A171" s="1">
         <v>41000</v>
       </c>
@@ -63026,8 +63533,11 @@
       <c r="ES171">
         <v>0.1073537305421302</v>
       </c>
+      <c r="ET171">
+        <v>0.1073537305421302</v>
+      </c>
     </row>
-    <row r="172" spans="1:149">
+    <row r="172" spans="1:150">
       <c r="A172" s="1">
         <v>41091</v>
       </c>
@@ -63187,8 +63697,11 @@
       <c r="ES172">
         <v>0.2037533512064319</v>
       </c>
+      <c r="ET172">
+        <v>0.2037533512064319</v>
+      </c>
     </row>
-    <row r="173" spans="1:149">
+    <row r="173" spans="1:150">
       <c r="A173" s="1">
         <v>41183</v>
       </c>
@@ -63345,8 +63858,11 @@
       <c r="ES173">
         <v>-0.2996575342465766</v>
       </c>
+      <c r="ET173">
+        <v>-0.2996575342465766</v>
+      </c>
     </row>
-    <row r="174" spans="1:149">
+    <row r="174" spans="1:150">
       <c r="A174" s="1">
         <v>41275</v>
       </c>
@@ -63500,8 +64016,11 @@
       <c r="ES174">
         <v>-0.5581794761700257</v>
       </c>
+      <c r="ET174">
+        <v>-0.5581794761700257</v>
+      </c>
     </row>
-    <row r="175" spans="1:149">
+    <row r="175" spans="1:150">
       <c r="A175" s="1">
         <v>41365</v>
       </c>
@@ -63652,8 +64171,11 @@
       <c r="ES175">
         <v>1.165803108808288</v>
       </c>
+      <c r="ET175">
+        <v>1.165803108808288</v>
+      </c>
     </row>
-    <row r="176" spans="1:149">
+    <row r="176" spans="1:150">
       <c r="A176" s="1">
         <v>41456</v>
       </c>
@@ -63801,8 +64323,11 @@
       <c r="ES176">
         <v>0.5121638924455868</v>
       </c>
+      <c r="ET176">
+        <v>0.5121638924455868</v>
+      </c>
     </row>
-    <row r="177" spans="1:149">
+    <row r="177" spans="1:150">
       <c r="A177" s="1">
         <v>41548</v>
       </c>
@@ -63947,8 +64472,11 @@
       <c r="ES177">
         <v>0.1486199575371556</v>
       </c>
+      <c r="ET177">
+        <v>0.1486199575371556</v>
+      </c>
     </row>
-    <row r="178" spans="1:149">
+    <row r="178" spans="1:150">
       <c r="A178" s="1">
         <v>41640</v>
       </c>
@@ -64090,8 +64618,11 @@
       <c r="ES178">
         <v>1.049395802416785</v>
       </c>
+      <c r="ET178">
+        <v>1.049395802416785</v>
+      </c>
     </row>
-    <row r="179" spans="1:149">
+    <row r="179" spans="1:150">
       <c r="A179" s="1">
         <v>41730</v>
       </c>
@@ -64230,8 +64761,11 @@
       <c r="ES179">
         <v>-0.02097975453686774</v>
       </c>
+      <c r="ET179">
+        <v>-0.02097975453686774</v>
+      </c>
     </row>
-    <row r="180" spans="1:149">
+    <row r="180" spans="1:150">
       <c r="A180" s="1">
         <v>41821</v>
       </c>
@@ -64367,8 +64901,11 @@
       <c r="ES180">
         <v>0.5560801594795941</v>
       </c>
+      <c r="ET180">
+        <v>0.5560801594795941</v>
+      </c>
     </row>
-    <row r="181" spans="1:149">
+    <row r="181" spans="1:150">
       <c r="A181" s="1">
         <v>41913</v>
       </c>
@@ -64501,8 +65038,11 @@
       <c r="ES181">
         <v>0.7616861435726103</v>
       </c>
+      <c r="ET181">
+        <v>0.7616861435726103</v>
+      </c>
     </row>
-    <row r="182" spans="1:149">
+    <row r="182" spans="1:150">
       <c r="A182" s="1">
         <v>42005</v>
       </c>
@@ -64632,8 +65172,11 @@
       <c r="ES182">
         <v>-0.2174588381484869</v>
       </c>
+      <c r="ET182">
+        <v>-0.2174588381484869</v>
+      </c>
     </row>
-    <row r="183" spans="1:149">
+    <row r="183" spans="1:150">
       <c r="A183" s="1">
         <v>42095</v>
       </c>
@@ -64760,8 +65303,11 @@
       <c r="ES183">
         <v>0.5188875051888751</v>
       </c>
+      <c r="ET183">
+        <v>0.5188875051888751</v>
+      </c>
     </row>
-    <row r="184" spans="1:149">
+    <row r="184" spans="1:150">
       <c r="A184" s="1">
         <v>42186</v>
       </c>
@@ -64885,8 +65431,11 @@
       <c r="ES184">
         <v>0.5368573198430684</v>
       </c>
+      <c r="ET184">
+        <v>0.5368573198430684</v>
+      </c>
     </row>
-    <row r="185" spans="1:149">
+    <row r="185" spans="1:150">
       <c r="A185" s="1">
         <v>42278</v>
       </c>
@@ -65007,8 +65556,11 @@
       <c r="ES185">
         <v>0.5134524543027316</v>
       </c>
+      <c r="ET185">
+        <v>0.5134524543027316</v>
+      </c>
     </row>
-    <row r="186" spans="1:149">
+    <row r="186" spans="1:150">
       <c r="A186" s="1">
         <v>42370</v>
       </c>
@@ -65126,8 +65678,11 @@
       <c r="ES186">
         <v>0.8786268900694724</v>
       </c>
+      <c r="ET186">
+        <v>0.8786268900694724</v>
+      </c>
     </row>
-    <row r="187" spans="1:149">
+    <row r="187" spans="1:150">
       <c r="A187" s="1">
         <v>42461</v>
       </c>
@@ -65242,8 +65797,11 @@
       <c r="ES187">
         <v>0.2228073728985202</v>
       </c>
+      <c r="ET187">
+        <v>0.2228073728985202</v>
+      </c>
     </row>
-    <row r="188" spans="1:149">
+    <row r="188" spans="1:150">
       <c r="A188" s="1">
         <v>42552</v>
       </c>
@@ -65355,8 +65913,11 @@
       <c r="ES188">
         <v>0.3536782538399439</v>
       </c>
+      <c r="ET188">
+        <v>0.3536782538399439</v>
+      </c>
     </row>
-    <row r="189" spans="1:149">
+    <row r="189" spans="1:150">
       <c r="A189" s="1">
         <v>42644</v>
       </c>
@@ -65465,8 +66026,11 @@
       <c r="ES189">
         <v>0.4631960527640658</v>
       </c>
+      <c r="ET189">
+        <v>0.4631960527640658</v>
+      </c>
     </row>
-    <row r="190" spans="1:149">
+    <row r="190" spans="1:150">
       <c r="A190" s="1">
         <v>42736</v>
       </c>
@@ -65572,8 +66136,11 @@
       <c r="ES190">
         <v>1.292973839831619</v>
       </c>
+      <c r="ET190">
+        <v>1.292973839831619</v>
+      </c>
     </row>
-    <row r="191" spans="1:149">
+    <row r="191" spans="1:150">
       <c r="A191" s="1">
         <v>42826</v>
       </c>
@@ -65676,8 +66243,11 @@
       <c r="ES191">
         <v>0.7124480506629713</v>
       </c>
+      <c r="ET191">
+        <v>0.7124480506629713</v>
+      </c>
     </row>
-    <row r="192" spans="1:149">
+    <row r="192" spans="1:150">
       <c r="A192" s="1">
         <v>42917</v>
       </c>
@@ -65777,8 +66347,11 @@
       <c r="ES192">
         <v>0.7958341520927513</v>
       </c>
+      <c r="ET192">
+        <v>0.7958341520927513</v>
+      </c>
     </row>
-    <row r="193" spans="1:149">
+    <row r="193" spans="1:150">
       <c r="A193" s="1">
         <v>43009</v>
       </c>
@@ -65875,8 +66448,11 @@
       <c r="ES193">
         <v>1.01374402963251</v>
       </c>
+      <c r="ET193">
+        <v>1.01374402963251</v>
+      </c>
     </row>
-    <row r="194" spans="1:149">
+    <row r="194" spans="1:150">
       <c r="A194" s="1">
         <v>43101</v>
       </c>
@@ -65970,8 +66546,11 @@
       <c r="ES194">
         <v>-0.5500337740036604</v>
       </c>
+      <c r="ET194">
+        <v>-0.5500337740036604</v>
+      </c>
     </row>
-    <row r="195" spans="1:149">
+    <row r="195" spans="1:150">
       <c r="A195" s="1">
         <v>43191</v>
       </c>
@@ -66062,8 +66641,11 @@
       <c r="ES195">
         <v>0.7859499320784032</v>
       </c>
+      <c r="ET195">
+        <v>0.7859499320784032</v>
+      </c>
     </row>
-    <row r="196" spans="1:149">
+    <row r="196" spans="1:150">
       <c r="A196" s="1">
         <v>43282</v>
       </c>
@@ -66151,8 +66733,11 @@
       <c r="ES196">
         <v>-0.654664484451725</v>
       </c>
+      <c r="ET196">
+        <v>-0.654664484451725</v>
+      </c>
     </row>
-    <row r="197" spans="1:149">
+    <row r="197" spans="1:150">
       <c r="A197" s="1">
         <v>43374</v>
       </c>
@@ -66237,8 +66822,11 @@
       <c r="ES197">
         <v>0.4457796298090977</v>
       </c>
+      <c r="ET197">
+        <v>0.4457796298090977</v>
+      </c>
     </row>
-    <row r="198" spans="1:149">
+    <row r="198" spans="1:150">
       <c r="A198" s="1">
         <v>43466</v>
       </c>
@@ -66320,8 +66908,11 @@
       <c r="ES198">
         <v>0.6560540279787676</v>
       </c>
+      <c r="ET198">
+        <v>0.6560540279787676</v>
+      </c>
     </row>
-    <row r="199" spans="1:149">
+    <row r="199" spans="1:150">
       <c r="A199" s="1">
         <v>43556</v>
       </c>
@@ -66400,8 +66991,11 @@
       <c r="ES199">
         <v>0.05750982459503716</v>
       </c>
+      <c r="ET199">
+        <v>0.05750982459503716</v>
+      </c>
     </row>
-    <row r="200" spans="1:149">
+    <row r="200" spans="1:150">
       <c r="A200" s="1">
         <v>43647</v>
       </c>
@@ -66477,8 +67071,11 @@
       <c r="ES200">
         <v>0.3831784653702516</v>
       </c>
+      <c r="ET200">
+        <v>0.3831784653702516</v>
+      </c>
     </row>
-    <row r="201" spans="1:149">
+    <row r="201" spans="1:150">
       <c r="A201" s="1">
         <v>43739</v>
       </c>
@@ -66551,8 +67148,11 @@
       <c r="ES201">
         <v>-0.3340013360053521</v>
       </c>
+      <c r="ET201">
+        <v>-0.3340013360053521</v>
+      </c>
     </row>
-    <row r="202" spans="1:149">
+    <row r="202" spans="1:150">
       <c r="A202" s="1">
         <v>43831</v>
       </c>
@@ -66622,8 +67222,11 @@
       <c r="ES202">
         <v>-2.029873611643053</v>
       </c>
+      <c r="ET202">
+        <v>-2.029873611643053</v>
+      </c>
     </row>
-    <row r="203" spans="1:149">
+    <row r="203" spans="1:150">
       <c r="A203" s="1">
         <v>43922</v>
       </c>
@@ -66690,8 +67293,11 @@
       <c r="ES203">
         <v>-8.874120406567631</v>
       </c>
+      <c r="ET203">
+        <v>-8.874120406567631</v>
+      </c>
     </row>
-    <row r="204" spans="1:149">
+    <row r="204" spans="1:150">
       <c r="A204" s="1">
         <v>44013</v>
       </c>
@@ -66755,8 +67361,11 @@
       <c r="ES204">
         <v>8.67653367653368</v>
       </c>
+      <c r="ET204">
+        <v>8.67653367653368</v>
+      </c>
     </row>
-    <row r="205" spans="1:149">
+    <row r="205" spans="1:150">
       <c r="A205" s="1">
         <v>44105</v>
       </c>
@@ -66817,8 +67426,11 @@
       <c r="ES205">
         <v>0.9671370768775328</v>
       </c>
+      <c r="ET205">
+        <v>0.9671370768775328</v>
+      </c>
     </row>
-    <row r="206" spans="1:149">
+    <row r="206" spans="1:150">
       <c r="A206" s="1">
         <v>44197</v>
       </c>
@@ -66876,8 +67488,11 @@
       <c r="ES206">
         <v>-0.6157755840093788</v>
       </c>
+      <c r="ET206">
+        <v>-0.6157755840093788</v>
+      </c>
     </row>
-    <row r="207" spans="1:149">
+    <row r="207" spans="1:150">
       <c r="A207" s="1">
         <v>44287</v>
       </c>
@@ -66932,8 +67547,11 @@
       <c r="ES207">
         <v>2.350511408339877</v>
       </c>
+      <c r="ET207">
+        <v>2.350511408339877</v>
+      </c>
     </row>
-    <row r="208" spans="1:149">
+    <row r="208" spans="1:150">
       <c r="A208" s="1">
         <v>44378</v>
       </c>
@@ -66985,8 +67603,11 @@
       <c r="ES208">
         <v>0.08648025367541406</v>
       </c>
+      <c r="ET208">
+        <v>0.08648025367541406</v>
+      </c>
     </row>
-    <row r="209" spans="1:149">
+    <row r="209" spans="1:150">
       <c r="A209" s="1">
         <v>44470</v>
       </c>
@@ -67035,8 +67656,11 @@
       <c r="ES209">
         <v>0.5376344086021527</v>
       </c>
+      <c r="ET209">
+        <v>0.5376344086021527</v>
+      </c>
     </row>
-    <row r="210" spans="1:149">
+    <row r="210" spans="1:150">
       <c r="A210" s="1">
         <v>44562</v>
       </c>
@@ -67082,8 +67706,11 @@
       <c r="ES210">
         <v>0.6779984721161268</v>
       </c>
+      <c r="ET210">
+        <v>0.6779984721161268</v>
+      </c>
     </row>
-    <row r="211" spans="1:149">
+    <row r="211" spans="1:150">
       <c r="A211" s="1">
         <v>44652</v>
       </c>
@@ -67126,8 +67753,11 @@
       <c r="ES211">
         <v>0.1517594612539093</v>
       </c>
+      <c r="ET211">
+        <v>0.1517594612539093</v>
+      </c>
     </row>
-    <row r="212" spans="1:149">
+    <row r="212" spans="1:150">
       <c r="A212" s="1">
         <v>44743</v>
       </c>
@@ -67167,8 +67797,11 @@
       <c r="ES212">
         <v>0.2935884079931833</v>
       </c>
+      <c r="ET212">
+        <v>0.2935884079931833</v>
+      </c>
     </row>
-    <row r="213" spans="1:149">
+    <row r="213" spans="1:150">
       <c r="A213" s="1">
         <v>44835</v>
       </c>
@@ -67205,8 +67838,11 @@
       <c r="ES213">
         <v>-0.3493862134088806</v>
       </c>
+      <c r="ET213">
+        <v>-0.3493862134088806</v>
+      </c>
     </row>
-    <row r="214" spans="1:149">
+    <row r="214" spans="1:150">
       <c r="A214" s="1">
         <v>44927</v>
       </c>
@@ -67240,8 +67876,11 @@
       <c r="ES214">
         <v>-0.473798919738463</v>
       </c>
+      <c r="ET214">
+        <v>-0.473798919738463</v>
+      </c>
     </row>
-    <row r="215" spans="1:149">
+    <row r="215" spans="1:150">
       <c r="A215" s="1">
         <v>45017</v>
       </c>
@@ -67272,8 +67911,11 @@
       <c r="ES215">
         <v>-0.07616871370084576</v>
       </c>
+      <c r="ET215">
+        <v>-0.07616871370084576</v>
+      </c>
     </row>
-    <row r="216" spans="1:149">
+    <row r="216" spans="1:150">
       <c r="A216" s="1">
         <v>45108</v>
       </c>
@@ -67301,8 +67943,11 @@
       <c r="ES216">
         <v>0</v>
       </c>
+      <c r="ET216">
+        <v>0</v>
+      </c>
     </row>
-    <row r="217" spans="1:149">
+    <row r="217" spans="1:150">
       <c r="A217" s="1">
         <v>45200</v>
       </c>
@@ -67327,8 +67972,11 @@
       <c r="ES217">
         <v>-0.2763220581229216</v>
       </c>
+      <c r="ET217">
+        <v>-0.2763220581229216</v>
+      </c>
     </row>
-    <row r="218" spans="1:149">
+    <row r="218" spans="1:150">
       <c r="A218" s="1">
         <v>45292</v>
       </c>
@@ -67350,8 +67998,11 @@
       <c r="ES218">
         <v>-0.1051022358111976</v>
       </c>
+      <c r="ET218">
+        <v>-0.1051022358111976</v>
+      </c>
     </row>
-    <row r="219" spans="1:149">
+    <row r="219" spans="1:150">
       <c r="A219" s="1">
         <v>45383</v>
       </c>
@@ -67370,8 +68021,11 @@
       <c r="ES219">
         <v>-0.2582496413199388</v>
       </c>
+      <c r="ET219">
+        <v>-0.2582496413199388</v>
+      </c>
     </row>
-    <row r="220" spans="1:149">
+    <row r="220" spans="1:150">
       <c r="A220" s="1">
         <v>45474</v>
       </c>
@@ -67387,8 +68041,11 @@
       <c r="ES220">
         <v>0.01917913310317992</v>
       </c>
+      <c r="ET220">
+        <v>0.01917913310317992</v>
+      </c>
     </row>
-    <row r="221" spans="1:149">
+    <row r="221" spans="1:150">
       <c r="A221" s="1">
         <v>45566</v>
       </c>
@@ -67401,8 +68058,11 @@
       <c r="ES221">
         <v>0.1821668264621263</v>
       </c>
+      <c r="ET221">
+        <v>0.1821668264621263</v>
+      </c>
     </row>
-    <row r="222" spans="1:149">
+    <row r="222" spans="1:150">
       <c r="A222" s="1">
         <v>45658</v>
       </c>
@@ -67412,18 +68072,32 @@
       <c r="ES222">
         <v>0.3062494018566441</v>
       </c>
+      <c r="ET222">
+        <v>0.3062494018566441</v>
+      </c>
     </row>
-    <row r="223" spans="1:149">
+    <row r="223" spans="1:150">
       <c r="A223" s="1">
         <v>45748</v>
       </c>
       <c r="ES223">
         <v>-0.2766911554241067</v>
       </c>
+      <c r="ET223">
+        <v>-0.2099036351493167</v>
+      </c>
     </row>
-    <row r="224" spans="1:149">
+    <row r="224" spans="1:150">
       <c r="A224" s="1">
         <v>45839</v>
+      </c>
+      <c r="ET224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="1">
+        <v>45931</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/2_Processed_Data/1_combined_GDP_series/qoq_combined_GDP_data.xlsx
+++ b/0_0_Data/2_Processed_Data/1_combined_GDP_series/qoq_combined_GDP_data.xlsx
@@ -11,6 +11,683 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
+  <si>
+    <t>1970Q1</t>
+  </si>
+  <si>
+    <t>1970Q2</t>
+  </si>
+  <si>
+    <t>1970Q3</t>
+  </si>
+  <si>
+    <t>1970Q4</t>
+  </si>
+  <si>
+    <t>1971Q1</t>
+  </si>
+  <si>
+    <t>1971Q2</t>
+  </si>
+  <si>
+    <t>1971Q3</t>
+  </si>
+  <si>
+    <t>1971Q4</t>
+  </si>
+  <si>
+    <t>1972Q1</t>
+  </si>
+  <si>
+    <t>1972Q2</t>
+  </si>
+  <si>
+    <t>1972Q3</t>
+  </si>
+  <si>
+    <t>1972Q4</t>
+  </si>
+  <si>
+    <t>1973Q1</t>
+  </si>
+  <si>
+    <t>1973Q2</t>
+  </si>
+  <si>
+    <t>1973Q3</t>
+  </si>
+  <si>
+    <t>1973Q4</t>
+  </si>
+  <si>
+    <t>1974Q1</t>
+  </si>
+  <si>
+    <t>1974Q2</t>
+  </si>
+  <si>
+    <t>1974Q3</t>
+  </si>
+  <si>
+    <t>1974Q4</t>
+  </si>
+  <si>
+    <t>1975Q1</t>
+  </si>
+  <si>
+    <t>1975Q2</t>
+  </si>
+  <si>
+    <t>1975Q3</t>
+  </si>
+  <si>
+    <t>1975Q4</t>
+  </si>
+  <si>
+    <t>1976Q1</t>
+  </si>
+  <si>
+    <t>1976Q2</t>
+  </si>
+  <si>
+    <t>1976Q3</t>
+  </si>
+  <si>
+    <t>1976Q4</t>
+  </si>
+  <si>
+    <t>1977Q1</t>
+  </si>
+  <si>
+    <t>1977Q2</t>
+  </si>
+  <si>
+    <t>1977Q3</t>
+  </si>
+  <si>
+    <t>1977Q4</t>
+  </si>
+  <si>
+    <t>1978Q1</t>
+  </si>
+  <si>
+    <t>1978Q2</t>
+  </si>
+  <si>
+    <t>1978Q3</t>
+  </si>
+  <si>
+    <t>1978Q4</t>
+  </si>
+  <si>
+    <t>1979Q1</t>
+  </si>
+  <si>
+    <t>1979Q2</t>
+  </si>
+  <si>
+    <t>1979Q3</t>
+  </si>
+  <si>
+    <t>1979Q4</t>
+  </si>
+  <si>
+    <t>1980Q1</t>
+  </si>
+  <si>
+    <t>1980Q2</t>
+  </si>
+  <si>
+    <t>1980Q3</t>
+  </si>
+  <si>
+    <t>1980Q4</t>
+  </si>
+  <si>
+    <t>1981Q1</t>
+  </si>
+  <si>
+    <t>1981Q2</t>
+  </si>
+  <si>
+    <t>1981Q3</t>
+  </si>
+  <si>
+    <t>1981Q4</t>
+  </si>
+  <si>
+    <t>1982Q1</t>
+  </si>
+  <si>
+    <t>1982Q2</t>
+  </si>
+  <si>
+    <t>1982Q3</t>
+  </si>
+  <si>
+    <t>1982Q4</t>
+  </si>
+  <si>
+    <t>1983Q1</t>
+  </si>
+  <si>
+    <t>1983Q2</t>
+  </si>
+  <si>
+    <t>1983Q3</t>
+  </si>
+  <si>
+    <t>1983Q4</t>
+  </si>
+  <si>
+    <t>1984Q1</t>
+  </si>
+  <si>
+    <t>1984Q2</t>
+  </si>
+  <si>
+    <t>1984Q3</t>
+  </si>
+  <si>
+    <t>1984Q4</t>
+  </si>
+  <si>
+    <t>1985Q1</t>
+  </si>
+  <si>
+    <t>1985Q2</t>
+  </si>
+  <si>
+    <t>1985Q3</t>
+  </si>
+  <si>
+    <t>1985Q4</t>
+  </si>
+  <si>
+    <t>1986Q1</t>
+  </si>
+  <si>
+    <t>1986Q2</t>
+  </si>
+  <si>
+    <t>1986Q3</t>
+  </si>
+  <si>
+    <t>1986Q4</t>
+  </si>
+  <si>
+    <t>1987Q1</t>
+  </si>
+  <si>
+    <t>1987Q2</t>
+  </si>
+  <si>
+    <t>1987Q3</t>
+  </si>
+  <si>
+    <t>1987Q4</t>
+  </si>
+  <si>
+    <t>1988Q1</t>
+  </si>
+  <si>
+    <t>1988Q2</t>
+  </si>
+  <si>
+    <t>1988Q3</t>
+  </si>
+  <si>
+    <t>1988Q4</t>
+  </si>
+  <si>
+    <t>1989Q1</t>
+  </si>
+  <si>
+    <t>1989Q2</t>
+  </si>
+  <si>
+    <t>1989Q3</t>
+  </si>
+  <si>
+    <t>1989Q4</t>
+  </si>
+  <si>
+    <t>1990Q1</t>
+  </si>
+  <si>
+    <t>1990Q2</t>
+  </si>
+  <si>
+    <t>1990Q3</t>
+  </si>
+  <si>
+    <t>1990Q4</t>
+  </si>
+  <si>
+    <t>1991Q1</t>
+  </si>
+  <si>
+    <t>1991Q2</t>
+  </si>
+  <si>
+    <t>1991Q3</t>
+  </si>
+  <si>
+    <t>1991Q4</t>
+  </si>
+  <si>
+    <t>1992Q1</t>
+  </si>
+  <si>
+    <t>1992Q2</t>
+  </si>
+  <si>
+    <t>1992Q3</t>
+  </si>
+  <si>
+    <t>1992Q4</t>
+  </si>
+  <si>
+    <t>1993Q1</t>
+  </si>
+  <si>
+    <t>1993Q2</t>
+  </si>
+  <si>
+    <t>1993Q3</t>
+  </si>
+  <si>
+    <t>1993Q4</t>
+  </si>
+  <si>
+    <t>1994Q1</t>
+  </si>
+  <si>
+    <t>1994Q2</t>
+  </si>
+  <si>
+    <t>1994Q3</t>
+  </si>
+  <si>
+    <t>1994Q4</t>
+  </si>
+  <si>
+    <t>1995Q1</t>
+  </si>
+  <si>
+    <t>1995Q2</t>
+  </si>
+  <si>
+    <t>1995Q3</t>
+  </si>
+  <si>
+    <t>1995Q4</t>
+  </si>
+  <si>
+    <t>1996Q1</t>
+  </si>
+  <si>
+    <t>1996Q2</t>
+  </si>
+  <si>
+    <t>1996Q3</t>
+  </si>
+  <si>
+    <t>1996Q4</t>
+  </si>
+  <si>
+    <t>1997Q1</t>
+  </si>
+  <si>
+    <t>1997Q2</t>
+  </si>
+  <si>
+    <t>1997Q3</t>
+  </si>
+  <si>
+    <t>1997Q4</t>
+  </si>
+  <si>
+    <t>1998Q1</t>
+  </si>
+  <si>
+    <t>1998Q2</t>
+  </si>
+  <si>
+    <t>1998Q3</t>
+  </si>
+  <si>
+    <t>1998Q4</t>
+  </si>
+  <si>
+    <t>1999Q1</t>
+  </si>
+  <si>
+    <t>1999Q2</t>
+  </si>
+  <si>
+    <t>1999Q3</t>
+  </si>
+  <si>
+    <t>1999Q4</t>
+  </si>
+  <si>
+    <t>2000Q1</t>
+  </si>
+  <si>
+    <t>2000Q2</t>
+  </si>
+  <si>
+    <t>2000Q3</t>
+  </si>
+  <si>
+    <t>2000Q4</t>
+  </si>
+  <si>
+    <t>2001Q1</t>
+  </si>
+  <si>
+    <t>2001Q2</t>
+  </si>
+  <si>
+    <t>2001Q3</t>
+  </si>
+  <si>
+    <t>2001Q4</t>
+  </si>
+  <si>
+    <t>2002Q1</t>
+  </si>
+  <si>
+    <t>2002Q2</t>
+  </si>
+  <si>
+    <t>2002Q3</t>
+  </si>
+  <si>
+    <t>2002Q4</t>
+  </si>
+  <si>
+    <t>2003Q1</t>
+  </si>
+  <si>
+    <t>2003Q2</t>
+  </si>
+  <si>
+    <t>2003Q3</t>
+  </si>
+  <si>
+    <t>2003Q4</t>
+  </si>
+  <si>
+    <t>2004Q1</t>
+  </si>
+  <si>
+    <t>2004Q2</t>
+  </si>
+  <si>
+    <t>2004Q3</t>
+  </si>
+  <si>
+    <t>2004Q4</t>
+  </si>
+  <si>
+    <t>2005Q1</t>
+  </si>
+  <si>
+    <t>2005Q2</t>
+  </si>
+  <si>
+    <t>2005Q3</t>
+  </si>
+  <si>
+    <t>2005Q4</t>
+  </si>
+  <si>
+    <t>2006Q1</t>
+  </si>
+  <si>
+    <t>2006Q2</t>
+  </si>
+  <si>
+    <t>2006Q3</t>
+  </si>
+  <si>
+    <t>2006Q4</t>
+  </si>
+  <si>
+    <t>2007Q1</t>
+  </si>
+  <si>
+    <t>2007Q2</t>
+  </si>
+  <si>
+    <t>2007Q3</t>
+  </si>
+  <si>
+    <t>2007Q4</t>
+  </si>
+  <si>
+    <t>2008Q1</t>
+  </si>
+  <si>
+    <t>2008Q2</t>
+  </si>
+  <si>
+    <t>2008Q3</t>
+  </si>
+  <si>
+    <t>2008Q4</t>
+  </si>
+  <si>
+    <t>2009Q1</t>
+  </si>
+  <si>
+    <t>2009Q2</t>
+  </si>
+  <si>
+    <t>2009Q3</t>
+  </si>
+  <si>
+    <t>2009Q4</t>
+  </si>
+  <si>
+    <t>2010Q1</t>
+  </si>
+  <si>
+    <t>2010Q2</t>
+  </si>
+  <si>
+    <t>2010Q3</t>
+  </si>
+  <si>
+    <t>2010Q4</t>
+  </si>
+  <si>
+    <t>2011Q1</t>
+  </si>
+  <si>
+    <t>2011Q2</t>
+  </si>
+  <si>
+    <t>2011Q3</t>
+  </si>
+  <si>
+    <t>2011Q4</t>
+  </si>
+  <si>
+    <t>2012Q1</t>
+  </si>
+  <si>
+    <t>2012Q2</t>
+  </si>
+  <si>
+    <t>2012Q3</t>
+  </si>
+  <si>
+    <t>2012Q4</t>
+  </si>
+  <si>
+    <t>2013Q1</t>
+  </si>
+  <si>
+    <t>2013Q2</t>
+  </si>
+  <si>
+    <t>2013Q3</t>
+  </si>
+  <si>
+    <t>2013Q4</t>
+  </si>
+  <si>
+    <t>2014Q1</t>
+  </si>
+  <si>
+    <t>2014Q2</t>
+  </si>
+  <si>
+    <t>2014Q3</t>
+  </si>
+  <si>
+    <t>2014Q4</t>
+  </si>
+  <si>
+    <t>2015Q1</t>
+  </si>
+  <si>
+    <t>2015Q2</t>
+  </si>
+  <si>
+    <t>2015Q3</t>
+  </si>
+  <si>
+    <t>2015Q4</t>
+  </si>
+  <si>
+    <t>2016Q1</t>
+  </si>
+  <si>
+    <t>2016Q2</t>
+  </si>
+  <si>
+    <t>2016Q3</t>
+  </si>
+  <si>
+    <t>2016Q4</t>
+  </si>
+  <si>
+    <t>2017Q1</t>
+  </si>
+  <si>
+    <t>2017Q2</t>
+  </si>
+  <si>
+    <t>2017Q3</t>
+  </si>
+  <si>
+    <t>2017Q4</t>
+  </si>
+  <si>
+    <t>2018Q1</t>
+  </si>
+  <si>
+    <t>2018Q2</t>
+  </si>
+  <si>
+    <t>2018Q3</t>
+  </si>
+  <si>
+    <t>2018Q4</t>
+  </si>
+  <si>
+    <t>2019Q1</t>
+  </si>
+  <si>
+    <t>2019Q2</t>
+  </si>
+  <si>
+    <t>2019Q3</t>
+  </si>
+  <si>
+    <t>2019Q4</t>
+  </si>
+  <si>
+    <t>2020Q1</t>
+  </si>
+  <si>
+    <t>2020Q2</t>
+  </si>
+  <si>
+    <t>2020Q3</t>
+  </si>
+  <si>
+    <t>2020Q4</t>
+  </si>
+  <si>
+    <t>2021Q1</t>
+  </si>
+  <si>
+    <t>2021Q2</t>
+  </si>
+  <si>
+    <t>2021Q3</t>
+  </si>
+  <si>
+    <t>2021Q4</t>
+  </si>
+  <si>
+    <t>2022Q1</t>
+  </si>
+  <si>
+    <t>2022Q2</t>
+  </si>
+  <si>
+    <t>2022Q3</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>2025Q2</t>
+  </si>
+  <si>
+    <t>2025Q3</t>
+  </si>
+  <si>
+    <t>2025Q4</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -70,9 +747,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -825,13 +1505,13 @@
       </c>
     </row>
     <row r="2" spans="1:150">
-      <c r="A2" s="1">
-        <v>25569</v>
+      <c r="A2" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:150">
-      <c r="A3" s="1">
-        <v>25659</v>
+      <c r="A3" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B3">
         <v>3.949077682514932</v>
@@ -1282,8 +1962,8 @@
       </c>
     </row>
     <row r="4" spans="1:150">
-      <c r="A4" s="1">
-        <v>25750</v>
+      <c r="A4" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1.874531367158205</v>
@@ -1734,8 +2414,8 @@
       </c>
     </row>
     <row r="5" spans="1:150">
-      <c r="A5" s="1">
-        <v>25842</v>
+      <c r="A5" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B5">
         <v>0.858684985279704</v>
@@ -2186,8 +2866,8 @@
       </c>
     </row>
     <row r="6" spans="1:150">
-      <c r="A6" s="1">
-        <v>25934</v>
+      <c r="A6" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B6">
         <v>-1.945998540501099</v>
@@ -2638,8 +3318,8 @@
       </c>
     </row>
     <row r="7" spans="1:150">
-      <c r="A7" s="1">
-        <v>26024</v>
+      <c r="A7" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B7">
         <v>2.133465641280079</v>
@@ -3090,8 +3770,8 @@
       </c>
     </row>
     <row r="8" spans="1:150">
-      <c r="A8" s="1">
-        <v>26115</v>
+      <c r="A8" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1.700267184843334</v>
@@ -3542,8 +4222,8 @@
       </c>
     </row>
     <row r="9" spans="1:150">
-      <c r="A9" s="1">
-        <v>26207</v>
+      <c r="A9" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B9">
         <v>-0.09553379508001725</v>
@@ -3994,8 +4674,8 @@
       </c>
     </row>
     <row r="10" spans="1:150">
-      <c r="A10" s="1">
-        <v>26299</v>
+      <c r="A10" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B10">
         <v>0.09562514941430368</v>
@@ -4446,8 +5126,8 @@
       </c>
     </row>
     <row r="11" spans="1:150">
-      <c r="A11" s="1">
-        <v>26390</v>
+      <c r="A11" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B11">
         <v>1.647957965130165</v>
@@ -4898,8 +5578,8 @@
       </c>
     </row>
     <row r="12" spans="1:150">
-      <c r="A12" s="1">
-        <v>26481</v>
+      <c r="A12" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B12">
         <v>2.326127819548863</v>
@@ -5350,8 +6030,8 @@
       </c>
     </row>
     <row r="13" spans="1:150">
-      <c r="A13" s="1">
-        <v>26573</v>
+      <c r="A13" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B13">
         <v>1.538461538461551</v>
@@ -5802,8 +6482,8 @@
       </c>
     </row>
     <row r="14" spans="1:150">
-      <c r="A14" s="1">
-        <v>26665</v>
+      <c r="A14" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B14">
         <v>1.447308909995468</v>
@@ -6254,8 +6934,8 @@
       </c>
     </row>
     <row r="15" spans="1:150">
-      <c r="A15" s="1">
-        <v>26755</v>
+      <c r="A15" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B15">
         <v>0.6910387873383952</v>
@@ -6706,8 +7386,8 @@
       </c>
     </row>
     <row r="16" spans="1:150">
-      <c r="A16" s="1">
-        <v>26846</v>
+      <c r="A16" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B16">
         <v>0.3542174009298183</v>
@@ -7158,8 +7838,8 @@
       </c>
     </row>
     <row r="17" spans="1:150">
-      <c r="A17" s="1">
-        <v>26938</v>
+      <c r="A17" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B17">
         <v>0.2206044562100178</v>
@@ -7610,8 +8290,8 @@
       </c>
     </row>
     <row r="18" spans="1:150">
-      <c r="A18" s="1">
-        <v>27030</v>
+      <c r="A18" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B18">
         <v>0.836451683909317</v>
@@ -8062,8 +8742,8 @@
       </c>
     </row>
     <row r="19" spans="1:150">
-      <c r="A19" s="1">
-        <v>27120</v>
+      <c r="A19" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B19">
         <v>-0.08731717965510417</v>
@@ -8514,8 +9194,8 @@
       </c>
     </row>
     <row r="20" spans="1:150">
-      <c r="A20" s="1">
-        <v>27211</v>
+      <c r="A20" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B20">
         <v>0.02184837229626569</v>
@@ -8966,8 +9646,8 @@
       </c>
     </row>
     <row r="21" spans="1:150">
-      <c r="A21" s="1">
-        <v>27303</v>
+      <c r="A21" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B21">
         <v>-1.245085190039327</v>
@@ -9418,8 +10098,8 @@
       </c>
     </row>
     <row r="22" spans="1:150">
-      <c r="A22" s="1">
-        <v>27395</v>
+      <c r="A22" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B22">
         <v>-0.5750940057509247</v>
@@ -9870,8 +10550,8 @@
       </c>
     </row>
     <row r="23" spans="1:150">
-      <c r="A23" s="1">
-        <v>27485</v>
+      <c r="A23" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B23">
         <v>-0.5116796440489535</v>
@@ -10322,8 +11002,8 @@
       </c>
     </row>
     <row r="24" spans="1:150">
-      <c r="A24" s="1">
-        <v>27576</v>
+      <c r="A24" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B24">
         <v>1.095706618962428</v>
@@ -10774,8 +11454,8 @@
       </c>
     </row>
     <row r="25" spans="1:150">
-      <c r="A25" s="1">
-        <v>27668</v>
+      <c r="A25" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B25">
         <v>1.968591019685915</v>
@@ -11226,8 +11906,8 @@
       </c>
     </row>
     <row r="26" spans="1:150">
-      <c r="A26" s="1">
-        <v>27760</v>
+      <c r="A26" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B26">
         <v>0.8676789587852438</v>
@@ -11678,8 +12358,8 @@
       </c>
     </row>
     <row r="27" spans="1:150">
-      <c r="A27" s="1">
-        <v>27851</v>
+      <c r="A27" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B27">
         <v>1.505376344086038</v>
@@ -12130,8 +12810,8 @@
       </c>
     </row>
     <row r="28" spans="1:150">
-      <c r="A28" s="1">
-        <v>27942</v>
+      <c r="A28" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B28">
         <v>0.02118644067795302</v>
@@ -12582,8 +13262,8 @@
       </c>
     </row>
     <row r="29" spans="1:150">
-      <c r="A29" s="1">
-        <v>28034</v>
+      <c r="A29" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B29">
         <v>1.864011861893669</v>
@@ -13034,8 +13714,8 @@
       </c>
     </row>
     <row r="30" spans="1:150">
-      <c r="A30" s="1">
-        <v>28126</v>
+      <c r="A30" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B30">
         <v>0.873362445414845</v>
@@ -13486,8 +14166,8 @@
       </c>
     </row>
     <row r="31" spans="1:150">
-      <c r="A31" s="1">
-        <v>28216</v>
+      <c r="A31" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B31">
         <v>0.5565862708719869</v>
@@ -13938,8 +14618,8 @@
       </c>
     </row>
     <row r="32" spans="1:150">
-      <c r="A32" s="1">
-        <v>28307</v>
+      <c r="A32" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B32">
         <v>-0.04100041000410335</v>
@@ -14390,8 +15070,8 @@
       </c>
     </row>
     <row r="33" spans="1:150">
-      <c r="A33" s="1">
-        <v>28399</v>
+      <c r="A33" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B33">
         <v>1.722723543888443</v>
@@ -14842,8 +15522,8 @@
       </c>
     </row>
     <row r="34" spans="1:150">
-      <c r="A34" s="1">
-        <v>28491</v>
+      <c r="A34" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B34">
         <v>0.4032258064516032</v>
@@ -15294,8 +15974,8 @@
       </c>
     </row>
     <row r="35" spans="1:150">
-      <c r="A35" s="1">
-        <v>28581</v>
+      <c r="A35" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B35">
         <v>0.4216867469879438</v>
@@ -15746,8 +16426,8 @@
       </c>
     </row>
     <row r="36" spans="1:150">
-      <c r="A36" s="1">
-        <v>28672</v>
+      <c r="A36" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B36">
         <v>1.299740051989609</v>
@@ -16198,8 +16878,8 @@
       </c>
     </row>
     <row r="37" spans="1:150">
-      <c r="A37" s="1">
-        <v>28764</v>
+      <c r="A37" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B37">
         <v>1.164626924595339</v>
@@ -16650,8 +17330,8 @@
       </c>
     </row>
     <row r="38" spans="1:150">
-      <c r="A38" s="1">
-        <v>28856</v>
+      <c r="A38" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B38">
         <v>0.1365853658536696</v>
@@ -17102,8 +17782,8 @@
       </c>
     </row>
     <row r="39" spans="1:150">
-      <c r="A39" s="1">
-        <v>28946</v>
+      <c r="A39" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B39">
         <v>3.098207326578323</v>
@@ -17554,8 +18234,8 @@
       </c>
     </row>
     <row r="40" spans="1:150">
-      <c r="A40" s="1">
-        <v>29037</v>
+      <c r="A40" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -18006,8 +18686,8 @@
       </c>
     </row>
     <row r="41" spans="1:150">
-      <c r="A41" s="1">
-        <v>29129</v>
+      <c r="A41" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B41">
         <v>0.6237006237006345</v>
@@ -18458,8 +19138,8 @@
       </c>
     </row>
     <row r="42" spans="1:150">
-      <c r="A42" s="1">
-        <v>29221</v>
+      <c r="A42" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B42">
         <v>0.7888805409466416</v>
@@ -18910,8 +19590,8 @@
       </c>
     </row>
     <row r="43" spans="1:150">
-      <c r="A43" s="1">
-        <v>29312</v>
+      <c r="A43" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B43">
         <v>-0.6522549385016648</v>
@@ -19362,8 +20042,8 @@
       </c>
     </row>
     <row r="44" spans="1:150">
-      <c r="A44" s="1">
-        <v>29403</v>
+      <c r="A44" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B44">
         <v>-0.4126805477396301</v>
@@ -19814,8 +20494,8 @@
       </c>
     </row>
     <row r="45" spans="1:150">
-      <c r="A45" s="1">
-        <v>29495</v>
+      <c r="A45" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B45">
         <v>-0.1318515728009148</v>
@@ -20266,8 +20946,8 @@
       </c>
     </row>
     <row r="46" spans="1:150">
-      <c r="A46" s="1">
-        <v>29587</v>
+      <c r="A46" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B46">
         <v>1.207091663523191</v>
@@ -20718,8 +21398,8 @@
       </c>
     </row>
     <row r="47" spans="1:150">
-      <c r="A47" s="1">
-        <v>29677</v>
+      <c r="A47" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B47">
         <v>-0.2609019754006529</v>
@@ -21170,8 +21850,8 @@
       </c>
     </row>
     <row r="48" spans="1:150">
-      <c r="A48" s="1">
-        <v>29768</v>
+      <c r="A48" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B48">
         <v>0.2802690582959607</v>
@@ -21622,8 +22302,8 @@
       </c>
     </row>
     <row r="49" spans="1:150">
-      <c r="A49" s="1">
-        <v>29860</v>
+      <c r="A49" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B49">
         <v>-0.111794298490786</v>
@@ -22074,8 +22754,8 @@
       </c>
     </row>
     <row r="50" spans="1:150">
-      <c r="A50" s="1">
-        <v>29952</v>
+      <c r="A50" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B50">
         <v>0.4103711994030905</v>
@@ -22526,8 +23206,8 @@
       </c>
     </row>
     <row r="51" spans="1:150">
-      <c r="A51" s="1">
-        <v>30042</v>
+      <c r="A51" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B51">
         <v>-0.6316180568456113</v>
@@ -22978,8 +23658,8 @@
       </c>
     </row>
     <row r="52" spans="1:150">
-      <c r="A52" s="1">
-        <v>30133</v>
+      <c r="A52" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B52">
         <v>-0.9534492428491423</v>
@@ -23430,8 +24110,8 @@
       </c>
     </row>
     <row r="53" spans="1:150">
-      <c r="A53" s="1">
-        <v>30225</v>
+      <c r="A53" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B53">
         <v>0.2076255190638144</v>
@@ -23882,8 +24562,8 @@
       </c>
     </row>
     <row r="54" spans="1:150">
-      <c r="A54" s="1">
-        <v>30317</v>
+      <c r="A54" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B54">
         <v>0.9229610096063111</v>
@@ -24334,8 +25014,8 @@
       </c>
     </row>
     <row r="55" spans="1:150">
-      <c r="A55" s="1">
-        <v>30407</v>
+      <c r="A55" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B55">
         <v>1.06382978723405</v>
@@ -24786,8 +25466,8 @@
       </c>
     </row>
     <row r="56" spans="1:150">
-      <c r="A56" s="1">
-        <v>30498</v>
+      <c r="A56" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B56">
         <v>-0.2400738688827267</v>
@@ -25238,8 +25918,8 @@
       </c>
     </row>
     <row r="57" spans="1:150">
-      <c r="A57" s="1">
-        <v>30590</v>
+      <c r="A57" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="B57">
         <v>1.388374676045905</v>
@@ -25690,8 +26370,8 @@
       </c>
     </row>
     <row r="58" spans="1:150">
-      <c r="A58" s="1">
-        <v>30682</v>
+      <c r="A58" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B58">
         <v>1.314588278254523</v>
@@ -26142,8 +26822,8 @@
       </c>
     </row>
     <row r="59" spans="1:150">
-      <c r="A59" s="1">
-        <v>30773</v>
+      <c r="A59" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B59">
         <v>-1.567850063074441</v>
@@ -26594,8 +27274,8 @@
       </c>
     </row>
     <row r="60" spans="1:150">
-      <c r="A60" s="1">
-        <v>30864</v>
+      <c r="A60" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B60">
         <v>2.727938484071772</v>
@@ -27046,8 +27726,8 @@
       </c>
     </row>
     <row r="61" spans="1:150">
-      <c r="A61" s="1">
-        <v>30956</v>
+      <c r="A61" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B61">
         <v>0.8376403493138532</v>
@@ -27498,8 +28178,8 @@
       </c>
     </row>
     <row r="62" spans="1:150">
-      <c r="A62" s="1">
-        <v>31048</v>
+      <c r="A62" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B62">
         <v>-0.5302226935312889</v>
@@ -27950,8 +28630,8 @@
       </c>
     </row>
     <row r="63" spans="1:150">
-      <c r="A63" s="1">
-        <v>31138</v>
+      <c r="A63" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="B63">
         <v>0.9772565742715041</v>
@@ -28402,8 +29082,8 @@
       </c>
     </row>
     <row r="64" spans="1:150">
-      <c r="A64" s="1">
-        <v>31229</v>
+      <c r="A64" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B64">
         <v>1.30212915713531</v>
@@ -28854,8 +29534,8 @@
       </c>
     </row>
     <row r="65" spans="1:150">
-      <c r="A65" s="1">
-        <v>31321</v>
+      <c r="A65" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B65">
         <v>0.6079555323953575</v>
@@ -29306,8 +29986,8 @@
       </c>
     </row>
     <row r="66" spans="1:150">
-      <c r="A66" s="1">
-        <v>31413</v>
+      <c r="A66" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B66">
         <v>-0.5697513812154674</v>
@@ -29758,8 +30438,8 @@
       </c>
     </row>
     <row r="67" spans="1:150">
-      <c r="A67" s="1">
-        <v>31503</v>
+      <c r="A67" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B67">
         <v>1.163396422990087</v>
@@ -30210,8 +30890,8 @@
       </c>
     </row>
     <row r="68" spans="1:150">
-      <c r="A68" s="1">
-        <v>31594</v>
+      <c r="A68" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B68">
         <v>0.7380707174733948</v>
@@ -30662,8 +31342,8 @@
       </c>
     </row>
     <row r="69" spans="1:150">
-      <c r="A69" s="1">
-        <v>31686</v>
+      <c r="A69" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B69">
         <v>0.9882433123189726</v>
@@ -31114,8 +31794,8 @@
       </c>
     </row>
     <row r="70" spans="1:150">
-      <c r="A70" s="1">
-        <v>31778</v>
+      <c r="A70" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B70">
         <v>-2.513919352117431</v>
@@ -31566,8 +32246,8 @@
       </c>
     </row>
     <row r="71" spans="1:150">
-      <c r="A71" s="1">
-        <v>31868</v>
+      <c r="A71" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B71">
         <v>2.249913464866736</v>
@@ -32018,8 +32698,8 @@
       </c>
     </row>
     <row r="72" spans="1:150">
-      <c r="A72" s="1">
-        <v>31959</v>
+      <c r="A72" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B72">
         <v>0.7109004739336476</v>
@@ -32470,8 +33150,8 @@
       </c>
     </row>
     <row r="73" spans="1:150">
-      <c r="A73" s="1">
-        <v>32051</v>
+      <c r="A73" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="B73">
         <v>1.579831932773108</v>
@@ -32922,8 +33602,8 @@
       </c>
     </row>
     <row r="74" spans="1:150">
-      <c r="A74" s="1">
-        <v>32143</v>
+      <c r="A74" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B74">
         <v>-0.8934480476505654</v>
@@ -33374,8 +34054,8 @@
       </c>
     </row>
     <row r="75" spans="1:150">
-      <c r="A75" s="1">
-        <v>32234</v>
+      <c r="A75" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B75">
         <v>1.819699499165283</v>
@@ -33826,8 +34506,8 @@
       </c>
     </row>
     <row r="76" spans="1:150">
-      <c r="A76" s="1">
-        <v>32325</v>
+      <c r="A76" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="B76">
         <v>1.098540744384322</v>
@@ -34278,8 +34958,8 @@
       </c>
     </row>
     <row r="77" spans="1:150">
-      <c r="A77" s="1">
-        <v>32417</v>
+      <c r="A77" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="C77">
         <v>1.200129743756077</v>
@@ -34727,8 +35407,8 @@
       </c>
     </row>
     <row r="78" spans="1:150">
-      <c r="A78" s="1">
-        <v>32509</v>
+      <c r="A78" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="D78">
         <v>1.025641025641019</v>
@@ -35173,8 +35853,8 @@
       </c>
     </row>
     <row r="79" spans="1:150">
-      <c r="A79" s="1">
-        <v>32599</v>
+      <c r="A79" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="E79">
         <v>0.4124365482233615</v>
@@ -35616,8 +36296,8 @@
       </c>
     </row>
     <row r="80" spans="1:150">
-      <c r="A80" s="1">
-        <v>32690</v>
+      <c r="A80" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="F80">
         <v>0.9004739336492845</v>
@@ -36056,8 +36736,8 @@
       </c>
     </row>
     <row r="81" spans="1:150">
-      <c r="A81" s="1">
-        <v>32782</v>
+      <c r="A81" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="G81">
         <v>1.174260216063898</v>
@@ -36493,8 +37173,8 @@
       </c>
     </row>
     <row r="82" spans="1:150">
-      <c r="A82" s="1">
-        <v>32874</v>
+      <c r="A82" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="H82">
         <v>2.073661405137701</v>
@@ -36927,8 +37607,8 @@
       </c>
     </row>
     <row r="83" spans="1:150">
-      <c r="A83" s="1">
-        <v>32964</v>
+      <c r="A83" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="I83">
         <v>0.4851425106125105</v>
@@ -37358,8 +38038,8 @@
       </c>
     </row>
     <row r="84" spans="1:150">
-      <c r="A84" s="1">
-        <v>33055</v>
+      <c r="A84" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="J84">
         <v>2.11225105612553</v>
@@ -37786,8 +38466,8 @@
       </c>
     </row>
     <row r="85" spans="1:150">
-      <c r="A85" s="1">
-        <v>33147</v>
+      <c r="A85" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="K85">
         <v>1.773049645390049</v>
@@ -38211,8 +38891,8 @@
       </c>
     </row>
     <row r="86" spans="1:150">
-      <c r="A86" s="1">
-        <v>33239</v>
+      <c r="A86" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="L86">
         <v>2.758420441347291</v>
@@ -38633,8 +39313,8 @@
       </c>
     </row>
     <row r="87" spans="1:150">
-      <c r="A87" s="1">
-        <v>33329</v>
+      <c r="A87" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="M87">
         <v>1.113617141246129</v>
@@ -39052,8 +39732,8 @@
       </c>
     </row>
     <row r="88" spans="1:150">
-      <c r="A88" s="1">
-        <v>33420</v>
+      <c r="A88" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="N88">
         <v>-0.5994702356057567</v>
@@ -39468,8 +40148,8 @@
       </c>
     </row>
     <row r="89" spans="1:150">
-      <c r="A89" s="1">
-        <v>33512</v>
+      <c r="A89" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="O89">
         <v>0.8695652173913095</v>
@@ -39881,8 +40561,8 @@
       </c>
     </row>
     <row r="90" spans="1:150">
-      <c r="A90" s="1">
-        <v>33604</v>
+      <c r="A90" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="P90">
         <v>1.348720800889869</v>
@@ -40291,8 +40971,8 @@
       </c>
     </row>
     <row r="91" spans="1:150">
-      <c r="A91" s="1">
-        <v>33695</v>
+      <c r="A91" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="Q91">
         <v>-0.04115790917821152</v>
@@ -40698,8 +41378,8 @@
       </c>
     </row>
     <row r="92" spans="1:150">
-      <c r="A92" s="1">
-        <v>33786</v>
+      <c r="A92" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="R92">
         <v>-0.1509744715893349</v>
@@ -41102,8 +41782,8 @@
       </c>
     </row>
     <row r="93" spans="1:150">
-      <c r="A93" s="1">
-        <v>33878</v>
+      <c r="A93" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="S93">
         <v>-0.1374570446735577</v>
@@ -41503,8 +42183,8 @@
       </c>
     </row>
     <row r="94" spans="1:150">
-      <c r="A94" s="1">
-        <v>33970</v>
+      <c r="A94" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="T94">
         <v>-1.789401238816229</v>
@@ -41901,8 +42581,8 @@
       </c>
     </row>
     <row r="95" spans="1:150">
-      <c r="A95" s="1">
-        <v>34060</v>
+      <c r="A95" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="U95">
         <v>0.6306937631394585</v>
@@ -42296,8 +42976,8 @@
       </c>
     </row>
     <row r="96" spans="1:150">
-      <c r="A96" s="1">
-        <v>34151</v>
+      <c r="A96" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="V96">
         <v>0.7242339832868948</v>
@@ -42688,8 +43368,8 @@
       </c>
     </row>
     <row r="97" spans="1:150">
-      <c r="A97" s="1">
-        <v>34243</v>
+      <c r="A97" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="W97">
         <v>-0.1935840707964626</v>
@@ -43077,8 +43757,8 @@
       </c>
     </row>
     <row r="98" spans="1:150">
-      <c r="A98" s="1">
-        <v>34335</v>
+      <c r="A98" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="X98">
         <v>1.17761152673871</v>
@@ -43463,8 +44143,8 @@
       </c>
     </row>
     <row r="99" spans="1:150">
-      <c r="A99" s="1">
-        <v>34425</v>
+      <c r="A99" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="Y99">
         <v>1.232370258797764</v>
@@ -43846,8 +44526,8 @@
       </c>
     </row>
     <row r="100" spans="1:150">
-      <c r="A100" s="1">
-        <v>34516</v>
+      <c r="A100" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="Z100">
         <v>0.622210198836729</v>
@@ -44226,8 +44906,8 @@
       </c>
     </row>
     <row r="101" spans="1:150">
-      <c r="A101" s="1">
-        <v>34608</v>
+      <c r="A101" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="AA101">
         <v>0.6183626831563487</v>
@@ -44603,8 +45283,8 @@
       </c>
     </row>
     <row r="102" spans="1:150">
-      <c r="A102" s="1">
-        <v>34700</v>
+      <c r="A102" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="AB102">
         <v>0.2137608550434148</v>
@@ -44977,8 +45657,8 @@
       </c>
     </row>
     <row r="103" spans="1:150">
-      <c r="A103" s="1">
-        <v>34790</v>
+      <c r="A103" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="AC103">
         <v>1.066524463404871</v>
@@ -45348,8 +46028,8 @@
       </c>
     </row>
     <row r="104" spans="1:150">
-      <c r="A104" s="1">
-        <v>34881</v>
+      <c r="A104" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="AD104">
         <v>-0.01319087191662068</v>
@@ -45716,8 +46396,8 @@
       </c>
     </row>
     <row r="105" spans="1:150">
-      <c r="A105" s="1">
-        <v>34973</v>
+      <c r="A105" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="AE105">
         <v>-0.4082707757144763</v>
@@ -46081,8 +46761,8 @@
       </c>
     </row>
     <row r="106" spans="1:150">
-      <c r="A106" s="1">
-        <v>35065</v>
+      <c r="A106" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="AF106">
         <v>-0.3698811096433335</v>
@@ -46443,8 +47123,8 @@
       </c>
     </row>
     <row r="107" spans="1:150">
-      <c r="A107" s="1">
-        <v>35156</v>
+      <c r="A107" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="AG107">
         <v>1.484623541887593</v>
@@ -46802,8 +47482,8 @@
       </c>
     </row>
     <row r="108" spans="1:150">
-      <c r="A108" s="1">
-        <v>35247</v>
+      <c r="A108" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="AH108">
         <v>0.8096108644554579</v>
@@ -47158,8 +47838,8 @@
       </c>
     </row>
     <row r="109" spans="1:150">
-      <c r="A109" s="1">
-        <v>35339</v>
+      <c r="A109" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="AI109">
         <v>0.07776049766718085</v>
@@ -47511,8 +48191,8 @@
       </c>
     </row>
     <row r="110" spans="1:150">
-      <c r="A110" s="1">
-        <v>35431</v>
+      <c r="A110" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="AJ110">
         <v>0.4403004403004406</v>
@@ -47861,8 +48541,8 @@
       </c>
     </row>
     <row r="111" spans="1:150">
-      <c r="A111" s="1">
-        <v>35521</v>
+      <c r="A111" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="AK111">
         <v>1.010493587252234</v>
@@ -48208,8 +48888,8 @@
       </c>
     </row>
     <row r="112" spans="1:150">
-      <c r="A112" s="1">
-        <v>35612</v>
+      <c r="A112" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="AL112">
         <v>0.782251859451141</v>
@@ -48552,8 +49232,8 @@
       </c>
     </row>
     <row r="113" spans="1:150">
-      <c r="A113" s="1">
-        <v>35704</v>
+      <c r="A113" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="AM113">
         <v>0.280183392766165</v>
@@ -48893,8 +49573,8 @@
       </c>
     </row>
     <row r="114" spans="1:150">
-      <c r="A114" s="1">
-        <v>35796</v>
+      <c r="A114" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="AN114">
         <v>0.9522600304723229</v>
@@ -49231,8 +49911,8 @@
       </c>
     </row>
     <row r="115" spans="1:150">
-      <c r="A115" s="1">
-        <v>35886</v>
+      <c r="A115" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="AO115">
         <v>0.1008191556395778</v>
@@ -49566,8 +50246,8 @@
       </c>
     </row>
     <row r="116" spans="1:150">
-      <c r="A116" s="1">
-        <v>35977</v>
+      <c r="A116" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="AP116">
         <v>0.8692365835223037</v>
@@ -49898,8 +50578,8 @@
       </c>
     </row>
     <row r="117" spans="1:150">
-      <c r="A117" s="1">
-        <v>36069</v>
+      <c r="A117" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="AQ117">
         <v>-0.3749062734316393</v>
@@ -50227,8 +50907,8 @@
       </c>
     </row>
     <row r="118" spans="1:150">
-      <c r="A118" s="1">
-        <v>36161</v>
+      <c r="A118" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="AR118">
         <v>0.4382529163932056</v>
@@ -50553,8 +51233,8 @@
       </c>
     </row>
     <row r="119" spans="1:150">
-      <c r="A119" s="1">
-        <v>36251</v>
+      <c r="A119" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="AS119">
         <v>0.04238186056368139</v>
@@ -50876,8 +51556,8 @@
       </c>
     </row>
     <row r="120" spans="1:150">
-      <c r="A120" s="1">
-        <v>36342</v>
+      <c r="A120" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="AT120">
         <v>0.7183604479188681</v>
@@ -51196,8 +51876,8 @@
       </c>
     </row>
     <row r="121" spans="1:150">
-      <c r="A121" s="1">
-        <v>36434</v>
+      <c r="A121" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="AU121">
         <v>0.6910994764397971</v>
@@ -51513,8 +52193,8 @@
       </c>
     </row>
     <row r="122" spans="1:150">
-      <c r="A122" s="1">
-        <v>36526</v>
+      <c r="A122" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="AV122">
         <v>0.659619626284904</v>
@@ -51827,8 +52507,8 @@
       </c>
     </row>
     <row r="123" spans="1:150">
-      <c r="A123" s="1">
-        <v>36617</v>
+      <c r="A123" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="AW123">
         <v>1.148285832300693</v>
@@ -52138,8 +52818,8 @@
       </c>
     </row>
     <row r="124" spans="1:150">
-      <c r="A124" s="1">
-        <v>36708</v>
+      <c r="A124" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="AX124">
         <v>0.5648565427516806</v>
@@ -52446,8 +53126,8 @@
       </c>
     </row>
     <row r="125" spans="1:150">
-      <c r="A125" s="1">
-        <v>36800</v>
+      <c r="A125" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="AY125">
         <v>0.207068759008509</v>
@@ -52751,8 +53431,8 @@
       </c>
     </row>
     <row r="126" spans="1:150">
-      <c r="A126" s="1">
-        <v>36892</v>
+      <c r="A126" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="AZ126">
         <v>0.3707380320495879</v>
@@ -53053,8 +53733,8 @@
       </c>
     </row>
     <row r="127" spans="1:150">
-      <c r="A127" s="1">
-        <v>36982</v>
+      <c r="A127" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="BA127">
         <v>-0.03022670025188753</v>
@@ -53352,8 +54032,8 @@
       </c>
     </row>
     <row r="128" spans="1:150">
-      <c r="A128" s="1">
-        <v>37073</v>
+      <c r="A128" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="BB128">
         <v>-0.1411005845595663</v>
@@ -53648,8 +54328,8 @@
       </c>
     </row>
     <row r="129" spans="1:150">
-      <c r="A129" s="1">
-        <v>37165</v>
+      <c r="A129" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="BC129">
         <v>-0.2542372881355935</v>
@@ -53941,8 +54621,8 @@
       </c>
     </row>
     <row r="130" spans="1:150">
-      <c r="A130" s="1">
-        <v>37257</v>
+      <c r="A130" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="BD130">
         <v>0.1699235344095065</v>
@@ -54231,8 +54911,8 @@
       </c>
     </row>
     <row r="131" spans="1:150">
-      <c r="A131" s="1">
-        <v>37347</v>
+      <c r="A131" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="BE131">
         <v>0.2723861022557598</v>
@@ -54518,8 +55198,8 @@
       </c>
     </row>
     <row r="132" spans="1:150">
-      <c r="A132" s="1">
-        <v>37438</v>
+      <c r="A132" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="BF132">
         <v>0.2679452827527801</v>
@@ -54802,8 +55482,8 @@
       </c>
     </row>
     <row r="133" spans="1:150">
-      <c r="A133" s="1">
-        <v>37530</v>
+      <c r="A133" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="BG133">
         <v>-0.03213174013455929</v>
@@ -55083,8 +55763,8 @@
       </c>
     </row>
     <row r="134" spans="1:150">
-      <c r="A134" s="1">
-        <v>37622</v>
+      <c r="A134" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="BH134">
         <v>-0.2270033548283337</v>
@@ -55361,8 +56041,8 @@
       </c>
     </row>
     <row r="135" spans="1:150">
-      <c r="A135" s="1">
-        <v>37712</v>
+      <c r="A135" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="BI135">
         <v>-0.06231782088652726</v>
@@ -55636,8 +56316,8 @@
       </c>
     </row>
     <row r="136" spans="1:150">
-      <c r="A136" s="1">
-        <v>37803</v>
+      <c r="A136" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="BJ136">
         <v>0.2194748711340181</v>
@@ -55908,8 +56588,8 @@
       </c>
     </row>
     <row r="137" spans="1:150">
-      <c r="A137" s="1">
-        <v>37895</v>
+      <c r="A137" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="BK137">
         <v>0.215019190965168</v>
@@ -56177,8 +56857,8 @@
       </c>
     </row>
     <row r="138" spans="1:150">
-      <c r="A138" s="1">
-        <v>37987</v>
+      <c r="A138" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="BL138">
         <v>0.4390009221023837</v>
@@ -56443,8 +57123,8 @@
       </c>
     </row>
     <row r="139" spans="1:150">
-      <c r="A139" s="1">
-        <v>38078</v>
+      <c r="A139" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="BM139">
         <v>0.4754484797634859</v>
@@ -56706,8 +57386,8 @@
       </c>
     </row>
     <row r="140" spans="1:150">
-      <c r="A140" s="1">
-        <v>38169</v>
+      <c r="A140" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="BN140">
         <v>0.09947279419078808</v>
@@ -56966,8 +57646,8 @@
       </c>
     </row>
     <row r="141" spans="1:150">
-      <c r="A141" s="1">
-        <v>38261</v>
+      <c r="A141" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="BO141">
         <v>-0.2327107822662463</v>
@@ -57223,8 +57903,8 @@
       </c>
     </row>
     <row r="142" spans="1:150">
-      <c r="A142" s="1">
-        <v>38353</v>
+      <c r="A142" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="BP142">
         <v>1.04410616705698</v>
@@ -57477,8 +58157,8 @@
       </c>
     </row>
     <row r="143" spans="1:150">
-      <c r="A143" s="1">
-        <v>38443</v>
+      <c r="A143" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="BQ143">
         <v>0.00970120294917066</v>
@@ -57728,8 +58408,8 @@
       </c>
     </row>
     <row r="144" spans="1:150">
-      <c r="A144" s="1">
-        <v>38534</v>
+      <c r="A144" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="BR144">
         <v>0.6204556471158512</v>
@@ -57976,8 +58656,8 @@
       </c>
     </row>
     <row r="145" spans="1:150">
-      <c r="A145" s="1">
-        <v>38626</v>
+      <c r="A145" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="BS145">
         <v>0.009625565501978165</v>
@@ -58221,8 +58901,8 @@
       </c>
     </row>
     <row r="146" spans="1:150">
-      <c r="A146" s="1">
-        <v>38718</v>
+      <c r="A146" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="BT146">
         <v>0.3653494856263777</v>
@@ -58463,8 +59143,8 @@
       </c>
     </row>
     <row r="147" spans="1:150">
-      <c r="A147" s="1">
-        <v>38808</v>
+      <c r="A147" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="BU147">
         <v>0.9010736196319133</v>
@@ -58702,8 +59382,8 @@
       </c>
     </row>
     <row r="148" spans="1:150">
-      <c r="A148" s="1">
-        <v>38899</v>
+      <c r="A148" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="BV148">
         <v>0.6346499952638076</v>
@@ -58938,8 +59618,8 @@
       </c>
     </row>
     <row r="149" spans="1:150">
-      <c r="A149" s="1">
-        <v>38991</v>
+      <c r="A149" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="BW149">
         <v>0.8728296574378289</v>
@@ -59171,8 +59851,8 @@
       </c>
     </row>
     <row r="150" spans="1:150">
-      <c r="A150" s="1">
-        <v>39083</v>
+      <c r="A150" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="BX150">
         <v>0.5106778087279453</v>
@@ -59401,8 +60081,8 @@
       </c>
     </row>
     <row r="151" spans="1:150">
-      <c r="A151" s="1">
-        <v>39173</v>
+      <c r="A151" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="BY151">
         <v>0.2592832669691649</v>
@@ -59628,8 +60308,8 @@
       </c>
     </row>
     <row r="152" spans="1:150">
-      <c r="A152" s="1">
-        <v>39264</v>
+      <c r="A152" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="BZ152">
         <v>0.6834764939503178</v>
@@ -59852,8 +60532,8 @@
       </c>
     </row>
     <row r="153" spans="1:150">
-      <c r="A153" s="1">
-        <v>39356</v>
+      <c r="A153" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="CA153">
         <v>0.2660550458715654</v>
@@ -60073,8 +60753,8 @@
       </c>
     </row>
     <row r="154" spans="1:150">
-      <c r="A154" s="1">
-        <v>39448</v>
+      <c r="A154" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="CB154">
         <v>1.528044651843707</v>
@@ -60291,8 +60971,8 @@
       </c>
     </row>
     <row r="155" spans="1:150">
-      <c r="A155" s="1">
-        <v>39539</v>
+      <c r="A155" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="CC155">
         <v>-0.4957634757526566</v>
@@ -60506,8 +61186,8 @@
       </c>
     </row>
     <row r="156" spans="1:150">
-      <c r="A156" s="1">
-        <v>39630</v>
+      <c r="A156" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="CD156">
         <v>-0.5244122965641937</v>
@@ -60718,8 +61398,8 @@
       </c>
     </row>
     <row r="157" spans="1:150">
-      <c r="A157" s="1">
-        <v>39722</v>
+      <c r="A157" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="CE157">
         <v>-2.107941123023812</v>
@@ -60927,8 +61607,8 @@
       </c>
     </row>
     <row r="158" spans="1:150">
-      <c r="A158" s="1">
-        <v>39814</v>
+      <c r="A158" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="CF158">
         <v>-3.800762010965527</v>
@@ -61133,8 +61813,8 @@
       </c>
     </row>
     <row r="159" spans="1:150">
-      <c r="A159" s="1">
-        <v>39904</v>
+      <c r="A159" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="CG159">
         <v>0.3175214086404294</v>
@@ -61336,8 +62016,8 @@
       </c>
     </row>
     <row r="160" spans="1:150">
-      <c r="A160" s="1">
-        <v>39995</v>
+      <c r="A160" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="CH160">
         <v>0.7280390842034727</v>
@@ -61536,8 +62216,8 @@
       </c>
     </row>
     <row r="161" spans="1:150">
-      <c r="A161" s="1">
-        <v>40087</v>
+      <c r="A161" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="CI161">
         <v>0.009508414947233161</v>
@@ -61733,8 +62413,8 @@
       </c>
     </row>
     <row r="162" spans="1:150">
-      <c r="A162" s="1">
-        <v>40179</v>
+      <c r="A162" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="CJ162">
         <v>0.1613515565679591</v>
@@ -61927,8 +62607,8 @@
       </c>
     </row>
     <row r="163" spans="1:150">
-      <c r="A163" s="1">
-        <v>40269</v>
+      <c r="A163" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="CK163">
         <v>2.182091798344627</v>
@@ -62118,8 +62798,8 @@
       </c>
     </row>
     <row r="164" spans="1:150">
-      <c r="A164" s="1">
-        <v>40360</v>
+      <c r="A164" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="CL164">
         <v>0.6980161645848688</v>
@@ -62306,8 +62986,8 @@
       </c>
     </row>
     <row r="165" spans="1:150">
-      <c r="A165" s="1">
-        <v>40452</v>
+      <c r="A165" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="CM165">
         <v>0.3647970816233392</v>
@@ -62491,8 +63171,8 @@
       </c>
     </row>
     <row r="166" spans="1:150">
-      <c r="A166" s="1">
-        <v>40544</v>
+      <c r="A166" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="CN166">
         <v>1.499182264219509</v>
@@ -62673,8 +63353,8 @@
       </c>
     </row>
     <row r="167" spans="1:150">
-      <c r="A167" s="1">
-        <v>40634</v>
+      <c r="A167" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="CO167">
         <v>0.119222303741742</v>
@@ -62852,8 +63532,8 @@
       </c>
     </row>
     <row r="168" spans="1:150">
-      <c r="A168" s="1">
-        <v>40725</v>
+      <c r="A168" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="CP168">
         <v>0.5030181086519089</v>
@@ -63028,8 +63708,8 @@
       </c>
     </row>
     <row r="169" spans="1:150">
-      <c r="A169" s="1">
-        <v>40817</v>
+      <c r="A169" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="CQ169">
         <v>-0.1818677821223996</v>
@@ -63201,8 +63881,8 @@
       </c>
     </row>
     <row r="170" spans="1:150">
-      <c r="A170" s="1">
-        <v>40909</v>
+      <c r="A170" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="CR170">
         <v>0.5101576022592715</v>
@@ -63371,8 +64051,8 @@
       </c>
     </row>
     <row r="171" spans="1:150">
-      <c r="A171" s="1">
-        <v>41000</v>
+      <c r="A171" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="CS171">
         <v>0.2707092582566427</v>
@@ -63538,8 +64218,8 @@
       </c>
     </row>
     <row r="172" spans="1:150">
-      <c r="A172" s="1">
-        <v>41091</v>
+      <c r="A172" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="CT172">
         <v>0.233981281497472</v>
@@ -63702,8 +64382,8 @@
       </c>
     </row>
     <row r="173" spans="1:150">
-      <c r="A173" s="1">
-        <v>41183</v>
+      <c r="A173" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="CU173">
         <v>-0.5925127928898435</v>
@@ -63863,8 +64543,8 @@
       </c>
     </row>
     <row r="174" spans="1:150">
-      <c r="A174" s="1">
-        <v>41275</v>
+      <c r="A174" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="CV174">
         <v>0.06328541723172172</v>
@@ -64021,8 +64701,8 @@
       </c>
     </row>
     <row r="175" spans="1:150">
-      <c r="A175" s="1">
-        <v>41365</v>
+      <c r="A175" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="CW175">
         <v>0.7214356569573426</v>
@@ -64176,8 +64856,8 @@
       </c>
     </row>
     <row r="176" spans="1:150">
-      <c r="A176" s="1">
-        <v>41456</v>
+      <c r="A176" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="CX176">
         <v>0.3223207091055595</v>
@@ -64328,8 +65008,8 @@
       </c>
     </row>
     <row r="177" spans="1:150">
-      <c r="A177" s="1">
-        <v>41548</v>
+      <c r="A177" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="CY177">
         <v>0.3837572512271369</v>
@@ -64477,8 +65157,8 @@
       </c>
     </row>
     <row r="178" spans="1:150">
-      <c r="A178" s="1">
-        <v>41640</v>
+      <c r="A178" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="CZ178">
         <v>0.8179231863442404</v>
@@ -64623,8 +65303,8 @@
       </c>
     </row>
     <row r="179" spans="1:150">
-      <c r="A179" s="1">
-        <v>41730</v>
+      <c r="A179" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="DA179">
         <v>-0.1608782057348365</v>
@@ -64766,8 +65446,8 @@
       </c>
     </row>
     <row r="180" spans="1:150">
-      <c r="A180" s="1">
-        <v>41821</v>
+      <c r="A180" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="DB180">
         <v>0.06623769871308968</v>
@@ -64906,8 +65586,8 @@
       </c>
     </row>
     <row r="181" spans="1:150">
-      <c r="A181" s="1">
-        <v>41913</v>
+      <c r="A181" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="DC181">
         <v>0.6996974281391782</v>
@@ -65043,8 +65723,8 @@
       </c>
     </row>
     <row r="182" spans="1:150">
-      <c r="A182" s="1">
-        <v>42005</v>
+      <c r="A182" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="DD182">
         <v>0.2723004694835739</v>
@@ -65177,8 +65857,8 @@
       </c>
     </row>
     <row r="183" spans="1:150">
-      <c r="A183" s="1">
-        <v>42095</v>
+      <c r="A183" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="DE183">
         <v>0.4386374241717208</v>
@@ -65308,8 +65988,8 @@
       </c>
     </row>
     <row r="184" spans="1:150">
-      <c r="A184" s="1">
-        <v>42186</v>
+      <c r="A184" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="DF184">
         <v>0.315926407730895</v>
@@ -65436,8 +66116,8 @@
       </c>
     </row>
     <row r="185" spans="1:150">
-      <c r="A185" s="1">
-        <v>42278</v>
+      <c r="A185" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="DG185">
         <v>0.2686926711757547</v>
@@ -65561,8 +66241,8 @@
       </c>
     </row>
     <row r="186" spans="1:150">
-      <c r="A186" s="1">
-        <v>42370</v>
+      <c r="A186" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="DH186">
         <v>0.6653114026982063</v>
@@ -65683,8 +66363,8 @@
       </c>
     </row>
     <row r="187" spans="1:150">
-      <c r="A187" s="1">
-        <v>42461</v>
+      <c r="A187" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="DI187">
         <v>0.4112593675744862</v>
@@ -65802,8 +66482,8 @@
       </c>
     </row>
     <row r="188" spans="1:150">
-      <c r="A188" s="1">
-        <v>42552</v>
+      <c r="A188" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="DJ188">
         <v>0.1911349777009136</v>
@@ -65918,8 +66598,8 @@
       </c>
     </row>
     <row r="189" spans="1:150">
-      <c r="A189" s="1">
-        <v>42644</v>
+      <c r="A189" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="DK189">
         <v>0.4269234262875818</v>
@@ -66031,8 +66711,8 @@
       </c>
     </row>
     <row r="190" spans="1:150">
-      <c r="A190" s="1">
-        <v>42736</v>
+      <c r="A190" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="DL190">
         <v>0.6058961837583665</v>
@@ -66141,8 +66821,8 @@
       </c>
     </row>
     <row r="191" spans="1:150">
-      <c r="A191" s="1">
-        <v>42826</v>
+      <c r="A191" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="DM191">
         <v>0.6164567140176875</v>
@@ -66248,8 +66928,8 @@
       </c>
     </row>
     <row r="192" spans="1:150">
-      <c r="A192" s="1">
-        <v>42917</v>
+      <c r="A192" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="DN192">
         <v>0.8241758241758176</v>
@@ -66352,8 +67032,8 @@
       </c>
     </row>
     <row r="193" spans="1:150">
-      <c r="A193" s="1">
-        <v>43009</v>
+      <c r="A193" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="DO193">
         <v>0.6069669247009128</v>
@@ -66453,8 +67133,8 @@
       </c>
     </row>
     <row r="194" spans="1:150">
-      <c r="A194" s="1">
-        <v>43101</v>
+      <c r="A194" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="DP194">
         <v>0.2972807554428514</v>
@@ -66551,8 +67231,8 @@
       </c>
     </row>
     <row r="195" spans="1:150">
-      <c r="A195" s="1">
-        <v>43191</v>
+      <c r="A195" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="DQ195">
         <v>0.4515848892748554</v>
@@ -66646,8 +67326,8 @@
       </c>
     </row>
     <row r="196" spans="1:150">
-      <c r="A196" s="1">
-        <v>43282</v>
+      <c r="A196" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="DR196">
         <v>-0.1988415319443278</v>
@@ -66738,8 +67418,8 @@
       </c>
     </row>
     <row r="197" spans="1:150">
-      <c r="A197" s="1">
-        <v>43374</v>
+      <c r="A197" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="DS197">
         <v>0.01732351667388135</v>
@@ -66827,8 +67507,8 @@
       </c>
     </row>
     <row r="198" spans="1:150">
-      <c r="A198" s="1">
-        <v>43466</v>
+      <c r="A198" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="DT198">
         <v>0.4243526457088377</v>
@@ -66913,8 +67593,8 @@
       </c>
     </row>
     <row r="199" spans="1:150">
-      <c r="A199" s="1">
-        <v>43556</v>
+      <c r="A199" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="DU199">
         <v>-0.07468957146858211</v>
@@ -66996,8 +67676,8 @@
       </c>
     </row>
     <row r="200" spans="1:150">
-      <c r="A200" s="1">
-        <v>43647</v>
+      <c r="A200" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="DV200">
         <v>0.08415934168693044</v>
@@ -67076,8 +67756,8 @@
       </c>
     </row>
     <row r="201" spans="1:150">
-      <c r="A201" s="1">
-        <v>43739</v>
+      <c r="A201" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="DW201">
         <v>0.02799552071668639</v>
@@ -67153,8 +67833,8 @@
       </c>
     </row>
     <row r="202" spans="1:150">
-      <c r="A202" s="1">
-        <v>43831</v>
+      <c r="A202" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="DX202">
         <v>-2.221807318894706</v>
@@ -67227,8 +67907,8 @@
       </c>
     </row>
     <row r="203" spans="1:150">
-      <c r="A203" s="1">
-        <v>43922</v>
+      <c r="A203" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="DY203">
         <v>-9.690957649751999</v>
@@ -67298,8 +67978,8 @@
       </c>
     </row>
     <row r="204" spans="1:150">
-      <c r="A204" s="1">
-        <v>44013</v>
+      <c r="A204" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="DZ204">
         <v>8.48030415038547</v>
@@ -67366,8 +68046,8 @@
       </c>
     </row>
     <row r="205" spans="1:150">
-      <c r="A205" s="1">
-        <v>44105</v>
+      <c r="A205" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="EA205">
         <v>0.3406326034063205</v>
@@ -67431,8 +68111,8 @@
       </c>
     </row>
     <row r="206" spans="1:150">
-      <c r="A206" s="1">
-        <v>44197</v>
+      <c r="A206" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="EB206">
         <v>-1.806937868393072</v>
@@ -67493,8 +68173,8 @@
       </c>
     </row>
     <row r="207" spans="1:150">
-      <c r="A207" s="1">
-        <v>44287</v>
+      <c r="A207" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="EC207">
         <v>1.633092118130258</v>
@@ -67552,8 +68232,8 @@
       </c>
     </row>
     <row r="208" spans="1:150">
-      <c r="A208" s="1">
-        <v>44378</v>
+      <c r="A208" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="ED208">
         <v>1.694266296544459</v>
@@ -67608,8 +68288,8 @@
       </c>
     </row>
     <row r="209" spans="1:150">
-      <c r="A209" s="1">
-        <v>44470</v>
+      <c r="A209" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="EE209">
         <v>-0.3471896406117954</v>
@@ -67661,8 +68341,8 @@
       </c>
     </row>
     <row r="210" spans="1:150">
-      <c r="A210" s="1">
-        <v>44562</v>
+      <c r="A210" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="EF210">
         <v>0.2354048964218456</v>
@@ -67711,8 +68391,8 @@
       </c>
     </row>
     <row r="211" spans="1:150">
-      <c r="A211" s="1">
-        <v>44652</v>
+      <c r="A211" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="EG211">
         <v>0.1397298556124878</v>
@@ -67758,8 +68438,8 @@
       </c>
     </row>
     <row r="212" spans="1:150">
-      <c r="A212" s="1">
-        <v>44743</v>
+      <c r="A212" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="EH212">
         <v>0.4001488926112106</v>
@@ -67802,8 +68482,8 @@
       </c>
     </row>
     <row r="213" spans="1:150">
-      <c r="A213" s="1">
-        <v>44835</v>
+      <c r="A213" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="EI213">
         <v>-0.4353061035472806</v>
@@ -67843,8 +68523,8 @@
       </c>
     </row>
     <row r="214" spans="1:150">
-      <c r="A214" s="1">
-        <v>44927</v>
+      <c r="A214" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="EJ214">
         <v>-0.3352267436446591</v>
@@ -67881,8 +68561,8 @@
       </c>
     </row>
     <row r="215" spans="1:150">
-      <c r="A215" s="1">
-        <v>45017</v>
+      <c r="A215" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="EK215">
         <v>0.01855976243503714</v>
@@ -67916,8 +68596,8 @@
       </c>
     </row>
     <row r="216" spans="1:150">
-      <c r="A216" s="1">
-        <v>45108</v>
+      <c r="A216" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="EL216">
         <v>-0.1296176279974082</v>
@@ -67948,8 +68628,8 @@
       </c>
     </row>
     <row r="217" spans="1:150">
-      <c r="A217" s="1">
-        <v>45200</v>
+      <c r="A217" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="EM217">
         <v>-0.2870636170015632</v>
@@ -67977,8 +68657,8 @@
       </c>
     </row>
     <row r="218" spans="1:150">
-      <c r="A218" s="1">
-        <v>45292</v>
+      <c r="A218" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="EN218">
         <v>0.2135958395245076</v>
@@ -68003,8 +68683,8 @@
       </c>
     </row>
     <row r="219" spans="1:150">
-      <c r="A219" s="1">
-        <v>45383</v>
+      <c r="A219" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="EO219">
         <v>-0.06676204101096155</v>
@@ -68026,8 +68706,8 @@
       </c>
     </row>
     <row r="220" spans="1:150">
-      <c r="A220" s="1">
-        <v>45474</v>
+      <c r="A220" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="EP220">
         <v>0.1052128168340501</v>
@@ -68046,8 +68726,8 @@
       </c>
     </row>
     <row r="221" spans="1:150">
-      <c r="A221" s="1">
-        <v>45566</v>
+      <c r="A221" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="EQ221">
         <v>-0.2006497229122814</v>
@@ -68063,8 +68743,8 @@
       </c>
     </row>
     <row r="222" spans="1:150">
-      <c r="A222" s="1">
-        <v>45658</v>
+      <c r="A222" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="ER222">
         <v>0.4116802297750048</v>
@@ -68077,8 +68757,8 @@
       </c>
     </row>
     <row r="223" spans="1:150">
-      <c r="A223" s="1">
-        <v>45748</v>
+      <c r="A223" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="ES223">
         <v>-0.2766911554241067</v>
@@ -68088,16 +68768,16 @@
       </c>
     </row>
     <row r="224" spans="1:150">
-      <c r="A224" s="1">
-        <v>45839</v>
+      <c r="A224" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="ET224">
         <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:1">
-      <c r="A225" s="1">
-        <v>45931</v>
+      <c r="A225" s="2" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/2_Processed_Data/1_combined_GDP_series/qoq_combined_GDP_data.xlsx
+++ b/0_0_Data/2_Processed_Data/1_combined_GDP_series/qoq_combined_GDP_data.xlsx
@@ -11,683 +11,6 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
-  <si>
-    <t>1970Q1</t>
-  </si>
-  <si>
-    <t>1970Q2</t>
-  </si>
-  <si>
-    <t>1970Q3</t>
-  </si>
-  <si>
-    <t>1970Q4</t>
-  </si>
-  <si>
-    <t>1971Q1</t>
-  </si>
-  <si>
-    <t>1971Q2</t>
-  </si>
-  <si>
-    <t>1971Q3</t>
-  </si>
-  <si>
-    <t>1971Q4</t>
-  </si>
-  <si>
-    <t>1972Q1</t>
-  </si>
-  <si>
-    <t>1972Q2</t>
-  </si>
-  <si>
-    <t>1972Q3</t>
-  </si>
-  <si>
-    <t>1972Q4</t>
-  </si>
-  <si>
-    <t>1973Q1</t>
-  </si>
-  <si>
-    <t>1973Q2</t>
-  </si>
-  <si>
-    <t>1973Q3</t>
-  </si>
-  <si>
-    <t>1973Q4</t>
-  </si>
-  <si>
-    <t>1974Q1</t>
-  </si>
-  <si>
-    <t>1974Q2</t>
-  </si>
-  <si>
-    <t>1974Q3</t>
-  </si>
-  <si>
-    <t>1974Q4</t>
-  </si>
-  <si>
-    <t>1975Q1</t>
-  </si>
-  <si>
-    <t>1975Q2</t>
-  </si>
-  <si>
-    <t>1975Q3</t>
-  </si>
-  <si>
-    <t>1975Q4</t>
-  </si>
-  <si>
-    <t>1976Q1</t>
-  </si>
-  <si>
-    <t>1976Q2</t>
-  </si>
-  <si>
-    <t>1976Q3</t>
-  </si>
-  <si>
-    <t>1976Q4</t>
-  </si>
-  <si>
-    <t>1977Q1</t>
-  </si>
-  <si>
-    <t>1977Q2</t>
-  </si>
-  <si>
-    <t>1977Q3</t>
-  </si>
-  <si>
-    <t>1977Q4</t>
-  </si>
-  <si>
-    <t>1978Q1</t>
-  </si>
-  <si>
-    <t>1978Q2</t>
-  </si>
-  <si>
-    <t>1978Q3</t>
-  </si>
-  <si>
-    <t>1978Q4</t>
-  </si>
-  <si>
-    <t>1979Q1</t>
-  </si>
-  <si>
-    <t>1979Q2</t>
-  </si>
-  <si>
-    <t>1979Q3</t>
-  </si>
-  <si>
-    <t>1979Q4</t>
-  </si>
-  <si>
-    <t>1980Q1</t>
-  </si>
-  <si>
-    <t>1980Q2</t>
-  </si>
-  <si>
-    <t>1980Q3</t>
-  </si>
-  <si>
-    <t>1980Q4</t>
-  </si>
-  <si>
-    <t>1981Q1</t>
-  </si>
-  <si>
-    <t>1981Q2</t>
-  </si>
-  <si>
-    <t>1981Q3</t>
-  </si>
-  <si>
-    <t>1981Q4</t>
-  </si>
-  <si>
-    <t>1982Q1</t>
-  </si>
-  <si>
-    <t>1982Q2</t>
-  </si>
-  <si>
-    <t>1982Q3</t>
-  </si>
-  <si>
-    <t>1982Q4</t>
-  </si>
-  <si>
-    <t>1983Q1</t>
-  </si>
-  <si>
-    <t>1983Q2</t>
-  </si>
-  <si>
-    <t>1983Q3</t>
-  </si>
-  <si>
-    <t>1983Q4</t>
-  </si>
-  <si>
-    <t>1984Q1</t>
-  </si>
-  <si>
-    <t>1984Q2</t>
-  </si>
-  <si>
-    <t>1984Q3</t>
-  </si>
-  <si>
-    <t>1984Q4</t>
-  </si>
-  <si>
-    <t>1985Q1</t>
-  </si>
-  <si>
-    <t>1985Q2</t>
-  </si>
-  <si>
-    <t>1985Q3</t>
-  </si>
-  <si>
-    <t>1985Q4</t>
-  </si>
-  <si>
-    <t>1986Q1</t>
-  </si>
-  <si>
-    <t>1986Q2</t>
-  </si>
-  <si>
-    <t>1986Q3</t>
-  </si>
-  <si>
-    <t>1986Q4</t>
-  </si>
-  <si>
-    <t>1987Q1</t>
-  </si>
-  <si>
-    <t>1987Q2</t>
-  </si>
-  <si>
-    <t>1987Q3</t>
-  </si>
-  <si>
-    <t>1987Q4</t>
-  </si>
-  <si>
-    <t>1988Q1</t>
-  </si>
-  <si>
-    <t>1988Q2</t>
-  </si>
-  <si>
-    <t>1988Q3</t>
-  </si>
-  <si>
-    <t>1988Q4</t>
-  </si>
-  <si>
-    <t>1989Q1</t>
-  </si>
-  <si>
-    <t>1989Q2</t>
-  </si>
-  <si>
-    <t>1989Q3</t>
-  </si>
-  <si>
-    <t>1989Q4</t>
-  </si>
-  <si>
-    <t>1990Q1</t>
-  </si>
-  <si>
-    <t>1990Q2</t>
-  </si>
-  <si>
-    <t>1990Q3</t>
-  </si>
-  <si>
-    <t>1990Q4</t>
-  </si>
-  <si>
-    <t>1991Q1</t>
-  </si>
-  <si>
-    <t>1991Q2</t>
-  </si>
-  <si>
-    <t>1991Q3</t>
-  </si>
-  <si>
-    <t>1991Q4</t>
-  </si>
-  <si>
-    <t>1992Q1</t>
-  </si>
-  <si>
-    <t>1992Q2</t>
-  </si>
-  <si>
-    <t>1992Q3</t>
-  </si>
-  <si>
-    <t>1992Q4</t>
-  </si>
-  <si>
-    <t>1993Q1</t>
-  </si>
-  <si>
-    <t>1993Q2</t>
-  </si>
-  <si>
-    <t>1993Q3</t>
-  </si>
-  <si>
-    <t>1993Q4</t>
-  </si>
-  <si>
-    <t>1994Q1</t>
-  </si>
-  <si>
-    <t>1994Q2</t>
-  </si>
-  <si>
-    <t>1994Q3</t>
-  </si>
-  <si>
-    <t>1994Q4</t>
-  </si>
-  <si>
-    <t>1995Q1</t>
-  </si>
-  <si>
-    <t>1995Q2</t>
-  </si>
-  <si>
-    <t>1995Q3</t>
-  </si>
-  <si>
-    <t>1995Q4</t>
-  </si>
-  <si>
-    <t>1996Q1</t>
-  </si>
-  <si>
-    <t>1996Q2</t>
-  </si>
-  <si>
-    <t>1996Q3</t>
-  </si>
-  <si>
-    <t>1996Q4</t>
-  </si>
-  <si>
-    <t>1997Q1</t>
-  </si>
-  <si>
-    <t>1997Q2</t>
-  </si>
-  <si>
-    <t>1997Q3</t>
-  </si>
-  <si>
-    <t>1997Q4</t>
-  </si>
-  <si>
-    <t>1998Q1</t>
-  </si>
-  <si>
-    <t>1998Q2</t>
-  </si>
-  <si>
-    <t>1998Q3</t>
-  </si>
-  <si>
-    <t>1998Q4</t>
-  </si>
-  <si>
-    <t>1999Q1</t>
-  </si>
-  <si>
-    <t>1999Q2</t>
-  </si>
-  <si>
-    <t>1999Q3</t>
-  </si>
-  <si>
-    <t>1999Q4</t>
-  </si>
-  <si>
-    <t>2000Q1</t>
-  </si>
-  <si>
-    <t>2000Q2</t>
-  </si>
-  <si>
-    <t>2000Q3</t>
-  </si>
-  <si>
-    <t>2000Q4</t>
-  </si>
-  <si>
-    <t>2001Q1</t>
-  </si>
-  <si>
-    <t>2001Q2</t>
-  </si>
-  <si>
-    <t>2001Q3</t>
-  </si>
-  <si>
-    <t>2001Q4</t>
-  </si>
-  <si>
-    <t>2002Q1</t>
-  </si>
-  <si>
-    <t>2002Q2</t>
-  </si>
-  <si>
-    <t>2002Q3</t>
-  </si>
-  <si>
-    <t>2002Q4</t>
-  </si>
-  <si>
-    <t>2003Q1</t>
-  </si>
-  <si>
-    <t>2003Q2</t>
-  </si>
-  <si>
-    <t>2003Q3</t>
-  </si>
-  <si>
-    <t>2003Q4</t>
-  </si>
-  <si>
-    <t>2004Q1</t>
-  </si>
-  <si>
-    <t>2004Q2</t>
-  </si>
-  <si>
-    <t>2004Q3</t>
-  </si>
-  <si>
-    <t>2004Q4</t>
-  </si>
-  <si>
-    <t>2005Q1</t>
-  </si>
-  <si>
-    <t>2005Q2</t>
-  </si>
-  <si>
-    <t>2005Q3</t>
-  </si>
-  <si>
-    <t>2005Q4</t>
-  </si>
-  <si>
-    <t>2006Q1</t>
-  </si>
-  <si>
-    <t>2006Q2</t>
-  </si>
-  <si>
-    <t>2006Q3</t>
-  </si>
-  <si>
-    <t>2006Q4</t>
-  </si>
-  <si>
-    <t>2007Q1</t>
-  </si>
-  <si>
-    <t>2007Q2</t>
-  </si>
-  <si>
-    <t>2007Q3</t>
-  </si>
-  <si>
-    <t>2007Q4</t>
-  </si>
-  <si>
-    <t>2008Q1</t>
-  </si>
-  <si>
-    <t>2008Q2</t>
-  </si>
-  <si>
-    <t>2008Q3</t>
-  </si>
-  <si>
-    <t>2008Q4</t>
-  </si>
-  <si>
-    <t>2009Q1</t>
-  </si>
-  <si>
-    <t>2009Q2</t>
-  </si>
-  <si>
-    <t>2009Q3</t>
-  </si>
-  <si>
-    <t>2009Q4</t>
-  </si>
-  <si>
-    <t>2010Q1</t>
-  </si>
-  <si>
-    <t>2010Q2</t>
-  </si>
-  <si>
-    <t>2010Q3</t>
-  </si>
-  <si>
-    <t>2010Q4</t>
-  </si>
-  <si>
-    <t>2011Q1</t>
-  </si>
-  <si>
-    <t>2011Q2</t>
-  </si>
-  <si>
-    <t>2011Q3</t>
-  </si>
-  <si>
-    <t>2011Q4</t>
-  </si>
-  <si>
-    <t>2012Q1</t>
-  </si>
-  <si>
-    <t>2012Q2</t>
-  </si>
-  <si>
-    <t>2012Q3</t>
-  </si>
-  <si>
-    <t>2012Q4</t>
-  </si>
-  <si>
-    <t>2013Q1</t>
-  </si>
-  <si>
-    <t>2013Q2</t>
-  </si>
-  <si>
-    <t>2013Q3</t>
-  </si>
-  <si>
-    <t>2013Q4</t>
-  </si>
-  <si>
-    <t>2014Q1</t>
-  </si>
-  <si>
-    <t>2014Q2</t>
-  </si>
-  <si>
-    <t>2014Q3</t>
-  </si>
-  <si>
-    <t>2014Q4</t>
-  </si>
-  <si>
-    <t>2015Q1</t>
-  </si>
-  <si>
-    <t>2015Q2</t>
-  </si>
-  <si>
-    <t>2015Q3</t>
-  </si>
-  <si>
-    <t>2015Q4</t>
-  </si>
-  <si>
-    <t>2016Q1</t>
-  </si>
-  <si>
-    <t>2016Q2</t>
-  </si>
-  <si>
-    <t>2016Q3</t>
-  </si>
-  <si>
-    <t>2016Q4</t>
-  </si>
-  <si>
-    <t>2017Q1</t>
-  </si>
-  <si>
-    <t>2017Q2</t>
-  </si>
-  <si>
-    <t>2017Q3</t>
-  </si>
-  <si>
-    <t>2017Q4</t>
-  </si>
-  <si>
-    <t>2018Q1</t>
-  </si>
-  <si>
-    <t>2018Q2</t>
-  </si>
-  <si>
-    <t>2018Q3</t>
-  </si>
-  <si>
-    <t>2018Q4</t>
-  </si>
-  <si>
-    <t>2019Q1</t>
-  </si>
-  <si>
-    <t>2019Q2</t>
-  </si>
-  <si>
-    <t>2019Q3</t>
-  </si>
-  <si>
-    <t>2019Q4</t>
-  </si>
-  <si>
-    <t>2020Q1</t>
-  </si>
-  <si>
-    <t>2020Q2</t>
-  </si>
-  <si>
-    <t>2020Q3</t>
-  </si>
-  <si>
-    <t>2020Q4</t>
-  </si>
-  <si>
-    <t>2021Q1</t>
-  </si>
-  <si>
-    <t>2021Q2</t>
-  </si>
-  <si>
-    <t>2021Q3</t>
-  </si>
-  <si>
-    <t>2021Q4</t>
-  </si>
-  <si>
-    <t>2022Q1</t>
-  </si>
-  <si>
-    <t>2022Q2</t>
-  </si>
-  <si>
-    <t>2022Q3</t>
-  </si>
-  <si>
-    <t>2022Q4</t>
-  </si>
-  <si>
-    <t>2023Q1</t>
-  </si>
-  <si>
-    <t>2023Q2</t>
-  </si>
-  <si>
-    <t>2023Q3</t>
-  </si>
-  <si>
-    <t>2023Q4</t>
-  </si>
-  <si>
-    <t>2024Q1</t>
-  </si>
-  <si>
-    <t>2024Q2</t>
-  </si>
-  <si>
-    <t>2024Q3</t>
-  </si>
-  <si>
-    <t>2024Q4</t>
-  </si>
-  <si>
-    <t>2025Q1</t>
-  </si>
-  <si>
-    <t>2025Q2</t>
-  </si>
-  <si>
-    <t>2025Q3</t>
-  </si>
-  <si>
-    <t>2025Q4</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -747,12 +70,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1505,13 +825,13 @@
       </c>
     </row>
     <row r="2" spans="1:150">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="A2" s="1">
+        <v>25569</v>
       </c>
     </row>
     <row r="3" spans="1:150">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
+      <c r="A3" s="1">
+        <v>25659</v>
       </c>
       <c r="B3">
         <v>3.949077682514932</v>
@@ -1962,8 +1282,8 @@
       </c>
     </row>
     <row r="4" spans="1:150">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
+      <c r="A4" s="1">
+        <v>25750</v>
       </c>
       <c r="B4">
         <v>1.874531367158205</v>
@@ -2414,8 +1734,8 @@
       </c>
     </row>
     <row r="5" spans="1:150">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
+      <c r="A5" s="1">
+        <v>25842</v>
       </c>
       <c r="B5">
         <v>0.858684985279704</v>
@@ -2866,8 +2186,8 @@
       </c>
     </row>
     <row r="6" spans="1:150">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
+      <c r="A6" s="1">
+        <v>25934</v>
       </c>
       <c r="B6">
         <v>-1.945998540501099</v>
@@ -3318,8 +2638,8 @@
       </c>
     </row>
     <row r="7" spans="1:150">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
+      <c r="A7" s="1">
+        <v>26024</v>
       </c>
       <c r="B7">
         <v>2.133465641280079</v>
@@ -3770,8 +3090,8 @@
       </c>
     </row>
     <row r="8" spans="1:150">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
+      <c r="A8" s="1">
+        <v>26115</v>
       </c>
       <c r="B8">
         <v>1.700267184843334</v>
@@ -4222,8 +3542,8 @@
       </c>
     </row>
     <row r="9" spans="1:150">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
+      <c r="A9" s="1">
+        <v>26207</v>
       </c>
       <c r="B9">
         <v>-0.09553379508001725</v>
@@ -4674,8 +3994,8 @@
       </c>
     </row>
     <row r="10" spans="1:150">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
+      <c r="A10" s="1">
+        <v>26299</v>
       </c>
       <c r="B10">
         <v>0.09562514941430368</v>
@@ -5126,8 +4446,8 @@
       </c>
     </row>
     <row r="11" spans="1:150">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
+      <c r="A11" s="1">
+        <v>26390</v>
       </c>
       <c r="B11">
         <v>1.647957965130165</v>
@@ -5578,8 +4898,8 @@
       </c>
     </row>
     <row r="12" spans="1:150">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
+      <c r="A12" s="1">
+        <v>26481</v>
       </c>
       <c r="B12">
         <v>2.326127819548863</v>
@@ -6030,8 +5350,8 @@
       </c>
     </row>
     <row r="13" spans="1:150">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
+      <c r="A13" s="1">
+        <v>26573</v>
       </c>
       <c r="B13">
         <v>1.538461538461551</v>
@@ -6482,8 +5802,8 @@
       </c>
     </row>
     <row r="14" spans="1:150">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
+      <c r="A14" s="1">
+        <v>26665</v>
       </c>
       <c r="B14">
         <v>1.447308909995468</v>
@@ -6934,8 +6254,8 @@
       </c>
     </row>
     <row r="15" spans="1:150">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
+      <c r="A15" s="1">
+        <v>26755</v>
       </c>
       <c r="B15">
         <v>0.6910387873383952</v>
@@ -7386,8 +6706,8 @@
       </c>
     </row>
     <row r="16" spans="1:150">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
+      <c r="A16" s="1">
+        <v>26846</v>
       </c>
       <c r="B16">
         <v>0.3542174009298183</v>
@@ -7838,8 +7158,8 @@
       </c>
     </row>
     <row r="17" spans="1:150">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
+      <c r="A17" s="1">
+        <v>26938</v>
       </c>
       <c r="B17">
         <v>0.2206044562100178</v>
@@ -8290,8 +7610,8 @@
       </c>
     </row>
     <row r="18" spans="1:150">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
+      <c r="A18" s="1">
+        <v>27030</v>
       </c>
       <c r="B18">
         <v>0.836451683909317</v>
@@ -8742,8 +8062,8 @@
       </c>
     </row>
     <row r="19" spans="1:150">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
+      <c r="A19" s="1">
+        <v>27120</v>
       </c>
       <c r="B19">
         <v>-0.08731717965510417</v>
@@ -9194,8 +8514,8 @@
       </c>
     </row>
     <row r="20" spans="1:150">
-      <c r="A20" s="2" t="s">
-        <v>18</v>
+      <c r="A20" s="1">
+        <v>27211</v>
       </c>
       <c r="B20">
         <v>0.02184837229626569</v>
@@ -9646,8 +8966,8 @@
       </c>
     </row>
     <row r="21" spans="1:150">
-      <c r="A21" s="2" t="s">
-        <v>19</v>
+      <c r="A21" s="1">
+        <v>27303</v>
       </c>
       <c r="B21">
         <v>-1.245085190039327</v>
@@ -10098,8 +9418,8 @@
       </c>
     </row>
     <row r="22" spans="1:150">
-      <c r="A22" s="2" t="s">
-        <v>20</v>
+      <c r="A22" s="1">
+        <v>27395</v>
       </c>
       <c r="B22">
         <v>-0.5750940057509247</v>
@@ -10550,8 +9870,8 @@
       </c>
     </row>
     <row r="23" spans="1:150">
-      <c r="A23" s="2" t="s">
-        <v>21</v>
+      <c r="A23" s="1">
+        <v>27485</v>
       </c>
       <c r="B23">
         <v>-0.5116796440489535</v>
@@ -11002,8 +10322,8 @@
       </c>
     </row>
     <row r="24" spans="1:150">
-      <c r="A24" s="2" t="s">
-        <v>22</v>
+      <c r="A24" s="1">
+        <v>27576</v>
       </c>
       <c r="B24">
         <v>1.095706618962428</v>
@@ -11454,8 +10774,8 @@
       </c>
     </row>
     <row r="25" spans="1:150">
-      <c r="A25" s="2" t="s">
-        <v>23</v>
+      <c r="A25" s="1">
+        <v>27668</v>
       </c>
       <c r="B25">
         <v>1.968591019685915</v>
@@ -11906,8 +11226,8 @@
       </c>
     </row>
     <row r="26" spans="1:150">
-      <c r="A26" s="2" t="s">
-        <v>24</v>
+      <c r="A26" s="1">
+        <v>27760</v>
       </c>
       <c r="B26">
         <v>0.8676789587852438</v>
@@ -12358,8 +11678,8 @@
       </c>
     </row>
     <row r="27" spans="1:150">
-      <c r="A27" s="2" t="s">
-        <v>25</v>
+      <c r="A27" s="1">
+        <v>27851</v>
       </c>
       <c r="B27">
         <v>1.505376344086038</v>
@@ -12810,8 +12130,8 @@
       </c>
     </row>
     <row r="28" spans="1:150">
-      <c r="A28" s="2" t="s">
-        <v>26</v>
+      <c r="A28" s="1">
+        <v>27942</v>
       </c>
       <c r="B28">
         <v>0.02118644067795302</v>
@@ -13262,8 +12582,8 @@
       </c>
     </row>
     <row r="29" spans="1:150">
-      <c r="A29" s="2" t="s">
-        <v>27</v>
+      <c r="A29" s="1">
+        <v>28034</v>
       </c>
       <c r="B29">
         <v>1.864011861893669</v>
@@ -13714,8 +13034,8 @@
       </c>
     </row>
     <row r="30" spans="1:150">
-      <c r="A30" s="2" t="s">
-        <v>28</v>
+      <c r="A30" s="1">
+        <v>28126</v>
       </c>
       <c r="B30">
         <v>0.873362445414845</v>
@@ -14166,8 +13486,8 @@
       </c>
     </row>
     <row r="31" spans="1:150">
-      <c r="A31" s="2" t="s">
-        <v>29</v>
+      <c r="A31" s="1">
+        <v>28216</v>
       </c>
       <c r="B31">
         <v>0.5565862708719869</v>
@@ -14618,8 +13938,8 @@
       </c>
     </row>
     <row r="32" spans="1:150">
-      <c r="A32" s="2" t="s">
-        <v>30</v>
+      <c r="A32" s="1">
+        <v>28307</v>
       </c>
       <c r="B32">
         <v>-0.04100041000410335</v>
@@ -15070,8 +14390,8 @@
       </c>
     </row>
     <row r="33" spans="1:150">
-      <c r="A33" s="2" t="s">
-        <v>31</v>
+      <c r="A33" s="1">
+        <v>28399</v>
       </c>
       <c r="B33">
         <v>1.722723543888443</v>
@@ -15522,8 +14842,8 @@
       </c>
     </row>
     <row r="34" spans="1:150">
-      <c r="A34" s="2" t="s">
-        <v>32</v>
+      <c r="A34" s="1">
+        <v>28491</v>
       </c>
       <c r="B34">
         <v>0.4032258064516032</v>
@@ -15974,8 +15294,8 @@
       </c>
     </row>
     <row r="35" spans="1:150">
-      <c r="A35" s="2" t="s">
-        <v>33</v>
+      <c r="A35" s="1">
+        <v>28581</v>
       </c>
       <c r="B35">
         <v>0.4216867469879438</v>
@@ -16426,8 +15746,8 @@
       </c>
     </row>
     <row r="36" spans="1:150">
-      <c r="A36" s="2" t="s">
-        <v>34</v>
+      <c r="A36" s="1">
+        <v>28672</v>
       </c>
       <c r="B36">
         <v>1.299740051989609</v>
@@ -16878,8 +16198,8 @@
       </c>
     </row>
     <row r="37" spans="1:150">
-      <c r="A37" s="2" t="s">
-        <v>35</v>
+      <c r="A37" s="1">
+        <v>28764</v>
       </c>
       <c r="B37">
         <v>1.164626924595339</v>
@@ -17330,8 +16650,8 @@
       </c>
     </row>
     <row r="38" spans="1:150">
-      <c r="A38" s="2" t="s">
-        <v>36</v>
+      <c r="A38" s="1">
+        <v>28856</v>
       </c>
       <c r="B38">
         <v>0.1365853658536696</v>
@@ -17782,8 +17102,8 @@
       </c>
     </row>
     <row r="39" spans="1:150">
-      <c r="A39" s="2" t="s">
-        <v>37</v>
+      <c r="A39" s="1">
+        <v>28946</v>
       </c>
       <c r="B39">
         <v>3.098207326578323</v>
@@ -18234,8 +17554,8 @@
       </c>
     </row>
     <row r="40" spans="1:150">
-      <c r="A40" s="2" t="s">
-        <v>38</v>
+      <c r="A40" s="1">
+        <v>29037</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -18686,8 +18006,8 @@
       </c>
     </row>
     <row r="41" spans="1:150">
-      <c r="A41" s="2" t="s">
-        <v>39</v>
+      <c r="A41" s="1">
+        <v>29129</v>
       </c>
       <c r="B41">
         <v>0.6237006237006345</v>
@@ -19138,8 +18458,8 @@
       </c>
     </row>
     <row r="42" spans="1:150">
-      <c r="A42" s="2" t="s">
-        <v>40</v>
+      <c r="A42" s="1">
+        <v>29221</v>
       </c>
       <c r="B42">
         <v>0.7888805409466416</v>
@@ -19590,8 +18910,8 @@
       </c>
     </row>
     <row r="43" spans="1:150">
-      <c r="A43" s="2" t="s">
-        <v>41</v>
+      <c r="A43" s="1">
+        <v>29312</v>
       </c>
       <c r="B43">
         <v>-0.6522549385016648</v>
@@ -20042,8 +19362,8 @@
       </c>
     </row>
     <row r="44" spans="1:150">
-      <c r="A44" s="2" t="s">
-        <v>42</v>
+      <c r="A44" s="1">
+        <v>29403</v>
       </c>
       <c r="B44">
         <v>-0.4126805477396301</v>
@@ -20494,8 +19814,8 @@
       </c>
     </row>
     <row r="45" spans="1:150">
-      <c r="A45" s="2" t="s">
-        <v>43</v>
+      <c r="A45" s="1">
+        <v>29495</v>
       </c>
       <c r="B45">
         <v>-0.1318515728009148</v>
@@ -20946,8 +20266,8 @@
       </c>
     </row>
     <row r="46" spans="1:150">
-      <c r="A46" s="2" t="s">
-        <v>44</v>
+      <c r="A46" s="1">
+        <v>29587</v>
       </c>
       <c r="B46">
         <v>1.207091663523191</v>
@@ -21398,8 +20718,8 @@
       </c>
     </row>
     <row r="47" spans="1:150">
-      <c r="A47" s="2" t="s">
-        <v>45</v>
+      <c r="A47" s="1">
+        <v>29677</v>
       </c>
       <c r="B47">
         <v>-0.2609019754006529</v>
@@ -21850,8 +21170,8 @@
       </c>
     </row>
     <row r="48" spans="1:150">
-      <c r="A48" s="2" t="s">
-        <v>46</v>
+      <c r="A48" s="1">
+        <v>29768</v>
       </c>
       <c r="B48">
         <v>0.2802690582959607</v>
@@ -22302,8 +21622,8 @@
       </c>
     </row>
     <row r="49" spans="1:150">
-      <c r="A49" s="2" t="s">
-        <v>47</v>
+      <c r="A49" s="1">
+        <v>29860</v>
       </c>
       <c r="B49">
         <v>-0.111794298490786</v>
@@ -22754,8 +22074,8 @@
       </c>
     </row>
     <row r="50" spans="1:150">
-      <c r="A50" s="2" t="s">
-        <v>48</v>
+      <c r="A50" s="1">
+        <v>29952</v>
       </c>
       <c r="B50">
         <v>0.4103711994030905</v>
@@ -23206,8 +22526,8 @@
       </c>
     </row>
     <row r="51" spans="1:150">
-      <c r="A51" s="2" t="s">
-        <v>49</v>
+      <c r="A51" s="1">
+        <v>30042</v>
       </c>
       <c r="B51">
         <v>-0.6316180568456113</v>
@@ -23658,8 +22978,8 @@
       </c>
     </row>
     <row r="52" spans="1:150">
-      <c r="A52" s="2" t="s">
-        <v>50</v>
+      <c r="A52" s="1">
+        <v>30133</v>
       </c>
       <c r="B52">
         <v>-0.9534492428491423</v>
@@ -24110,8 +23430,8 @@
       </c>
     </row>
     <row r="53" spans="1:150">
-      <c r="A53" s="2" t="s">
-        <v>51</v>
+      <c r="A53" s="1">
+        <v>30225</v>
       </c>
       <c r="B53">
         <v>0.2076255190638144</v>
@@ -24562,8 +23882,8 @@
       </c>
     </row>
     <row r="54" spans="1:150">
-      <c r="A54" s="2" t="s">
-        <v>52</v>
+      <c r="A54" s="1">
+        <v>30317</v>
       </c>
       <c r="B54">
         <v>0.9229610096063111</v>
@@ -25014,8 +24334,8 @@
       </c>
     </row>
     <row r="55" spans="1:150">
-      <c r="A55" s="2" t="s">
-        <v>53</v>
+      <c r="A55" s="1">
+        <v>30407</v>
       </c>
       <c r="B55">
         <v>1.06382978723405</v>
@@ -25466,8 +24786,8 @@
       </c>
     </row>
     <row r="56" spans="1:150">
-      <c r="A56" s="2" t="s">
-        <v>54</v>
+      <c r="A56" s="1">
+        <v>30498</v>
       </c>
       <c r="B56">
         <v>-0.2400738688827267</v>
@@ -25918,8 +25238,8 @@
       </c>
     </row>
     <row r="57" spans="1:150">
-      <c r="A57" s="2" t="s">
-        <v>55</v>
+      <c r="A57" s="1">
+        <v>30590</v>
       </c>
       <c r="B57">
         <v>1.388374676045905</v>
@@ -26370,8 +25690,8 @@
       </c>
     </row>
     <row r="58" spans="1:150">
-      <c r="A58" s="2" t="s">
-        <v>56</v>
+      <c r="A58" s="1">
+        <v>30682</v>
       </c>
       <c r="B58">
         <v>1.314588278254523</v>
@@ -26822,8 +26142,8 @@
       </c>
     </row>
     <row r="59" spans="1:150">
-      <c r="A59" s="2" t="s">
-        <v>57</v>
+      <c r="A59" s="1">
+        <v>30773</v>
       </c>
       <c r="B59">
         <v>-1.567850063074441</v>
@@ -27274,8 +26594,8 @@
       </c>
     </row>
     <row r="60" spans="1:150">
-      <c r="A60" s="2" t="s">
-        <v>58</v>
+      <c r="A60" s="1">
+        <v>30864</v>
       </c>
       <c r="B60">
         <v>2.727938484071772</v>
@@ -27726,8 +27046,8 @@
       </c>
     </row>
     <row r="61" spans="1:150">
-      <c r="A61" s="2" t="s">
-        <v>59</v>
+      <c r="A61" s="1">
+        <v>30956</v>
       </c>
       <c r="B61">
         <v>0.8376403493138532</v>
@@ -28178,8 +27498,8 @@
       </c>
     </row>
     <row r="62" spans="1:150">
-      <c r="A62" s="2" t="s">
-        <v>60</v>
+      <c r="A62" s="1">
+        <v>31048</v>
       </c>
       <c r="B62">
         <v>-0.5302226935312889</v>
@@ -28630,8 +27950,8 @@
       </c>
     </row>
     <row r="63" spans="1:150">
-      <c r="A63" s="2" t="s">
-        <v>61</v>
+      <c r="A63" s="1">
+        <v>31138</v>
       </c>
       <c r="B63">
         <v>0.9772565742715041</v>
@@ -29082,8 +28402,8 @@
       </c>
     </row>
     <row r="64" spans="1:150">
-      <c r="A64" s="2" t="s">
-        <v>62</v>
+      <c r="A64" s="1">
+        <v>31229</v>
       </c>
       <c r="B64">
         <v>1.30212915713531</v>
@@ -29534,8 +28854,8 @@
       </c>
     </row>
     <row r="65" spans="1:150">
-      <c r="A65" s="2" t="s">
-        <v>63</v>
+      <c r="A65" s="1">
+        <v>31321</v>
       </c>
       <c r="B65">
         <v>0.6079555323953575</v>
@@ -29986,8 +29306,8 @@
       </c>
     </row>
     <row r="66" spans="1:150">
-      <c r="A66" s="2" t="s">
-        <v>64</v>
+      <c r="A66" s="1">
+        <v>31413</v>
       </c>
       <c r="B66">
         <v>-0.5697513812154674</v>
@@ -30438,8 +29758,8 @@
       </c>
     </row>
     <row r="67" spans="1:150">
-      <c r="A67" s="2" t="s">
-        <v>65</v>
+      <c r="A67" s="1">
+        <v>31503</v>
       </c>
       <c r="B67">
         <v>1.163396422990087</v>
@@ -30890,8 +30210,8 @@
       </c>
     </row>
     <row r="68" spans="1:150">
-      <c r="A68" s="2" t="s">
-        <v>66</v>
+      <c r="A68" s="1">
+        <v>31594</v>
       </c>
       <c r="B68">
         <v>0.7380707174733948</v>
@@ -31342,8 +30662,8 @@
       </c>
     </row>
     <row r="69" spans="1:150">
-      <c r="A69" s="2" t="s">
-        <v>67</v>
+      <c r="A69" s="1">
+        <v>31686</v>
       </c>
       <c r="B69">
         <v>0.9882433123189726</v>
@@ -31794,8 +31114,8 @@
       </c>
     </row>
     <row r="70" spans="1:150">
-      <c r="A70" s="2" t="s">
-        <v>68</v>
+      <c r="A70" s="1">
+        <v>31778</v>
       </c>
       <c r="B70">
         <v>-2.513919352117431</v>
@@ -32246,8 +31566,8 @@
       </c>
     </row>
     <row r="71" spans="1:150">
-      <c r="A71" s="2" t="s">
-        <v>69</v>
+      <c r="A71" s="1">
+        <v>31868</v>
       </c>
       <c r="B71">
         <v>2.249913464866736</v>
@@ -32698,8 +32018,8 @@
       </c>
     </row>
     <row r="72" spans="1:150">
-      <c r="A72" s="2" t="s">
-        <v>70</v>
+      <c r="A72" s="1">
+        <v>31959</v>
       </c>
       <c r="B72">
         <v>0.7109004739336476</v>
@@ -33150,8 +32470,8 @@
       </c>
     </row>
     <row r="73" spans="1:150">
-      <c r="A73" s="2" t="s">
-        <v>71</v>
+      <c r="A73" s="1">
+        <v>32051</v>
       </c>
       <c r="B73">
         <v>1.579831932773108</v>
@@ -33602,8 +32922,8 @@
       </c>
     </row>
     <row r="74" spans="1:150">
-      <c r="A74" s="2" t="s">
-        <v>72</v>
+      <c r="A74" s="1">
+        <v>32143</v>
       </c>
       <c r="B74">
         <v>-0.8934480476505654</v>
@@ -34054,8 +33374,8 @@
       </c>
     </row>
     <row r="75" spans="1:150">
-      <c r="A75" s="2" t="s">
-        <v>73</v>
+      <c r="A75" s="1">
+        <v>32234</v>
       </c>
       <c r="B75">
         <v>1.819699499165283</v>
@@ -34506,8 +33826,8 @@
       </c>
     </row>
     <row r="76" spans="1:150">
-      <c r="A76" s="2" t="s">
-        <v>74</v>
+      <c r="A76" s="1">
+        <v>32325</v>
       </c>
       <c r="B76">
         <v>1.098540744384322</v>
@@ -34958,8 +34278,8 @@
       </c>
     </row>
     <row r="77" spans="1:150">
-      <c r="A77" s="2" t="s">
-        <v>75</v>
+      <c r="A77" s="1">
+        <v>32417</v>
       </c>
       <c r="C77">
         <v>1.200129743756077</v>
@@ -35407,8 +34727,8 @@
       </c>
     </row>
     <row r="78" spans="1:150">
-      <c r="A78" s="2" t="s">
-        <v>76</v>
+      <c r="A78" s="1">
+        <v>32509</v>
       </c>
       <c r="D78">
         <v>1.025641025641019</v>
@@ -35853,8 +35173,8 @@
       </c>
     </row>
     <row r="79" spans="1:150">
-      <c r="A79" s="2" t="s">
-        <v>77</v>
+      <c r="A79" s="1">
+        <v>32599</v>
       </c>
       <c r="E79">
         <v>0.4124365482233615</v>
@@ -36296,8 +35616,8 @@
       </c>
     </row>
     <row r="80" spans="1:150">
-      <c r="A80" s="2" t="s">
-        <v>78</v>
+      <c r="A80" s="1">
+        <v>32690</v>
       </c>
       <c r="F80">
         <v>0.9004739336492845</v>
@@ -36736,8 +36056,8 @@
       </c>
     </row>
     <row r="81" spans="1:150">
-      <c r="A81" s="2" t="s">
-        <v>79</v>
+      <c r="A81" s="1">
+        <v>32782</v>
       </c>
       <c r="G81">
         <v>1.174260216063898</v>
@@ -37173,8 +36493,8 @@
       </c>
     </row>
     <row r="82" spans="1:150">
-      <c r="A82" s="2" t="s">
-        <v>80</v>
+      <c r="A82" s="1">
+        <v>32874</v>
       </c>
       <c r="H82">
         <v>2.073661405137701</v>
@@ -37607,8 +36927,8 @@
       </c>
     </row>
     <row r="83" spans="1:150">
-      <c r="A83" s="2" t="s">
-        <v>81</v>
+      <c r="A83" s="1">
+        <v>32964</v>
       </c>
       <c r="I83">
         <v>0.4851425106125105</v>
@@ -38038,8 +37358,8 @@
       </c>
     </row>
     <row r="84" spans="1:150">
-      <c r="A84" s="2" t="s">
-        <v>82</v>
+      <c r="A84" s="1">
+        <v>33055</v>
       </c>
       <c r="J84">
         <v>2.11225105612553</v>
@@ -38466,8 +37786,8 @@
       </c>
     </row>
     <row r="85" spans="1:150">
-      <c r="A85" s="2" t="s">
-        <v>83</v>
+      <c r="A85" s="1">
+        <v>33147</v>
       </c>
       <c r="K85">
         <v>1.773049645390049</v>
@@ -38891,8 +38211,8 @@
       </c>
     </row>
     <row r="86" spans="1:150">
-      <c r="A86" s="2" t="s">
-        <v>84</v>
+      <c r="A86" s="1">
+        <v>33239</v>
       </c>
       <c r="L86">
         <v>2.758420441347291</v>
@@ -39313,8 +38633,8 @@
       </c>
     </row>
     <row r="87" spans="1:150">
-      <c r="A87" s="2" t="s">
-        <v>85</v>
+      <c r="A87" s="1">
+        <v>33329</v>
       </c>
       <c r="M87">
         <v>1.113617141246129</v>
@@ -39732,8 +39052,8 @@
       </c>
     </row>
     <row r="88" spans="1:150">
-      <c r="A88" s="2" t="s">
-        <v>86</v>
+      <c r="A88" s="1">
+        <v>33420</v>
       </c>
       <c r="N88">
         <v>-0.5994702356057567</v>
@@ -40148,8 +39468,8 @@
       </c>
     </row>
     <row r="89" spans="1:150">
-      <c r="A89" s="2" t="s">
-        <v>87</v>
+      <c r="A89" s="1">
+        <v>33512</v>
       </c>
       <c r="O89">
         <v>0.8695652173913095</v>
@@ -40561,8 +39881,8 @@
       </c>
     </row>
     <row r="90" spans="1:150">
-      <c r="A90" s="2" t="s">
-        <v>88</v>
+      <c r="A90" s="1">
+        <v>33604</v>
       </c>
       <c r="P90">
         <v>1.348720800889869</v>
@@ -40971,8 +40291,8 @@
       </c>
     </row>
     <row r="91" spans="1:150">
-      <c r="A91" s="2" t="s">
-        <v>89</v>
+      <c r="A91" s="1">
+        <v>33695</v>
       </c>
       <c r="Q91">
         <v>-0.04115790917821152</v>
@@ -41378,8 +40698,8 @@
       </c>
     </row>
     <row r="92" spans="1:150">
-      <c r="A92" s="2" t="s">
-        <v>90</v>
+      <c r="A92" s="1">
+        <v>33786</v>
       </c>
       <c r="R92">
         <v>-0.1509744715893349</v>
@@ -41782,8 +41102,8 @@
       </c>
     </row>
     <row r="93" spans="1:150">
-      <c r="A93" s="2" t="s">
-        <v>91</v>
+      <c r="A93" s="1">
+        <v>33878</v>
       </c>
       <c r="S93">
         <v>-0.1374570446735577</v>
@@ -42183,8 +41503,8 @@
       </c>
     </row>
     <row r="94" spans="1:150">
-      <c r="A94" s="2" t="s">
-        <v>92</v>
+      <c r="A94" s="1">
+        <v>33970</v>
       </c>
       <c r="T94">
         <v>-1.789401238816229</v>
@@ -42581,8 +41901,8 @@
       </c>
     </row>
     <row r="95" spans="1:150">
-      <c r="A95" s="2" t="s">
-        <v>93</v>
+      <c r="A95" s="1">
+        <v>34060</v>
       </c>
       <c r="U95">
         <v>0.6306937631394585</v>
@@ -42976,8 +42296,8 @@
       </c>
     </row>
     <row r="96" spans="1:150">
-      <c r="A96" s="2" t="s">
-        <v>94</v>
+      <c r="A96" s="1">
+        <v>34151</v>
       </c>
       <c r="V96">
         <v>0.7242339832868948</v>
@@ -43368,8 +42688,8 @@
       </c>
     </row>
     <row r="97" spans="1:150">
-      <c r="A97" s="2" t="s">
-        <v>95</v>
+      <c r="A97" s="1">
+        <v>34243</v>
       </c>
       <c r="W97">
         <v>-0.1935840707964626</v>
@@ -43757,8 +43077,8 @@
       </c>
     </row>
     <row r="98" spans="1:150">
-      <c r="A98" s="2" t="s">
-        <v>96</v>
+      <c r="A98" s="1">
+        <v>34335</v>
       </c>
       <c r="X98">
         <v>1.17761152673871</v>
@@ -44143,8 +43463,8 @@
       </c>
     </row>
     <row r="99" spans="1:150">
-      <c r="A99" s="2" t="s">
-        <v>97</v>
+      <c r="A99" s="1">
+        <v>34425</v>
       </c>
       <c r="Y99">
         <v>1.232370258797764</v>
@@ -44526,8 +43846,8 @@
       </c>
     </row>
     <row r="100" spans="1:150">
-      <c r="A100" s="2" t="s">
-        <v>98</v>
+      <c r="A100" s="1">
+        <v>34516</v>
       </c>
       <c r="Z100">
         <v>0.622210198836729</v>
@@ -44906,8 +44226,8 @@
       </c>
     </row>
     <row r="101" spans="1:150">
-      <c r="A101" s="2" t="s">
-        <v>99</v>
+      <c r="A101" s="1">
+        <v>34608</v>
       </c>
       <c r="AA101">
         <v>0.6183626831563487</v>
@@ -45283,8 +44603,8 @@
       </c>
     </row>
     <row r="102" spans="1:150">
-      <c r="A102" s="2" t="s">
-        <v>100</v>
+      <c r="A102" s="1">
+        <v>34700</v>
       </c>
       <c r="AB102">
         <v>0.2137608550434148</v>
@@ -45657,8 +44977,8 @@
       </c>
     </row>
     <row r="103" spans="1:150">
-      <c r="A103" s="2" t="s">
-        <v>101</v>
+      <c r="A103" s="1">
+        <v>34790</v>
       </c>
       <c r="AC103">
         <v>1.066524463404871</v>
@@ -46028,8 +45348,8 @@
       </c>
     </row>
     <row r="104" spans="1:150">
-      <c r="A104" s="2" t="s">
-        <v>102</v>
+      <c r="A104" s="1">
+        <v>34881</v>
       </c>
       <c r="AD104">
         <v>-0.01319087191662068</v>
@@ -46396,8 +45716,8 @@
       </c>
     </row>
     <row r="105" spans="1:150">
-      <c r="A105" s="2" t="s">
-        <v>103</v>
+      <c r="A105" s="1">
+        <v>34973</v>
       </c>
       <c r="AE105">
         <v>-0.4082707757144763</v>
@@ -46761,8 +46081,8 @@
       </c>
     </row>
     <row r="106" spans="1:150">
-      <c r="A106" s="2" t="s">
-        <v>104</v>
+      <c r="A106" s="1">
+        <v>35065</v>
       </c>
       <c r="AF106">
         <v>-0.3698811096433335</v>
@@ -47123,8 +46443,8 @@
       </c>
     </row>
     <row r="107" spans="1:150">
-      <c r="A107" s="2" t="s">
-        <v>105</v>
+      <c r="A107" s="1">
+        <v>35156</v>
       </c>
       <c r="AG107">
         <v>1.484623541887593</v>
@@ -47482,8 +46802,8 @@
       </c>
     </row>
     <row r="108" spans="1:150">
-      <c r="A108" s="2" t="s">
-        <v>106</v>
+      <c r="A108" s="1">
+        <v>35247</v>
       </c>
       <c r="AH108">
         <v>0.8096108644554579</v>
@@ -47838,8 +47158,8 @@
       </c>
     </row>
     <row r="109" spans="1:150">
-      <c r="A109" s="2" t="s">
-        <v>107</v>
+      <c r="A109" s="1">
+        <v>35339</v>
       </c>
       <c r="AI109">
         <v>0.07776049766718085</v>
@@ -48191,8 +47511,8 @@
       </c>
     </row>
     <row r="110" spans="1:150">
-      <c r="A110" s="2" t="s">
-        <v>108</v>
+      <c r="A110" s="1">
+        <v>35431</v>
       </c>
       <c r="AJ110">
         <v>0.4403004403004406</v>
@@ -48541,8 +47861,8 @@
       </c>
     </row>
     <row r="111" spans="1:150">
-      <c r="A111" s="2" t="s">
-        <v>109</v>
+      <c r="A111" s="1">
+        <v>35521</v>
       </c>
       <c r="AK111">
         <v>1.010493587252234</v>
@@ -48888,8 +48208,8 @@
       </c>
     </row>
     <row r="112" spans="1:150">
-      <c r="A112" s="2" t="s">
-        <v>110</v>
+      <c r="A112" s="1">
+        <v>35612</v>
       </c>
       <c r="AL112">
         <v>0.782251859451141</v>
@@ -49232,8 +48552,8 @@
       </c>
     </row>
     <row r="113" spans="1:150">
-      <c r="A113" s="2" t="s">
-        <v>111</v>
+      <c r="A113" s="1">
+        <v>35704</v>
       </c>
       <c r="AM113">
         <v>0.280183392766165</v>
@@ -49573,8 +48893,8 @@
       </c>
     </row>
     <row r="114" spans="1:150">
-      <c r="A114" s="2" t="s">
-        <v>112</v>
+      <c r="A114" s="1">
+        <v>35796</v>
       </c>
       <c r="AN114">
         <v>0.9522600304723229</v>
@@ -49911,8 +49231,8 @@
       </c>
     </row>
     <row r="115" spans="1:150">
-      <c r="A115" s="2" t="s">
-        <v>113</v>
+      <c r="A115" s="1">
+        <v>35886</v>
       </c>
       <c r="AO115">
         <v>0.1008191556395778</v>
@@ -50246,8 +49566,8 @@
       </c>
     </row>
     <row r="116" spans="1:150">
-      <c r="A116" s="2" t="s">
-        <v>114</v>
+      <c r="A116" s="1">
+        <v>35977</v>
       </c>
       <c r="AP116">
         <v>0.8692365835223037</v>
@@ -50578,8 +49898,8 @@
       </c>
     </row>
     <row r="117" spans="1:150">
-      <c r="A117" s="2" t="s">
-        <v>115</v>
+      <c r="A117" s="1">
+        <v>36069</v>
       </c>
       <c r="AQ117">
         <v>-0.3749062734316393</v>
@@ -50907,8 +50227,8 @@
       </c>
     </row>
     <row r="118" spans="1:150">
-      <c r="A118" s="2" t="s">
-        <v>116</v>
+      <c r="A118" s="1">
+        <v>36161</v>
       </c>
       <c r="AR118">
         <v>0.4382529163932056</v>
@@ -51233,8 +50553,8 @@
       </c>
     </row>
     <row r="119" spans="1:150">
-      <c r="A119" s="2" t="s">
-        <v>117</v>
+      <c r="A119" s="1">
+        <v>36251</v>
       </c>
       <c r="AS119">
         <v>0.04238186056368139</v>
@@ -51556,8 +50876,8 @@
       </c>
     </row>
     <row r="120" spans="1:150">
-      <c r="A120" s="2" t="s">
-        <v>118</v>
+      <c r="A120" s="1">
+        <v>36342</v>
       </c>
       <c r="AT120">
         <v>0.7183604479188681</v>
@@ -51876,8 +51196,8 @@
       </c>
     </row>
     <row r="121" spans="1:150">
-      <c r="A121" s="2" t="s">
-        <v>119</v>
+      <c r="A121" s="1">
+        <v>36434</v>
       </c>
       <c r="AU121">
         <v>0.6910994764397971</v>
@@ -52193,8 +51513,8 @@
       </c>
     </row>
     <row r="122" spans="1:150">
-      <c r="A122" s="2" t="s">
-        <v>120</v>
+      <c r="A122" s="1">
+        <v>36526</v>
       </c>
       <c r="AV122">
         <v>0.659619626284904</v>
@@ -52507,8 +51827,8 @@
       </c>
     </row>
     <row r="123" spans="1:150">
-      <c r="A123" s="2" t="s">
-        <v>121</v>
+      <c r="A123" s="1">
+        <v>36617</v>
       </c>
       <c r="AW123">
         <v>1.148285832300693</v>
@@ -52818,8 +52138,8 @@
       </c>
     </row>
     <row r="124" spans="1:150">
-      <c r="A124" s="2" t="s">
-        <v>122</v>
+      <c r="A124" s="1">
+        <v>36708</v>
       </c>
       <c r="AX124">
         <v>0.5648565427516806</v>
@@ -53126,8 +52446,8 @@
       </c>
     </row>
     <row r="125" spans="1:150">
-      <c r="A125" s="2" t="s">
-        <v>123</v>
+      <c r="A125" s="1">
+        <v>36800</v>
       </c>
       <c r="AY125">
         <v>0.207068759008509</v>
@@ -53431,8 +52751,8 @@
       </c>
     </row>
     <row r="126" spans="1:150">
-      <c r="A126" s="2" t="s">
-        <v>124</v>
+      <c r="A126" s="1">
+        <v>36892</v>
       </c>
       <c r="AZ126">
         <v>0.3707380320495879</v>
@@ -53733,8 +53053,8 @@
       </c>
     </row>
     <row r="127" spans="1:150">
-      <c r="A127" s="2" t="s">
-        <v>125</v>
+      <c r="A127" s="1">
+        <v>36982</v>
       </c>
       <c r="BA127">
         <v>-0.03022670025188753</v>
@@ -54032,8 +53352,8 @@
       </c>
     </row>
     <row r="128" spans="1:150">
-      <c r="A128" s="2" t="s">
-        <v>126</v>
+      <c r="A128" s="1">
+        <v>37073</v>
       </c>
       <c r="BB128">
         <v>-0.1411005845595663</v>
@@ -54328,8 +53648,8 @@
       </c>
     </row>
     <row r="129" spans="1:150">
-      <c r="A129" s="2" t="s">
-        <v>127</v>
+      <c r="A129" s="1">
+        <v>37165</v>
       </c>
       <c r="BC129">
         <v>-0.2542372881355935</v>
@@ -54621,8 +53941,8 @@
       </c>
     </row>
     <row r="130" spans="1:150">
-      <c r="A130" s="2" t="s">
-        <v>128</v>
+      <c r="A130" s="1">
+        <v>37257</v>
       </c>
       <c r="BD130">
         <v>0.1699235344095065</v>
@@ -54911,8 +54231,8 @@
       </c>
     </row>
     <row r="131" spans="1:150">
-      <c r="A131" s="2" t="s">
-        <v>129</v>
+      <c r="A131" s="1">
+        <v>37347</v>
       </c>
       <c r="BE131">
         <v>0.2723861022557598</v>
@@ -55198,8 +54518,8 @@
       </c>
     </row>
     <row r="132" spans="1:150">
-      <c r="A132" s="2" t="s">
-        <v>130</v>
+      <c r="A132" s="1">
+        <v>37438</v>
       </c>
       <c r="BF132">
         <v>0.2679452827527801</v>
@@ -55482,8 +54802,8 @@
       </c>
     </row>
     <row r="133" spans="1:150">
-      <c r="A133" s="2" t="s">
-        <v>131</v>
+      <c r="A133" s="1">
+        <v>37530</v>
       </c>
       <c r="BG133">
         <v>-0.03213174013455929</v>
@@ -55763,8 +55083,8 @@
       </c>
     </row>
     <row r="134" spans="1:150">
-      <c r="A134" s="2" t="s">
-        <v>132</v>
+      <c r="A134" s="1">
+        <v>37622</v>
       </c>
       <c r="BH134">
         <v>-0.2270033548283337</v>
@@ -56041,8 +55361,8 @@
       </c>
     </row>
     <row r="135" spans="1:150">
-      <c r="A135" s="2" t="s">
-        <v>133</v>
+      <c r="A135" s="1">
+        <v>37712</v>
       </c>
       <c r="BI135">
         <v>-0.06231782088652726</v>
@@ -56316,8 +55636,8 @@
       </c>
     </row>
     <row r="136" spans="1:150">
-      <c r="A136" s="2" t="s">
-        <v>134</v>
+      <c r="A136" s="1">
+        <v>37803</v>
       </c>
       <c r="BJ136">
         <v>0.2194748711340181</v>
@@ -56588,8 +55908,8 @@
       </c>
     </row>
     <row r="137" spans="1:150">
-      <c r="A137" s="2" t="s">
-        <v>135</v>
+      <c r="A137" s="1">
+        <v>37895</v>
       </c>
       <c r="BK137">
         <v>0.215019190965168</v>
@@ -56857,8 +56177,8 @@
       </c>
     </row>
     <row r="138" spans="1:150">
-      <c r="A138" s="2" t="s">
-        <v>136</v>
+      <c r="A138" s="1">
+        <v>37987</v>
       </c>
       <c r="BL138">
         <v>0.4390009221023837</v>
@@ -57123,8 +56443,8 @@
       </c>
     </row>
     <row r="139" spans="1:150">
-      <c r="A139" s="2" t="s">
-        <v>137</v>
+      <c r="A139" s="1">
+        <v>38078</v>
       </c>
       <c r="BM139">
         <v>0.4754484797634859</v>
@@ -57386,8 +56706,8 @@
       </c>
     </row>
     <row r="140" spans="1:150">
-      <c r="A140" s="2" t="s">
-        <v>138</v>
+      <c r="A140" s="1">
+        <v>38169</v>
       </c>
       <c r="BN140">
         <v>0.09947279419078808</v>
@@ -57646,8 +56966,8 @@
       </c>
     </row>
     <row r="141" spans="1:150">
-      <c r="A141" s="2" t="s">
-        <v>139</v>
+      <c r="A141" s="1">
+        <v>38261</v>
       </c>
       <c r="BO141">
         <v>-0.2327107822662463</v>
@@ -57903,8 +57223,8 @@
       </c>
     </row>
     <row r="142" spans="1:150">
-      <c r="A142" s="2" t="s">
-        <v>140</v>
+      <c r="A142" s="1">
+        <v>38353</v>
       </c>
       <c r="BP142">
         <v>1.04410616705698</v>
@@ -58157,8 +57477,8 @@
       </c>
     </row>
     <row r="143" spans="1:150">
-      <c r="A143" s="2" t="s">
-        <v>141</v>
+      <c r="A143" s="1">
+        <v>38443</v>
       </c>
       <c r="BQ143">
         <v>0.00970120294917066</v>
@@ -58408,8 +57728,8 @@
       </c>
     </row>
     <row r="144" spans="1:150">
-      <c r="A144" s="2" t="s">
-        <v>142</v>
+      <c r="A144" s="1">
+        <v>38534</v>
       </c>
       <c r="BR144">
         <v>0.6204556471158512</v>
@@ -58656,8 +57976,8 @@
       </c>
     </row>
     <row r="145" spans="1:150">
-      <c r="A145" s="2" t="s">
-        <v>143</v>
+      <c r="A145" s="1">
+        <v>38626</v>
       </c>
       <c r="BS145">
         <v>0.009625565501978165</v>
@@ -58901,8 +58221,8 @@
       </c>
     </row>
     <row r="146" spans="1:150">
-      <c r="A146" s="2" t="s">
-        <v>144</v>
+      <c r="A146" s="1">
+        <v>38718</v>
       </c>
       <c r="BT146">
         <v>0.3653494856263777</v>
@@ -59143,8 +58463,8 @@
       </c>
     </row>
     <row r="147" spans="1:150">
-      <c r="A147" s="2" t="s">
-        <v>145</v>
+      <c r="A147" s="1">
+        <v>38808</v>
       </c>
       <c r="BU147">
         <v>0.9010736196319133</v>
@@ -59382,8 +58702,8 @@
       </c>
     </row>
     <row r="148" spans="1:150">
-      <c r="A148" s="2" t="s">
-        <v>146</v>
+      <c r="A148" s="1">
+        <v>38899</v>
       </c>
       <c r="BV148">
         <v>0.6346499952638076</v>
@@ -59618,8 +58938,8 @@
       </c>
     </row>
     <row r="149" spans="1:150">
-      <c r="A149" s="2" t="s">
-        <v>147</v>
+      <c r="A149" s="1">
+        <v>38991</v>
       </c>
       <c r="BW149">
         <v>0.8728296574378289</v>
@@ -59851,8 +59171,8 @@
       </c>
     </row>
     <row r="150" spans="1:150">
-      <c r="A150" s="2" t="s">
-        <v>148</v>
+      <c r="A150" s="1">
+        <v>39083</v>
       </c>
       <c r="BX150">
         <v>0.5106778087279453</v>
@@ -60081,8 +59401,8 @@
       </c>
     </row>
     <row r="151" spans="1:150">
-      <c r="A151" s="2" t="s">
-        <v>149</v>
+      <c r="A151" s="1">
+        <v>39173</v>
       </c>
       <c r="BY151">
         <v>0.2592832669691649</v>
@@ -60308,8 +59628,8 @@
       </c>
     </row>
     <row r="152" spans="1:150">
-      <c r="A152" s="2" t="s">
-        <v>150</v>
+      <c r="A152" s="1">
+        <v>39264</v>
       </c>
       <c r="BZ152">
         <v>0.6834764939503178</v>
@@ -60532,8 +59852,8 @@
       </c>
     </row>
     <row r="153" spans="1:150">
-      <c r="A153" s="2" t="s">
-        <v>151</v>
+      <c r="A153" s="1">
+        <v>39356</v>
       </c>
       <c r="CA153">
         <v>0.2660550458715654</v>
@@ -60753,8 +60073,8 @@
       </c>
     </row>
     <row r="154" spans="1:150">
-      <c r="A154" s="2" t="s">
-        <v>152</v>
+      <c r="A154" s="1">
+        <v>39448</v>
       </c>
       <c r="CB154">
         <v>1.528044651843707</v>
@@ -60971,8 +60291,8 @@
       </c>
     </row>
     <row r="155" spans="1:150">
-      <c r="A155" s="2" t="s">
-        <v>153</v>
+      <c r="A155" s="1">
+        <v>39539</v>
       </c>
       <c r="CC155">
         <v>-0.4957634757526566</v>
@@ -61186,8 +60506,8 @@
       </c>
     </row>
     <row r="156" spans="1:150">
-      <c r="A156" s="2" t="s">
-        <v>154</v>
+      <c r="A156" s="1">
+        <v>39630</v>
       </c>
       <c r="CD156">
         <v>-0.5244122965641937</v>
@@ -61398,8 +60718,8 @@
       </c>
     </row>
     <row r="157" spans="1:150">
-      <c r="A157" s="2" t="s">
-        <v>155</v>
+      <c r="A157" s="1">
+        <v>39722</v>
       </c>
       <c r="CE157">
         <v>-2.107941123023812</v>
@@ -61607,8 +60927,8 @@
       </c>
     </row>
     <row r="158" spans="1:150">
-      <c r="A158" s="2" t="s">
-        <v>156</v>
+      <c r="A158" s="1">
+        <v>39814</v>
       </c>
       <c r="CF158">
         <v>-3.800762010965527</v>
@@ -61813,8 +61133,8 @@
       </c>
     </row>
     <row r="159" spans="1:150">
-      <c r="A159" s="2" t="s">
-        <v>157</v>
+      <c r="A159" s="1">
+        <v>39904</v>
       </c>
       <c r="CG159">
         <v>0.3175214086404294</v>
@@ -62016,8 +61336,8 @@
       </c>
     </row>
     <row r="160" spans="1:150">
-      <c r="A160" s="2" t="s">
-        <v>158</v>
+      <c r="A160" s="1">
+        <v>39995</v>
       </c>
       <c r="CH160">
         <v>0.7280390842034727</v>
@@ -62216,8 +61536,8 @@
       </c>
     </row>
     <row r="161" spans="1:150">
-      <c r="A161" s="2" t="s">
-        <v>159</v>
+      <c r="A161" s="1">
+        <v>40087</v>
       </c>
       <c r="CI161">
         <v>0.009508414947233161</v>
@@ -62413,8 +61733,8 @@
       </c>
     </row>
     <row r="162" spans="1:150">
-      <c r="A162" s="2" t="s">
-        <v>160</v>
+      <c r="A162" s="1">
+        <v>40179</v>
       </c>
       <c r="CJ162">
         <v>0.1613515565679591</v>
@@ -62607,8 +61927,8 @@
       </c>
     </row>
     <row r="163" spans="1:150">
-      <c r="A163" s="2" t="s">
-        <v>161</v>
+      <c r="A163" s="1">
+        <v>40269</v>
       </c>
       <c r="CK163">
         <v>2.182091798344627</v>
@@ -62798,8 +62118,8 @@
       </c>
     </row>
     <row r="164" spans="1:150">
-      <c r="A164" s="2" t="s">
-        <v>162</v>
+      <c r="A164" s="1">
+        <v>40360</v>
       </c>
       <c r="CL164">
         <v>0.6980161645848688</v>
@@ -62986,8 +62306,8 @@
       </c>
     </row>
     <row r="165" spans="1:150">
-      <c r="A165" s="2" t="s">
-        <v>163</v>
+      <c r="A165" s="1">
+        <v>40452</v>
       </c>
       <c r="CM165">
         <v>0.3647970816233392</v>
@@ -63171,8 +62491,8 @@
       </c>
     </row>
     <row r="166" spans="1:150">
-      <c r="A166" s="2" t="s">
-        <v>164</v>
+      <c r="A166" s="1">
+        <v>40544</v>
       </c>
       <c r="CN166">
         <v>1.499182264219509</v>
@@ -63353,8 +62673,8 @@
       </c>
     </row>
     <row r="167" spans="1:150">
-      <c r="A167" s="2" t="s">
-        <v>165</v>
+      <c r="A167" s="1">
+        <v>40634</v>
       </c>
       <c r="CO167">
         <v>0.119222303741742</v>
@@ -63532,8 +62852,8 @@
       </c>
     </row>
     <row r="168" spans="1:150">
-      <c r="A168" s="2" t="s">
-        <v>166</v>
+      <c r="A168" s="1">
+        <v>40725</v>
       </c>
       <c r="CP168">
         <v>0.5030181086519089</v>
@@ -63708,8 +63028,8 @@
       </c>
     </row>
     <row r="169" spans="1:150">
-      <c r="A169" s="2" t="s">
-        <v>167</v>
+      <c r="A169" s="1">
+        <v>40817</v>
       </c>
       <c r="CQ169">
         <v>-0.1818677821223996</v>
@@ -63881,8 +63201,8 @@
       </c>
     </row>
     <row r="170" spans="1:150">
-      <c r="A170" s="2" t="s">
-        <v>168</v>
+      <c r="A170" s="1">
+        <v>40909</v>
       </c>
       <c r="CR170">
         <v>0.5101576022592715</v>
@@ -64051,8 +63371,8 @@
       </c>
     </row>
     <row r="171" spans="1:150">
-      <c r="A171" s="2" t="s">
-        <v>169</v>
+      <c r="A171" s="1">
+        <v>41000</v>
       </c>
       <c r="CS171">
         <v>0.2707092582566427</v>
@@ -64218,8 +63538,8 @@
       </c>
     </row>
     <row r="172" spans="1:150">
-      <c r="A172" s="2" t="s">
-        <v>170</v>
+      <c r="A172" s="1">
+        <v>41091</v>
       </c>
       <c r="CT172">
         <v>0.233981281497472</v>
@@ -64382,8 +63702,8 @@
       </c>
     </row>
     <row r="173" spans="1:150">
-      <c r="A173" s="2" t="s">
-        <v>171</v>
+      <c r="A173" s="1">
+        <v>41183</v>
       </c>
       <c r="CU173">
         <v>-0.5925127928898435</v>
@@ -64543,8 +63863,8 @@
       </c>
     </row>
     <row r="174" spans="1:150">
-      <c r="A174" s="2" t="s">
-        <v>172</v>
+      <c r="A174" s="1">
+        <v>41275</v>
       </c>
       <c r="CV174">
         <v>0.06328541723172172</v>
@@ -64701,8 +64021,8 @@
       </c>
     </row>
     <row r="175" spans="1:150">
-      <c r="A175" s="2" t="s">
-        <v>173</v>
+      <c r="A175" s="1">
+        <v>41365</v>
       </c>
       <c r="CW175">
         <v>0.7214356569573426</v>
@@ -64856,8 +64176,8 @@
       </c>
     </row>
     <row r="176" spans="1:150">
-      <c r="A176" s="2" t="s">
-        <v>174</v>
+      <c r="A176" s="1">
+        <v>41456</v>
       </c>
       <c r="CX176">
         <v>0.3223207091055595</v>
@@ -65008,8 +64328,8 @@
       </c>
     </row>
     <row r="177" spans="1:150">
-      <c r="A177" s="2" t="s">
-        <v>175</v>
+      <c r="A177" s="1">
+        <v>41548</v>
       </c>
       <c r="CY177">
         <v>0.3837572512271369</v>
@@ -65157,8 +64477,8 @@
       </c>
     </row>
     <row r="178" spans="1:150">
-      <c r="A178" s="2" t="s">
-        <v>176</v>
+      <c r="A178" s="1">
+        <v>41640</v>
       </c>
       <c r="CZ178">
         <v>0.8179231863442404</v>
@@ -65303,8 +64623,8 @@
       </c>
     </row>
     <row r="179" spans="1:150">
-      <c r="A179" s="2" t="s">
-        <v>177</v>
+      <c r="A179" s="1">
+        <v>41730</v>
       </c>
       <c r="DA179">
         <v>-0.1608782057348365</v>
@@ -65446,8 +64766,8 @@
       </c>
     </row>
     <row r="180" spans="1:150">
-      <c r="A180" s="2" t="s">
-        <v>178</v>
+      <c r="A180" s="1">
+        <v>41821</v>
       </c>
       <c r="DB180">
         <v>0.06623769871308968</v>
@@ -65586,8 +64906,8 @@
       </c>
     </row>
     <row r="181" spans="1:150">
-      <c r="A181" s="2" t="s">
-        <v>179</v>
+      <c r="A181" s="1">
+        <v>41913</v>
       </c>
       <c r="DC181">
         <v>0.6996974281391782</v>
@@ -65723,8 +65043,8 @@
       </c>
     </row>
     <row r="182" spans="1:150">
-      <c r="A182" s="2" t="s">
-        <v>180</v>
+      <c r="A182" s="1">
+        <v>42005</v>
       </c>
       <c r="DD182">
         <v>0.2723004694835739</v>
@@ -65857,8 +65177,8 @@
       </c>
     </row>
     <row r="183" spans="1:150">
-      <c r="A183" s="2" t="s">
-        <v>181</v>
+      <c r="A183" s="1">
+        <v>42095</v>
       </c>
       <c r="DE183">
         <v>0.4386374241717208</v>
@@ -65988,8 +65308,8 @@
       </c>
     </row>
     <row r="184" spans="1:150">
-      <c r="A184" s="2" t="s">
-        <v>182</v>
+      <c r="A184" s="1">
+        <v>42186</v>
       </c>
       <c r="DF184">
         <v>0.315926407730895</v>
@@ -66116,8 +65436,8 @@
       </c>
     </row>
     <row r="185" spans="1:150">
-      <c r="A185" s="2" t="s">
-        <v>183</v>
+      <c r="A185" s="1">
+        <v>42278</v>
       </c>
       <c r="DG185">
         <v>0.2686926711757547</v>
@@ -66241,8 +65561,8 @@
       </c>
     </row>
     <row r="186" spans="1:150">
-      <c r="A186" s="2" t="s">
-        <v>184</v>
+      <c r="A186" s="1">
+        <v>42370</v>
       </c>
       <c r="DH186">
         <v>0.6653114026982063</v>
@@ -66363,8 +65683,8 @@
       </c>
     </row>
     <row r="187" spans="1:150">
-      <c r="A187" s="2" t="s">
-        <v>185</v>
+      <c r="A187" s="1">
+        <v>42461</v>
       </c>
       <c r="DI187">
         <v>0.4112593675744862</v>
@@ -66482,8 +65802,8 @@
       </c>
     </row>
     <row r="188" spans="1:150">
-      <c r="A188" s="2" t="s">
-        <v>186</v>
+      <c r="A188" s="1">
+        <v>42552</v>
       </c>
       <c r="DJ188">
         <v>0.1911349777009136</v>
@@ -66598,8 +65918,8 @@
       </c>
     </row>
     <row r="189" spans="1:150">
-      <c r="A189" s="2" t="s">
-        <v>187</v>
+      <c r="A189" s="1">
+        <v>42644</v>
       </c>
       <c r="DK189">
         <v>0.4269234262875818</v>
@@ -66711,8 +66031,8 @@
       </c>
     </row>
     <row r="190" spans="1:150">
-      <c r="A190" s="2" t="s">
-        <v>188</v>
+      <c r="A190" s="1">
+        <v>42736</v>
       </c>
       <c r="DL190">
         <v>0.6058961837583665</v>
@@ -66821,8 +66141,8 @@
       </c>
     </row>
     <row r="191" spans="1:150">
-      <c r="A191" s="2" t="s">
-        <v>189</v>
+      <c r="A191" s="1">
+        <v>42826</v>
       </c>
       <c r="DM191">
         <v>0.6164567140176875</v>
@@ -66928,8 +66248,8 @@
       </c>
     </row>
     <row r="192" spans="1:150">
-      <c r="A192" s="2" t="s">
-        <v>190</v>
+      <c r="A192" s="1">
+        <v>42917</v>
       </c>
       <c r="DN192">
         <v>0.8241758241758176</v>
@@ -67032,8 +66352,8 @@
       </c>
     </row>
     <row r="193" spans="1:150">
-      <c r="A193" s="2" t="s">
-        <v>191</v>
+      <c r="A193" s="1">
+        <v>43009</v>
       </c>
       <c r="DO193">
         <v>0.6069669247009128</v>
@@ -67133,8 +66453,8 @@
       </c>
     </row>
     <row r="194" spans="1:150">
-      <c r="A194" s="2" t="s">
-        <v>192</v>
+      <c r="A194" s="1">
+        <v>43101</v>
       </c>
       <c r="DP194">
         <v>0.2972807554428514</v>
@@ -67231,8 +66551,8 @@
       </c>
     </row>
     <row r="195" spans="1:150">
-      <c r="A195" s="2" t="s">
-        <v>193</v>
+      <c r="A195" s="1">
+        <v>43191</v>
       </c>
       <c r="DQ195">
         <v>0.4515848892748554</v>
@@ -67326,8 +66646,8 @@
       </c>
     </row>
     <row r="196" spans="1:150">
-      <c r="A196" s="2" t="s">
-        <v>194</v>
+      <c r="A196" s="1">
+        <v>43282</v>
       </c>
       <c r="DR196">
         <v>-0.1988415319443278</v>
@@ -67418,8 +66738,8 @@
       </c>
     </row>
     <row r="197" spans="1:150">
-      <c r="A197" s="2" t="s">
-        <v>195</v>
+      <c r="A197" s="1">
+        <v>43374</v>
       </c>
       <c r="DS197">
         <v>0.01732351667388135</v>
@@ -67507,8 +66827,8 @@
       </c>
     </row>
     <row r="198" spans="1:150">
-      <c r="A198" s="2" t="s">
-        <v>196</v>
+      <c r="A198" s="1">
+        <v>43466</v>
       </c>
       <c r="DT198">
         <v>0.4243526457088377</v>
@@ -67593,8 +66913,8 @@
       </c>
     </row>
     <row r="199" spans="1:150">
-      <c r="A199" s="2" t="s">
-        <v>197</v>
+      <c r="A199" s="1">
+        <v>43556</v>
       </c>
       <c r="DU199">
         <v>-0.07468957146858211</v>
@@ -67676,8 +66996,8 @@
       </c>
     </row>
     <row r="200" spans="1:150">
-      <c r="A200" s="2" t="s">
-        <v>198</v>
+      <c r="A200" s="1">
+        <v>43647</v>
       </c>
       <c r="DV200">
         <v>0.08415934168693044</v>
@@ -67756,8 +67076,8 @@
       </c>
     </row>
     <row r="201" spans="1:150">
-      <c r="A201" s="2" t="s">
-        <v>199</v>
+      <c r="A201" s="1">
+        <v>43739</v>
       </c>
       <c r="DW201">
         <v>0.02799552071668639</v>
@@ -67833,8 +67153,8 @@
       </c>
     </row>
     <row r="202" spans="1:150">
-      <c r="A202" s="2" t="s">
-        <v>200</v>
+      <c r="A202" s="1">
+        <v>43831</v>
       </c>
       <c r="DX202">
         <v>-2.221807318894706</v>
@@ -67907,8 +67227,8 @@
       </c>
     </row>
     <row r="203" spans="1:150">
-      <c r="A203" s="2" t="s">
-        <v>201</v>
+      <c r="A203" s="1">
+        <v>43922</v>
       </c>
       <c r="DY203">
         <v>-9.690957649751999</v>
@@ -67978,8 +67298,8 @@
       </c>
     </row>
     <row r="204" spans="1:150">
-      <c r="A204" s="2" t="s">
-        <v>202</v>
+      <c r="A204" s="1">
+        <v>44013</v>
       </c>
       <c r="DZ204">
         <v>8.48030415038547</v>
@@ -68046,8 +67366,8 @@
       </c>
     </row>
     <row r="205" spans="1:150">
-      <c r="A205" s="2" t="s">
-        <v>203</v>
+      <c r="A205" s="1">
+        <v>44105</v>
       </c>
       <c r="EA205">
         <v>0.3406326034063205</v>
@@ -68111,8 +67431,8 @@
       </c>
     </row>
     <row r="206" spans="1:150">
-      <c r="A206" s="2" t="s">
-        <v>204</v>
+      <c r="A206" s="1">
+        <v>44197</v>
       </c>
       <c r="EB206">
         <v>-1.806937868393072</v>
@@ -68173,8 +67493,8 @@
       </c>
     </row>
     <row r="207" spans="1:150">
-      <c r="A207" s="2" t="s">
-        <v>205</v>
+      <c r="A207" s="1">
+        <v>44287</v>
       </c>
       <c r="EC207">
         <v>1.633092118130258</v>
@@ -68232,8 +67552,8 @@
       </c>
     </row>
     <row r="208" spans="1:150">
-      <c r="A208" s="2" t="s">
-        <v>206</v>
+      <c r="A208" s="1">
+        <v>44378</v>
       </c>
       <c r="ED208">
         <v>1.694266296544459</v>
@@ -68288,8 +67608,8 @@
       </c>
     </row>
     <row r="209" spans="1:150">
-      <c r="A209" s="2" t="s">
-        <v>207</v>
+      <c r="A209" s="1">
+        <v>44470</v>
       </c>
       <c r="EE209">
         <v>-0.3471896406117954</v>
@@ -68341,8 +67661,8 @@
       </c>
     </row>
     <row r="210" spans="1:150">
-      <c r="A210" s="2" t="s">
-        <v>208</v>
+      <c r="A210" s="1">
+        <v>44562</v>
       </c>
       <c r="EF210">
         <v>0.2354048964218456</v>
@@ -68391,8 +67711,8 @@
       </c>
     </row>
     <row r="211" spans="1:150">
-      <c r="A211" s="2" t="s">
-        <v>209</v>
+      <c r="A211" s="1">
+        <v>44652</v>
       </c>
       <c r="EG211">
         <v>0.1397298556124878</v>
@@ -68438,8 +67758,8 @@
       </c>
     </row>
     <row r="212" spans="1:150">
-      <c r="A212" s="2" t="s">
-        <v>210</v>
+      <c r="A212" s="1">
+        <v>44743</v>
       </c>
       <c r="EH212">
         <v>0.4001488926112106</v>
@@ -68482,8 +67802,8 @@
       </c>
     </row>
     <row r="213" spans="1:150">
-      <c r="A213" s="2" t="s">
-        <v>211</v>
+      <c r="A213" s="1">
+        <v>44835</v>
       </c>
       <c r="EI213">
         <v>-0.4353061035472806</v>
@@ -68523,8 +67843,8 @@
       </c>
     </row>
     <row r="214" spans="1:150">
-      <c r="A214" s="2" t="s">
-        <v>212</v>
+      <c r="A214" s="1">
+        <v>44927</v>
       </c>
       <c r="EJ214">
         <v>-0.3352267436446591</v>
@@ -68561,8 +67881,8 @@
       </c>
     </row>
     <row r="215" spans="1:150">
-      <c r="A215" s="2" t="s">
-        <v>213</v>
+      <c r="A215" s="1">
+        <v>45017</v>
       </c>
       <c r="EK215">
         <v>0.01855976243503714</v>
@@ -68596,8 +67916,8 @@
       </c>
     </row>
     <row r="216" spans="1:150">
-      <c r="A216" s="2" t="s">
-        <v>214</v>
+      <c r="A216" s="1">
+        <v>45108</v>
       </c>
       <c r="EL216">
         <v>-0.1296176279974082</v>
@@ -68628,8 +67948,8 @@
       </c>
     </row>
     <row r="217" spans="1:150">
-      <c r="A217" s="2" t="s">
-        <v>215</v>
+      <c r="A217" s="1">
+        <v>45200</v>
       </c>
       <c r="EM217">
         <v>-0.2870636170015632</v>
@@ -68657,8 +67977,8 @@
       </c>
     </row>
     <row r="218" spans="1:150">
-      <c r="A218" s="2" t="s">
-        <v>216</v>
+      <c r="A218" s="1">
+        <v>45292</v>
       </c>
       <c r="EN218">
         <v>0.2135958395245076</v>
@@ -68683,8 +68003,8 @@
       </c>
     </row>
     <row r="219" spans="1:150">
-      <c r="A219" s="2" t="s">
-        <v>217</v>
+      <c r="A219" s="1">
+        <v>45383</v>
       </c>
       <c r="EO219">
         <v>-0.06676204101096155</v>
@@ -68706,8 +68026,8 @@
       </c>
     </row>
     <row r="220" spans="1:150">
-      <c r="A220" s="2" t="s">
-        <v>218</v>
+      <c r="A220" s="1">
+        <v>45474</v>
       </c>
       <c r="EP220">
         <v>0.1052128168340501</v>
@@ -68726,8 +68046,8 @@
       </c>
     </row>
     <row r="221" spans="1:150">
-      <c r="A221" s="2" t="s">
-        <v>219</v>
+      <c r="A221" s="1">
+        <v>45566</v>
       </c>
       <c r="EQ221">
         <v>-0.2006497229122814</v>
@@ -68743,8 +68063,8 @@
       </c>
     </row>
     <row r="222" spans="1:150">
-      <c r="A222" s="2" t="s">
-        <v>220</v>
+      <c r="A222" s="1">
+        <v>45658</v>
       </c>
       <c r="ER222">
         <v>0.4116802297750048</v>
@@ -68757,8 +68077,8 @@
       </c>
     </row>
     <row r="223" spans="1:150">
-      <c r="A223" s="2" t="s">
-        <v>221</v>
+      <c r="A223" s="1">
+        <v>45748</v>
       </c>
       <c r="ES223">
         <v>-0.2766911554241067</v>
@@ -68768,16 +68088,16 @@
       </c>
     </row>
     <row r="224" spans="1:150">
-      <c r="A224" s="2" t="s">
-        <v>222</v>
+      <c r="A224" s="1">
+        <v>45839</v>
       </c>
       <c r="ET224">
         <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:1">
-      <c r="A225" s="2" t="s">
-        <v>223</v>
+      <c r="A225" s="1">
+        <v>45931</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/2_Processed_Data/1_combined_GDP_series/qoq_combined_GDP_data.xlsx
+++ b/0_0_Data/2_Processed_Data/1_combined_GDP_series/qoq_combined_GDP_data.xlsx
@@ -826,12 +826,12 @@
     </row>
     <row r="2" spans="1:150">
       <c r="A2" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
     </row>
     <row r="3" spans="1:150">
       <c r="A3" s="1">
-        <v>25659</v>
+        <v>25703</v>
       </c>
       <c r="B3">
         <v>3.949077682514932</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="4" spans="1:150">
       <c r="A4" s="1">
-        <v>25750</v>
+        <v>25795</v>
       </c>
       <c r="B4">
         <v>1.874531367158205</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="5" spans="1:150">
       <c r="A5" s="1">
-        <v>25842</v>
+        <v>25887</v>
       </c>
       <c r="B5">
         <v>0.858684985279704</v>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="6" spans="1:150">
       <c r="A6" s="1">
-        <v>25934</v>
+        <v>25979</v>
       </c>
       <c r="B6">
         <v>-1.945998540501099</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="7" spans="1:150">
       <c r="A7" s="1">
-        <v>26024</v>
+        <v>26068</v>
       </c>
       <c r="B7">
         <v>2.133465641280079</v>
@@ -3091,7 +3091,7 @@
     </row>
     <row r="8" spans="1:150">
       <c r="A8" s="1">
-        <v>26115</v>
+        <v>26160</v>
       </c>
       <c r="B8">
         <v>1.700267184843334</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="9" spans="1:150">
       <c r="A9" s="1">
-        <v>26207</v>
+        <v>26252</v>
       </c>
       <c r="B9">
         <v>-0.09553379508001725</v>
@@ -3995,7 +3995,7 @@
     </row>
     <row r="10" spans="1:150">
       <c r="A10" s="1">
-        <v>26299</v>
+        <v>26344</v>
       </c>
       <c r="B10">
         <v>0.09562514941430368</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="11" spans="1:150">
       <c r="A11" s="1">
-        <v>26390</v>
+        <v>26434</v>
       </c>
       <c r="B11">
         <v>1.647957965130165</v>
@@ -4899,7 +4899,7 @@
     </row>
     <row r="12" spans="1:150">
       <c r="A12" s="1">
-        <v>26481</v>
+        <v>26526</v>
       </c>
       <c r="B12">
         <v>2.326127819548863</v>
@@ -5351,7 +5351,7 @@
     </row>
     <row r="13" spans="1:150">
       <c r="A13" s="1">
-        <v>26573</v>
+        <v>26618</v>
       </c>
       <c r="B13">
         <v>1.538461538461551</v>
@@ -5803,7 +5803,7 @@
     </row>
     <row r="14" spans="1:150">
       <c r="A14" s="1">
-        <v>26665</v>
+        <v>26710</v>
       </c>
       <c r="B14">
         <v>1.447308909995468</v>
@@ -6255,7 +6255,7 @@
     </row>
     <row r="15" spans="1:150">
       <c r="A15" s="1">
-        <v>26755</v>
+        <v>26799</v>
       </c>
       <c r="B15">
         <v>0.6910387873383952</v>
@@ -6707,7 +6707,7 @@
     </row>
     <row r="16" spans="1:150">
       <c r="A16" s="1">
-        <v>26846</v>
+        <v>26891</v>
       </c>
       <c r="B16">
         <v>0.3542174009298183</v>
@@ -7159,7 +7159,7 @@
     </row>
     <row r="17" spans="1:150">
       <c r="A17" s="1">
-        <v>26938</v>
+        <v>26983</v>
       </c>
       <c r="B17">
         <v>0.2206044562100178</v>
@@ -7611,7 +7611,7 @@
     </row>
     <row r="18" spans="1:150">
       <c r="A18" s="1">
-        <v>27030</v>
+        <v>27075</v>
       </c>
       <c r="B18">
         <v>0.836451683909317</v>
@@ -8063,7 +8063,7 @@
     </row>
     <row r="19" spans="1:150">
       <c r="A19" s="1">
-        <v>27120</v>
+        <v>27164</v>
       </c>
       <c r="B19">
         <v>-0.08731717965510417</v>
@@ -8515,7 +8515,7 @@
     </row>
     <row r="20" spans="1:150">
       <c r="A20" s="1">
-        <v>27211</v>
+        <v>27256</v>
       </c>
       <c r="B20">
         <v>0.02184837229626569</v>
@@ -8967,7 +8967,7 @@
     </row>
     <row r="21" spans="1:150">
       <c r="A21" s="1">
-        <v>27303</v>
+        <v>27348</v>
       </c>
       <c r="B21">
         <v>-1.245085190039327</v>
@@ -9419,7 +9419,7 @@
     </row>
     <row r="22" spans="1:150">
       <c r="A22" s="1">
-        <v>27395</v>
+        <v>27440</v>
       </c>
       <c r="B22">
         <v>-0.5750940057509247</v>
@@ -9871,7 +9871,7 @@
     </row>
     <row r="23" spans="1:150">
       <c r="A23" s="1">
-        <v>27485</v>
+        <v>27529</v>
       </c>
       <c r="B23">
         <v>-0.5116796440489535</v>
@@ -10323,7 +10323,7 @@
     </row>
     <row r="24" spans="1:150">
       <c r="A24" s="1">
-        <v>27576</v>
+        <v>27621</v>
       </c>
       <c r="B24">
         <v>1.095706618962428</v>
@@ -10775,7 +10775,7 @@
     </row>
     <row r="25" spans="1:150">
       <c r="A25" s="1">
-        <v>27668</v>
+        <v>27713</v>
       </c>
       <c r="B25">
         <v>1.968591019685915</v>
@@ -11227,7 +11227,7 @@
     </row>
     <row r="26" spans="1:150">
       <c r="A26" s="1">
-        <v>27760</v>
+        <v>27805</v>
       </c>
       <c r="B26">
         <v>0.8676789587852438</v>
@@ -11679,7 +11679,7 @@
     </row>
     <row r="27" spans="1:150">
       <c r="A27" s="1">
-        <v>27851</v>
+        <v>27895</v>
       </c>
       <c r="B27">
         <v>1.505376344086038</v>
@@ -12131,7 +12131,7 @@
     </row>
     <row r="28" spans="1:150">
       <c r="A28" s="1">
-        <v>27942</v>
+        <v>27987</v>
       </c>
       <c r="B28">
         <v>0.02118644067795302</v>
@@ -12583,7 +12583,7 @@
     </row>
     <row r="29" spans="1:150">
       <c r="A29" s="1">
-        <v>28034</v>
+        <v>28079</v>
       </c>
       <c r="B29">
         <v>1.864011861893669</v>
@@ -13035,7 +13035,7 @@
     </row>
     <row r="30" spans="1:150">
       <c r="A30" s="1">
-        <v>28126</v>
+        <v>28171</v>
       </c>
       <c r="B30">
         <v>0.873362445414845</v>
@@ -13487,7 +13487,7 @@
     </row>
     <row r="31" spans="1:150">
       <c r="A31" s="1">
-        <v>28216</v>
+        <v>28260</v>
       </c>
       <c r="B31">
         <v>0.5565862708719869</v>
@@ -13939,7 +13939,7 @@
     </row>
     <row r="32" spans="1:150">
       <c r="A32" s="1">
-        <v>28307</v>
+        <v>28352</v>
       </c>
       <c r="B32">
         <v>-0.04100041000410335</v>
@@ -14391,7 +14391,7 @@
     </row>
     <row r="33" spans="1:150">
       <c r="A33" s="1">
-        <v>28399</v>
+        <v>28444</v>
       </c>
       <c r="B33">
         <v>1.722723543888443</v>
@@ -14843,7 +14843,7 @@
     </row>
     <row r="34" spans="1:150">
       <c r="A34" s="1">
-        <v>28491</v>
+        <v>28536</v>
       </c>
       <c r="B34">
         <v>0.4032258064516032</v>
@@ -15295,7 +15295,7 @@
     </row>
     <row r="35" spans="1:150">
       <c r="A35" s="1">
-        <v>28581</v>
+        <v>28625</v>
       </c>
       <c r="B35">
         <v>0.4216867469879438</v>
@@ -15747,7 +15747,7 @@
     </row>
     <row r="36" spans="1:150">
       <c r="A36" s="1">
-        <v>28672</v>
+        <v>28717</v>
       </c>
       <c r="B36">
         <v>1.299740051989609</v>
@@ -16199,7 +16199,7 @@
     </row>
     <row r="37" spans="1:150">
       <c r="A37" s="1">
-        <v>28764</v>
+        <v>28809</v>
       </c>
       <c r="B37">
         <v>1.164626924595339</v>
@@ -16651,7 +16651,7 @@
     </row>
     <row r="38" spans="1:150">
       <c r="A38" s="1">
-        <v>28856</v>
+        <v>28901</v>
       </c>
       <c r="B38">
         <v>0.1365853658536696</v>
@@ -17103,7 +17103,7 @@
     </row>
     <row r="39" spans="1:150">
       <c r="A39" s="1">
-        <v>28946</v>
+        <v>28990</v>
       </c>
       <c r="B39">
         <v>3.098207326578323</v>
@@ -17555,7 +17555,7 @@
     </row>
     <row r="40" spans="1:150">
       <c r="A40" s="1">
-        <v>29037</v>
+        <v>29082</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -18007,7 +18007,7 @@
     </row>
     <row r="41" spans="1:150">
       <c r="A41" s="1">
-        <v>29129</v>
+        <v>29174</v>
       </c>
       <c r="B41">
         <v>0.6237006237006345</v>
@@ -18459,7 +18459,7 @@
     </row>
     <row r="42" spans="1:150">
       <c r="A42" s="1">
-        <v>29221</v>
+        <v>29266</v>
       </c>
       <c r="B42">
         <v>0.7888805409466416</v>
@@ -18911,7 +18911,7 @@
     </row>
     <row r="43" spans="1:150">
       <c r="A43" s="1">
-        <v>29312</v>
+        <v>29356</v>
       </c>
       <c r="B43">
         <v>-0.6522549385016648</v>
@@ -19363,7 +19363,7 @@
     </row>
     <row r="44" spans="1:150">
       <c r="A44" s="1">
-        <v>29403</v>
+        <v>29448</v>
       </c>
       <c r="B44">
         <v>-0.4126805477396301</v>
@@ -19815,7 +19815,7 @@
     </row>
     <row r="45" spans="1:150">
       <c r="A45" s="1">
-        <v>29495</v>
+        <v>29540</v>
       </c>
       <c r="B45">
         <v>-0.1318515728009148</v>
@@ -20267,7 +20267,7 @@
     </row>
     <row r="46" spans="1:150">
       <c r="A46" s="1">
-        <v>29587</v>
+        <v>29632</v>
       </c>
       <c r="B46">
         <v>1.207091663523191</v>
@@ -20719,7 +20719,7 @@
     </row>
     <row r="47" spans="1:150">
       <c r="A47" s="1">
-        <v>29677</v>
+        <v>29721</v>
       </c>
       <c r="B47">
         <v>-0.2609019754006529</v>
@@ -21171,7 +21171,7 @@
     </row>
     <row r="48" spans="1:150">
       <c r="A48" s="1">
-        <v>29768</v>
+        <v>29813</v>
       </c>
       <c r="B48">
         <v>0.2802690582959607</v>
@@ -21623,7 +21623,7 @@
     </row>
     <row r="49" spans="1:150">
       <c r="A49" s="1">
-        <v>29860</v>
+        <v>29905</v>
       </c>
       <c r="B49">
         <v>-0.111794298490786</v>
@@ -22075,7 +22075,7 @@
     </row>
     <row r="50" spans="1:150">
       <c r="A50" s="1">
-        <v>29952</v>
+        <v>29997</v>
       </c>
       <c r="B50">
         <v>0.4103711994030905</v>
@@ -22527,7 +22527,7 @@
     </row>
     <row r="51" spans="1:150">
       <c r="A51" s="1">
-        <v>30042</v>
+        <v>30086</v>
       </c>
       <c r="B51">
         <v>-0.6316180568456113</v>
@@ -22979,7 +22979,7 @@
     </row>
     <row r="52" spans="1:150">
       <c r="A52" s="1">
-        <v>30133</v>
+        <v>30178</v>
       </c>
       <c r="B52">
         <v>-0.9534492428491423</v>
@@ -23431,7 +23431,7 @@
     </row>
     <row r="53" spans="1:150">
       <c r="A53" s="1">
-        <v>30225</v>
+        <v>30270</v>
       </c>
       <c r="B53">
         <v>0.2076255190638144</v>
@@ -23883,7 +23883,7 @@
     </row>
     <row r="54" spans="1:150">
       <c r="A54" s="1">
-        <v>30317</v>
+        <v>30362</v>
       </c>
       <c r="B54">
         <v>0.9229610096063111</v>
@@ -24335,7 +24335,7 @@
     </row>
     <row r="55" spans="1:150">
       <c r="A55" s="1">
-        <v>30407</v>
+        <v>30451</v>
       </c>
       <c r="B55">
         <v>1.06382978723405</v>
@@ -24787,7 +24787,7 @@
     </row>
     <row r="56" spans="1:150">
       <c r="A56" s="1">
-        <v>30498</v>
+        <v>30543</v>
       </c>
       <c r="B56">
         <v>-0.2400738688827267</v>
@@ -25239,7 +25239,7 @@
     </row>
     <row r="57" spans="1:150">
       <c r="A57" s="1">
-        <v>30590</v>
+        <v>30635</v>
       </c>
       <c r="B57">
         <v>1.388374676045905</v>
@@ -25691,7 +25691,7 @@
     </row>
     <row r="58" spans="1:150">
       <c r="A58" s="1">
-        <v>30682</v>
+        <v>30727</v>
       </c>
       <c r="B58">
         <v>1.314588278254523</v>
@@ -26143,7 +26143,7 @@
     </row>
     <row r="59" spans="1:150">
       <c r="A59" s="1">
-        <v>30773</v>
+        <v>30817</v>
       </c>
       <c r="B59">
         <v>-1.567850063074441</v>
@@ -26595,7 +26595,7 @@
     </row>
     <row r="60" spans="1:150">
       <c r="A60" s="1">
-        <v>30864</v>
+        <v>30909</v>
       </c>
       <c r="B60">
         <v>2.727938484071772</v>
@@ -27047,7 +27047,7 @@
     </row>
     <row r="61" spans="1:150">
       <c r="A61" s="1">
-        <v>30956</v>
+        <v>31001</v>
       </c>
       <c r="B61">
         <v>0.8376403493138532</v>
@@ -27499,7 +27499,7 @@
     </row>
     <row r="62" spans="1:150">
       <c r="A62" s="1">
-        <v>31048</v>
+        <v>31093</v>
       </c>
       <c r="B62">
         <v>-0.5302226935312889</v>
@@ -27951,7 +27951,7 @@
     </row>
     <row r="63" spans="1:150">
       <c r="A63" s="1">
-        <v>31138</v>
+        <v>31182</v>
       </c>
       <c r="B63">
         <v>0.9772565742715041</v>
@@ -28403,7 +28403,7 @@
     </row>
     <row r="64" spans="1:150">
       <c r="A64" s="1">
-        <v>31229</v>
+        <v>31274</v>
       </c>
       <c r="B64">
         <v>1.30212915713531</v>
@@ -28855,7 +28855,7 @@
     </row>
     <row r="65" spans="1:150">
       <c r="A65" s="1">
-        <v>31321</v>
+        <v>31366</v>
       </c>
       <c r="B65">
         <v>0.6079555323953575</v>
@@ -29307,7 +29307,7 @@
     </row>
     <row r="66" spans="1:150">
       <c r="A66" s="1">
-        <v>31413</v>
+        <v>31458</v>
       </c>
       <c r="B66">
         <v>-0.5697513812154674</v>
@@ -29759,7 +29759,7 @@
     </row>
     <row r="67" spans="1:150">
       <c r="A67" s="1">
-        <v>31503</v>
+        <v>31547</v>
       </c>
       <c r="B67">
         <v>1.163396422990087</v>
@@ -30211,7 +30211,7 @@
     </row>
     <row r="68" spans="1:150">
       <c r="A68" s="1">
-        <v>31594</v>
+        <v>31639</v>
       </c>
       <c r="B68">
         <v>0.7380707174733948</v>
@@ -30663,7 +30663,7 @@
     </row>
     <row r="69" spans="1:150">
       <c r="A69" s="1">
-        <v>31686</v>
+        <v>31731</v>
       </c>
       <c r="B69">
         <v>0.9882433123189726</v>
@@ -31115,7 +31115,7 @@
     </row>
     <row r="70" spans="1:150">
       <c r="A70" s="1">
-        <v>31778</v>
+        <v>31823</v>
       </c>
       <c r="B70">
         <v>-2.513919352117431</v>
@@ -31567,7 +31567,7 @@
     </row>
     <row r="71" spans="1:150">
       <c r="A71" s="1">
-        <v>31868</v>
+        <v>31912</v>
       </c>
       <c r="B71">
         <v>2.249913464866736</v>
@@ -32019,7 +32019,7 @@
     </row>
     <row r="72" spans="1:150">
       <c r="A72" s="1">
-        <v>31959</v>
+        <v>32004</v>
       </c>
       <c r="B72">
         <v>0.7109004739336476</v>
@@ -32471,7 +32471,7 @@
     </row>
     <row r="73" spans="1:150">
       <c r="A73" s="1">
-        <v>32051</v>
+        <v>32096</v>
       </c>
       <c r="B73">
         <v>1.579831932773108</v>
@@ -32923,7 +32923,7 @@
     </row>
     <row r="74" spans="1:150">
       <c r="A74" s="1">
-        <v>32143</v>
+        <v>32188</v>
       </c>
       <c r="B74">
         <v>-0.8934480476505654</v>
@@ -33375,7 +33375,7 @@
     </row>
     <row r="75" spans="1:150">
       <c r="A75" s="1">
-        <v>32234</v>
+        <v>32278</v>
       </c>
       <c r="B75">
         <v>1.819699499165283</v>
@@ -33827,7 +33827,7 @@
     </row>
     <row r="76" spans="1:150">
       <c r="A76" s="1">
-        <v>32325</v>
+        <v>32370</v>
       </c>
       <c r="B76">
         <v>1.098540744384322</v>
@@ -34279,7 +34279,7 @@
     </row>
     <row r="77" spans="1:150">
       <c r="A77" s="1">
-        <v>32417</v>
+        <v>32462</v>
       </c>
       <c r="C77">
         <v>1.200129743756077</v>
@@ -34728,7 +34728,7 @@
     </row>
     <row r="78" spans="1:150">
       <c r="A78" s="1">
-        <v>32509</v>
+        <v>32554</v>
       </c>
       <c r="D78">
         <v>1.025641025641019</v>
@@ -35174,7 +35174,7 @@
     </row>
     <row r="79" spans="1:150">
       <c r="A79" s="1">
-        <v>32599</v>
+        <v>32643</v>
       </c>
       <c r="E79">
         <v>0.4124365482233615</v>
@@ -35617,7 +35617,7 @@
     </row>
     <row r="80" spans="1:150">
       <c r="A80" s="1">
-        <v>32690</v>
+        <v>32735</v>
       </c>
       <c r="F80">
         <v>0.9004739336492845</v>
@@ -36057,7 +36057,7 @@
     </row>
     <row r="81" spans="1:150">
       <c r="A81" s="1">
-        <v>32782</v>
+        <v>32827</v>
       </c>
       <c r="G81">
         <v>1.174260216063898</v>
@@ -36494,7 +36494,7 @@
     </row>
     <row r="82" spans="1:150">
       <c r="A82" s="1">
-        <v>32874</v>
+        <v>32919</v>
       </c>
       <c r="H82">
         <v>2.073661405137701</v>
@@ -36928,7 +36928,7 @@
     </row>
     <row r="83" spans="1:150">
       <c r="A83" s="1">
-        <v>32964</v>
+        <v>33008</v>
       </c>
       <c r="I83">
         <v>0.4851425106125105</v>
@@ -37359,7 +37359,7 @@
     </row>
     <row r="84" spans="1:150">
       <c r="A84" s="1">
-        <v>33055</v>
+        <v>33100</v>
       </c>
       <c r="J84">
         <v>2.11225105612553</v>
@@ -37787,7 +37787,7 @@
     </row>
     <row r="85" spans="1:150">
       <c r="A85" s="1">
-        <v>33147</v>
+        <v>33192</v>
       </c>
       <c r="K85">
         <v>1.773049645390049</v>
@@ -38212,7 +38212,7 @@
     </row>
     <row r="86" spans="1:150">
       <c r="A86" s="1">
-        <v>33239</v>
+        <v>33284</v>
       </c>
       <c r="L86">
         <v>2.758420441347291</v>
@@ -38634,7 +38634,7 @@
     </row>
     <row r="87" spans="1:150">
       <c r="A87" s="1">
-        <v>33329</v>
+        <v>33373</v>
       </c>
       <c r="M87">
         <v>1.113617141246129</v>
@@ -39053,7 +39053,7 @@
     </row>
     <row r="88" spans="1:150">
       <c r="A88" s="1">
-        <v>33420</v>
+        <v>33465</v>
       </c>
       <c r="N88">
         <v>-0.5994702356057567</v>
@@ -39469,7 +39469,7 @@
     </row>
     <row r="89" spans="1:150">
       <c r="A89" s="1">
-        <v>33512</v>
+        <v>33557</v>
       </c>
       <c r="O89">
         <v>0.8695652173913095</v>
@@ -39882,7 +39882,7 @@
     </row>
     <row r="90" spans="1:150">
       <c r="A90" s="1">
-        <v>33604</v>
+        <v>33649</v>
       </c>
       <c r="P90">
         <v>1.348720800889869</v>
@@ -40292,7 +40292,7 @@
     </row>
     <row r="91" spans="1:150">
       <c r="A91" s="1">
-        <v>33695</v>
+        <v>33739</v>
       </c>
       <c r="Q91">
         <v>-0.04115790917821152</v>
@@ -40699,7 +40699,7 @@
     </row>
     <row r="92" spans="1:150">
       <c r="A92" s="1">
-        <v>33786</v>
+        <v>33831</v>
       </c>
       <c r="R92">
         <v>-0.1509744715893349</v>
@@ -41103,7 +41103,7 @@
     </row>
     <row r="93" spans="1:150">
       <c r="A93" s="1">
-        <v>33878</v>
+        <v>33923</v>
       </c>
       <c r="S93">
         <v>-0.1374570446735577</v>
@@ -41504,7 +41504,7 @@
     </row>
     <row r="94" spans="1:150">
       <c r="A94" s="1">
-        <v>33970</v>
+        <v>34015</v>
       </c>
       <c r="T94">
         <v>-1.789401238816229</v>
@@ -41902,7 +41902,7 @@
     </row>
     <row r="95" spans="1:150">
       <c r="A95" s="1">
-        <v>34060</v>
+        <v>34104</v>
       </c>
       <c r="U95">
         <v>0.6306937631394585</v>
@@ -42297,7 +42297,7 @@
     </row>
     <row r="96" spans="1:150">
       <c r="A96" s="1">
-        <v>34151</v>
+        <v>34196</v>
       </c>
       <c r="V96">
         <v>0.7242339832868948</v>
@@ -42689,7 +42689,7 @@
     </row>
     <row r="97" spans="1:150">
       <c r="A97" s="1">
-        <v>34243</v>
+        <v>34288</v>
       </c>
       <c r="W97">
         <v>-0.1935840707964626</v>
@@ -43078,7 +43078,7 @@
     </row>
     <row r="98" spans="1:150">
       <c r="A98" s="1">
-        <v>34335</v>
+        <v>34380</v>
       </c>
       <c r="X98">
         <v>1.17761152673871</v>
@@ -43464,7 +43464,7 @@
     </row>
     <row r="99" spans="1:150">
       <c r="A99" s="1">
-        <v>34425</v>
+        <v>34469</v>
       </c>
       <c r="Y99">
         <v>1.232370258797764</v>
@@ -43847,7 +43847,7 @@
     </row>
     <row r="100" spans="1:150">
       <c r="A100" s="1">
-        <v>34516</v>
+        <v>34561</v>
       </c>
       <c r="Z100">
         <v>0.622210198836729</v>
@@ -44227,7 +44227,7 @@
     </row>
     <row r="101" spans="1:150">
       <c r="A101" s="1">
-        <v>34608</v>
+        <v>34653</v>
       </c>
       <c r="AA101">
         <v>0.6183626831563487</v>
@@ -44604,7 +44604,7 @@
     </row>
     <row r="102" spans="1:150">
       <c r="A102" s="1">
-        <v>34700</v>
+        <v>34745</v>
       </c>
       <c r="AB102">
         <v>0.2137608550434148</v>
@@ -44978,7 +44978,7 @@
     </row>
     <row r="103" spans="1:150">
       <c r="A103" s="1">
-        <v>34790</v>
+        <v>34834</v>
       </c>
       <c r="AC103">
         <v>1.066524463404871</v>
@@ -45349,7 +45349,7 @@
     </row>
     <row r="104" spans="1:150">
       <c r="A104" s="1">
-        <v>34881</v>
+        <v>34926</v>
       </c>
       <c r="AD104">
         <v>-0.01319087191662068</v>
@@ -45717,7 +45717,7 @@
     </row>
     <row r="105" spans="1:150">
       <c r="A105" s="1">
-        <v>34973</v>
+        <v>35018</v>
       </c>
       <c r="AE105">
         <v>-0.4082707757144763</v>
@@ -46082,7 +46082,7 @@
     </row>
     <row r="106" spans="1:150">
       <c r="A106" s="1">
-        <v>35065</v>
+        <v>35110</v>
       </c>
       <c r="AF106">
         <v>-0.3698811096433335</v>
@@ -46444,7 +46444,7 @@
     </row>
     <row r="107" spans="1:150">
       <c r="A107" s="1">
-        <v>35156</v>
+        <v>35200</v>
       </c>
       <c r="AG107">
         <v>1.484623541887593</v>
@@ -46803,7 +46803,7 @@
     </row>
     <row r="108" spans="1:150">
       <c r="A108" s="1">
-        <v>35247</v>
+        <v>35292</v>
       </c>
       <c r="AH108">
         <v>0.8096108644554579</v>
@@ -47159,7 +47159,7 @@
     </row>
     <row r="109" spans="1:150">
       <c r="A109" s="1">
-        <v>35339</v>
+        <v>35384</v>
       </c>
       <c r="AI109">
         <v>0.07776049766718085</v>
@@ -47512,7 +47512,7 @@
     </row>
     <row r="110" spans="1:150">
       <c r="A110" s="1">
-        <v>35431</v>
+        <v>35476</v>
       </c>
       <c r="AJ110">
         <v>0.4403004403004406</v>
@@ -47862,7 +47862,7 @@
     </row>
     <row r="111" spans="1:150">
       <c r="A111" s="1">
-        <v>35521</v>
+        <v>35565</v>
       </c>
       <c r="AK111">
         <v>1.010493587252234</v>
@@ -48209,7 +48209,7 @@
     </row>
     <row r="112" spans="1:150">
       <c r="A112" s="1">
-        <v>35612</v>
+        <v>35657</v>
       </c>
       <c r="AL112">
         <v>0.782251859451141</v>
@@ -48553,7 +48553,7 @@
     </row>
     <row r="113" spans="1:150">
       <c r="A113" s="1">
-        <v>35704</v>
+        <v>35749</v>
       </c>
       <c r="AM113">
         <v>0.280183392766165</v>
@@ -48894,7 +48894,7 @@
     </row>
     <row r="114" spans="1:150">
       <c r="A114" s="1">
-        <v>35796</v>
+        <v>35841</v>
       </c>
       <c r="AN114">
         <v>0.9522600304723229</v>
@@ -49232,7 +49232,7 @@
     </row>
     <row r="115" spans="1:150">
       <c r="A115" s="1">
-        <v>35886</v>
+        <v>35930</v>
       </c>
       <c r="AO115">
         <v>0.1008191556395778</v>
@@ -49567,7 +49567,7 @@
     </row>
     <row r="116" spans="1:150">
       <c r="A116" s="1">
-        <v>35977</v>
+        <v>36022</v>
       </c>
       <c r="AP116">
         <v>0.8692365835223037</v>
@@ -49899,7 +49899,7 @@
     </row>
     <row r="117" spans="1:150">
       <c r="A117" s="1">
-        <v>36069</v>
+        <v>36114</v>
       </c>
       <c r="AQ117">
         <v>-0.3749062734316393</v>
@@ -50228,7 +50228,7 @@
     </row>
     <row r="118" spans="1:150">
       <c r="A118" s="1">
-        <v>36161</v>
+        <v>36206</v>
       </c>
       <c r="AR118">
         <v>0.4382529163932056</v>
@@ -50554,7 +50554,7 @@
     </row>
     <row r="119" spans="1:150">
       <c r="A119" s="1">
-        <v>36251</v>
+        <v>36295</v>
       </c>
       <c r="AS119">
         <v>0.04238186056368139</v>
@@ -50877,7 +50877,7 @@
     </row>
     <row r="120" spans="1:150">
       <c r="A120" s="1">
-        <v>36342</v>
+        <v>36387</v>
       </c>
       <c r="AT120">
         <v>0.7183604479188681</v>
@@ -51197,7 +51197,7 @@
     </row>
     <row r="121" spans="1:150">
       <c r="A121" s="1">
-        <v>36434</v>
+        <v>36479</v>
       </c>
       <c r="AU121">
         <v>0.6910994764397971</v>
@@ -51514,7 +51514,7 @@
     </row>
     <row r="122" spans="1:150">
       <c r="A122" s="1">
-        <v>36526</v>
+        <v>36571</v>
       </c>
       <c r="AV122">
         <v>0.659619626284904</v>
@@ -51828,7 +51828,7 @@
     </row>
     <row r="123" spans="1:150">
       <c r="A123" s="1">
-        <v>36617</v>
+        <v>36661</v>
       </c>
       <c r="AW123">
         <v>1.148285832300693</v>
@@ -52139,7 +52139,7 @@
     </row>
     <row r="124" spans="1:150">
       <c r="A124" s="1">
-        <v>36708</v>
+        <v>36753</v>
       </c>
       <c r="AX124">
         <v>0.5648565427516806</v>
@@ -52447,7 +52447,7 @@
     </row>
     <row r="125" spans="1:150">
       <c r="A125" s="1">
-        <v>36800</v>
+        <v>36845</v>
       </c>
       <c r="AY125">
         <v>0.207068759008509</v>
@@ -52752,7 +52752,7 @@
     </row>
     <row r="126" spans="1:150">
       <c r="A126" s="1">
-        <v>36892</v>
+        <v>36937</v>
       </c>
       <c r="AZ126">
         <v>0.3707380320495879</v>
@@ -53054,7 +53054,7 @@
     </row>
     <row r="127" spans="1:150">
       <c r="A127" s="1">
-        <v>36982</v>
+        <v>37026</v>
       </c>
       <c r="BA127">
         <v>-0.03022670025188753</v>
@@ -53353,7 +53353,7 @@
     </row>
     <row r="128" spans="1:150">
       <c r="A128" s="1">
-        <v>37073</v>
+        <v>37118</v>
       </c>
       <c r="BB128">
         <v>-0.1411005845595663</v>
@@ -53649,7 +53649,7 @@
     </row>
     <row r="129" spans="1:150">
       <c r="A129" s="1">
-        <v>37165</v>
+        <v>37210</v>
       </c>
       <c r="BC129">
         <v>-0.2542372881355935</v>
@@ -53942,7 +53942,7 @@
     </row>
     <row r="130" spans="1:150">
       <c r="A130" s="1">
-        <v>37257</v>
+        <v>37302</v>
       </c>
       <c r="BD130">
         <v>0.1699235344095065</v>
@@ -54232,7 +54232,7 @@
     </row>
     <row r="131" spans="1:150">
       <c r="A131" s="1">
-        <v>37347</v>
+        <v>37391</v>
       </c>
       <c r="BE131">
         <v>0.2723861022557598</v>
@@ -54519,7 +54519,7 @@
     </row>
     <row r="132" spans="1:150">
       <c r="A132" s="1">
-        <v>37438</v>
+        <v>37483</v>
       </c>
       <c r="BF132">
         <v>0.2679452827527801</v>
@@ -54803,7 +54803,7 @@
     </row>
     <row r="133" spans="1:150">
       <c r="A133" s="1">
-        <v>37530</v>
+        <v>37575</v>
       </c>
       <c r="BG133">
         <v>-0.03213174013455929</v>
@@ -55084,7 +55084,7 @@
     </row>
     <row r="134" spans="1:150">
       <c r="A134" s="1">
-        <v>37622</v>
+        <v>37667</v>
       </c>
       <c r="BH134">
         <v>-0.2270033548283337</v>
@@ -55362,7 +55362,7 @@
     </row>
     <row r="135" spans="1:150">
       <c r="A135" s="1">
-        <v>37712</v>
+        <v>37756</v>
       </c>
       <c r="BI135">
         <v>-0.06231782088652726</v>
@@ -55637,7 +55637,7 @@
     </row>
     <row r="136" spans="1:150">
       <c r="A136" s="1">
-        <v>37803</v>
+        <v>37848</v>
       </c>
       <c r="BJ136">
         <v>0.2194748711340181</v>
@@ -55909,7 +55909,7 @@
     </row>
     <row r="137" spans="1:150">
       <c r="A137" s="1">
-        <v>37895</v>
+        <v>37940</v>
       </c>
       <c r="BK137">
         <v>0.215019190965168</v>
@@ -56178,7 +56178,7 @@
     </row>
     <row r="138" spans="1:150">
       <c r="A138" s="1">
-        <v>37987</v>
+        <v>38032</v>
       </c>
       <c r="BL138">
         <v>0.4390009221023837</v>
@@ -56444,7 +56444,7 @@
     </row>
     <row r="139" spans="1:150">
       <c r="A139" s="1">
-        <v>38078</v>
+        <v>38122</v>
       </c>
       <c r="BM139">
         <v>0.4754484797634859</v>
@@ -56707,7 +56707,7 @@
     </row>
     <row r="140" spans="1:150">
       <c r="A140" s="1">
-        <v>38169</v>
+        <v>38214</v>
       </c>
       <c r="BN140">
         <v>0.09947279419078808</v>
@@ -56967,7 +56967,7 @@
     </row>
     <row r="141" spans="1:150">
       <c r="A141" s="1">
-        <v>38261</v>
+        <v>38306</v>
       </c>
       <c r="BO141">
         <v>-0.2327107822662463</v>
@@ -57224,7 +57224,7 @@
     </row>
     <row r="142" spans="1:150">
       <c r="A142" s="1">
-        <v>38353</v>
+        <v>38398</v>
       </c>
       <c r="BP142">
         <v>1.04410616705698</v>
@@ -57478,7 +57478,7 @@
     </row>
     <row r="143" spans="1:150">
       <c r="A143" s="1">
-        <v>38443</v>
+        <v>38487</v>
       </c>
       <c r="BQ143">
         <v>0.00970120294917066</v>
@@ -57729,7 +57729,7 @@
     </row>
     <row r="144" spans="1:150">
       <c r="A144" s="1">
-        <v>38534</v>
+        <v>38579</v>
       </c>
       <c r="BR144">
         <v>0.6204556471158512</v>
@@ -57977,7 +57977,7 @@
     </row>
     <row r="145" spans="1:150">
       <c r="A145" s="1">
-        <v>38626</v>
+        <v>38671</v>
       </c>
       <c r="BS145">
         <v>0.009625565501978165</v>
@@ -58222,7 +58222,7 @@
     </row>
     <row r="146" spans="1:150">
       <c r="A146" s="1">
-        <v>38718</v>
+        <v>38763</v>
       </c>
       <c r="BT146">
         <v>0.3653494856263777</v>
@@ -58464,7 +58464,7 @@
     </row>
     <row r="147" spans="1:150">
       <c r="A147" s="1">
-        <v>38808</v>
+        <v>38852</v>
       </c>
       <c r="BU147">
         <v>0.9010736196319133</v>
@@ -58703,7 +58703,7 @@
     </row>
     <row r="148" spans="1:150">
       <c r="A148" s="1">
-        <v>38899</v>
+        <v>38944</v>
       </c>
       <c r="BV148">
         <v>0.6346499952638076</v>
@@ -58939,7 +58939,7 @@
     </row>
     <row r="149" spans="1:150">
       <c r="A149" s="1">
-        <v>38991</v>
+        <v>39036</v>
       </c>
       <c r="BW149">
         <v>0.8728296574378289</v>
@@ -59172,7 +59172,7 @@
     </row>
     <row r="150" spans="1:150">
       <c r="A150" s="1">
-        <v>39083</v>
+        <v>39128</v>
       </c>
       <c r="BX150">
         <v>0.5106778087279453</v>
@@ -59402,7 +59402,7 @@
     </row>
     <row r="151" spans="1:150">
       <c r="A151" s="1">
-        <v>39173</v>
+        <v>39217</v>
       </c>
       <c r="BY151">
         <v>0.2592832669691649</v>
@@ -59629,7 +59629,7 @@
     </row>
     <row r="152" spans="1:150">
       <c r="A152" s="1">
-        <v>39264</v>
+        <v>39309</v>
       </c>
       <c r="BZ152">
         <v>0.6834764939503178</v>
@@ -59853,7 +59853,7 @@
     </row>
     <row r="153" spans="1:150">
       <c r="A153" s="1">
-        <v>39356</v>
+        <v>39401</v>
       </c>
       <c r="CA153">
         <v>0.2660550458715654</v>
@@ -60074,7 +60074,7 @@
     </row>
     <row r="154" spans="1:150">
       <c r="A154" s="1">
-        <v>39448</v>
+        <v>39493</v>
       </c>
       <c r="CB154">
         <v>1.528044651843707</v>
@@ -60292,7 +60292,7 @@
     </row>
     <row r="155" spans="1:150">
       <c r="A155" s="1">
-        <v>39539</v>
+        <v>39583</v>
       </c>
       <c r="CC155">
         <v>-0.4957634757526566</v>
@@ -60507,7 +60507,7 @@
     </row>
     <row r="156" spans="1:150">
       <c r="A156" s="1">
-        <v>39630</v>
+        <v>39675</v>
       </c>
       <c r="CD156">
         <v>-0.5244122965641937</v>
@@ -60719,7 +60719,7 @@
     </row>
     <row r="157" spans="1:150">
       <c r="A157" s="1">
-        <v>39722</v>
+        <v>39767</v>
       </c>
       <c r="CE157">
         <v>-2.107941123023812</v>
@@ -60928,7 +60928,7 @@
     </row>
     <row r="158" spans="1:150">
       <c r="A158" s="1">
-        <v>39814</v>
+        <v>39859</v>
       </c>
       <c r="CF158">
         <v>-3.800762010965527</v>
@@ -61134,7 +61134,7 @@
     </row>
     <row r="159" spans="1:150">
       <c r="A159" s="1">
-        <v>39904</v>
+        <v>39948</v>
       </c>
       <c r="CG159">
         <v>0.3175214086404294</v>
@@ -61337,7 +61337,7 @@
     </row>
     <row r="160" spans="1:150">
       <c r="A160" s="1">
-        <v>39995</v>
+        <v>40040</v>
       </c>
       <c r="CH160">
         <v>0.7280390842034727</v>
@@ -61537,7 +61537,7 @@
     </row>
     <row r="161" spans="1:150">
       <c r="A161" s="1">
-        <v>40087</v>
+        <v>40132</v>
       </c>
       <c r="CI161">
         <v>0.009508414947233161</v>
@@ -61734,7 +61734,7 @@
     </row>
     <row r="162" spans="1:150">
       <c r="A162" s="1">
-        <v>40179</v>
+        <v>40224</v>
       </c>
       <c r="CJ162">
         <v>0.1613515565679591</v>
@@ -61928,7 +61928,7 @@
     </row>
     <row r="163" spans="1:150">
       <c r="A163" s="1">
-        <v>40269</v>
+        <v>40313</v>
       </c>
       <c r="CK163">
         <v>2.182091798344627</v>
@@ -62119,7 +62119,7 @@
     </row>
     <row r="164" spans="1:150">
       <c r="A164" s="1">
-        <v>40360</v>
+        <v>40405</v>
       </c>
       <c r="CL164">
         <v>0.6980161645848688</v>
@@ -62307,7 +62307,7 @@
     </row>
     <row r="165" spans="1:150">
       <c r="A165" s="1">
-        <v>40452</v>
+        <v>40497</v>
       </c>
       <c r="CM165">
         <v>0.3647970816233392</v>
@@ -62492,7 +62492,7 @@
     </row>
     <row r="166" spans="1:150">
       <c r="A166" s="1">
-        <v>40544</v>
+        <v>40589</v>
       </c>
       <c r="CN166">
         <v>1.499182264219509</v>
@@ -62674,7 +62674,7 @@
     </row>
     <row r="167" spans="1:150">
       <c r="A167" s="1">
-        <v>40634</v>
+        <v>40678</v>
       </c>
       <c r="CO167">
         <v>0.119222303741742</v>
@@ -62853,7 +62853,7 @@
     </row>
     <row r="168" spans="1:150">
       <c r="A168" s="1">
-        <v>40725</v>
+        <v>40770</v>
       </c>
       <c r="CP168">
         <v>0.5030181086519089</v>
@@ -63029,7 +63029,7 @@
     </row>
     <row r="169" spans="1:150">
       <c r="A169" s="1">
-        <v>40817</v>
+        <v>40862</v>
       </c>
       <c r="CQ169">
         <v>-0.1818677821223996</v>
@@ -63202,7 +63202,7 @@
     </row>
     <row r="170" spans="1:150">
       <c r="A170" s="1">
-        <v>40909</v>
+        <v>40954</v>
       </c>
       <c r="CR170">
         <v>0.5101576022592715</v>
@@ -63372,7 +63372,7 @@
     </row>
     <row r="171" spans="1:150">
       <c r="A171" s="1">
-        <v>41000</v>
+        <v>41044</v>
       </c>
       <c r="CS171">
         <v>0.2707092582566427</v>
@@ -63539,7 +63539,7 @@
     </row>
     <row r="172" spans="1:150">
       <c r="A172" s="1">
-        <v>41091</v>
+        <v>41136</v>
       </c>
       <c r="CT172">
         <v>0.233981281497472</v>
@@ -63703,7 +63703,7 @@
     </row>
     <row r="173" spans="1:150">
       <c r="A173" s="1">
-        <v>41183</v>
+        <v>41228</v>
       </c>
       <c r="CU173">
         <v>-0.5925127928898435</v>
@@ -63864,7 +63864,7 @@
     </row>
     <row r="174" spans="1:150">
       <c r="A174" s="1">
-        <v>41275</v>
+        <v>41320</v>
       </c>
       <c r="CV174">
         <v>0.06328541723172172</v>
@@ -64022,7 +64022,7 @@
     </row>
     <row r="175" spans="1:150">
       <c r="A175" s="1">
-        <v>41365</v>
+        <v>41409</v>
       </c>
       <c r="CW175">
         <v>0.7214356569573426</v>
@@ -64177,7 +64177,7 @@
     </row>
     <row r="176" spans="1:150">
       <c r="A176" s="1">
-        <v>41456</v>
+        <v>41501</v>
       </c>
       <c r="CX176">
         <v>0.3223207091055595</v>
@@ -64329,7 +64329,7 @@
     </row>
     <row r="177" spans="1:150">
       <c r="A177" s="1">
-        <v>41548</v>
+        <v>41593</v>
       </c>
       <c r="CY177">
         <v>0.3837572512271369</v>
@@ -64478,7 +64478,7 @@
     </row>
     <row r="178" spans="1:150">
       <c r="A178" s="1">
-        <v>41640</v>
+        <v>41685</v>
       </c>
       <c r="CZ178">
         <v>0.8179231863442404</v>
@@ -64624,7 +64624,7 @@
     </row>
     <row r="179" spans="1:150">
       <c r="A179" s="1">
-        <v>41730</v>
+        <v>41774</v>
       </c>
       <c r="DA179">
         <v>-0.1608782057348365</v>
@@ -64767,7 +64767,7 @@
     </row>
     <row r="180" spans="1:150">
       <c r="A180" s="1">
-        <v>41821</v>
+        <v>41866</v>
       </c>
       <c r="DB180">
         <v>0.06623769871308968</v>
@@ -64907,7 +64907,7 @@
     </row>
     <row r="181" spans="1:150">
       <c r="A181" s="1">
-        <v>41913</v>
+        <v>41958</v>
       </c>
       <c r="DC181">
         <v>0.6996974281391782</v>
@@ -65044,7 +65044,7 @@
     </row>
     <row r="182" spans="1:150">
       <c r="A182" s="1">
-        <v>42005</v>
+        <v>42050</v>
       </c>
       <c r="DD182">
         <v>0.2723004694835739</v>
@@ -65178,7 +65178,7 @@
     </row>
     <row r="183" spans="1:150">
       <c r="A183" s="1">
-        <v>42095</v>
+        <v>42139</v>
       </c>
       <c r="DE183">
         <v>0.4386374241717208</v>
@@ -65309,7 +65309,7 @@
     </row>
     <row r="184" spans="1:150">
       <c r="A184" s="1">
-        <v>42186</v>
+        <v>42231</v>
       </c>
       <c r="DF184">
         <v>0.315926407730895</v>
@@ -65437,7 +65437,7 @@
     </row>
     <row r="185" spans="1:150">
       <c r="A185" s="1">
-        <v>42278</v>
+        <v>42323</v>
       </c>
       <c r="DG185">
         <v>0.2686926711757547</v>
@@ -65562,7 +65562,7 @@
     </row>
     <row r="186" spans="1:150">
       <c r="A186" s="1">
-        <v>42370</v>
+        <v>42415</v>
       </c>
       <c r="DH186">
         <v>0.6653114026982063</v>
@@ -65684,7 +65684,7 @@
     </row>
     <row r="187" spans="1:150">
       <c r="A187" s="1">
-        <v>42461</v>
+        <v>42505</v>
       </c>
       <c r="DI187">
         <v>0.4112593675744862</v>
@@ -65803,7 +65803,7 @@
     </row>
     <row r="188" spans="1:150">
       <c r="A188" s="1">
-        <v>42552</v>
+        <v>42597</v>
       </c>
       <c r="DJ188">
         <v>0.1911349777009136</v>
@@ -65919,7 +65919,7 @@
     </row>
     <row r="189" spans="1:150">
       <c r="A189" s="1">
-        <v>42644</v>
+        <v>42689</v>
       </c>
       <c r="DK189">
         <v>0.4269234262875818</v>
@@ -66032,7 +66032,7 @@
     </row>
     <row r="190" spans="1:150">
       <c r="A190" s="1">
-        <v>42736</v>
+        <v>42781</v>
       </c>
       <c r="DL190">
         <v>0.6058961837583665</v>
@@ -66142,7 +66142,7 @@
     </row>
     <row r="191" spans="1:150">
       <c r="A191" s="1">
-        <v>42826</v>
+        <v>42870</v>
       </c>
       <c r="DM191">
         <v>0.6164567140176875</v>
@@ -66249,7 +66249,7 @@
     </row>
     <row r="192" spans="1:150">
       <c r="A192" s="1">
-        <v>42917</v>
+        <v>42962</v>
       </c>
       <c r="DN192">
         <v>0.8241758241758176</v>
@@ -66353,7 +66353,7 @@
     </row>
     <row r="193" spans="1:150">
       <c r="A193" s="1">
-        <v>43009</v>
+        <v>43054</v>
       </c>
       <c r="DO193">
         <v>0.6069669247009128</v>
@@ -66454,7 +66454,7 @@
     </row>
     <row r="194" spans="1:150">
       <c r="A194" s="1">
-        <v>43101</v>
+        <v>43146</v>
       </c>
       <c r="DP194">
         <v>0.2972807554428514</v>
@@ -66552,7 +66552,7 @@
     </row>
     <row r="195" spans="1:150">
       <c r="A195" s="1">
-        <v>43191</v>
+        <v>43235</v>
       </c>
       <c r="DQ195">
         <v>0.4515848892748554</v>
@@ -66647,7 +66647,7 @@
     </row>
     <row r="196" spans="1:150">
       <c r="A196" s="1">
-        <v>43282</v>
+        <v>43327</v>
       </c>
       <c r="DR196">
         <v>-0.1988415319443278</v>
@@ -66739,7 +66739,7 @@
     </row>
     <row r="197" spans="1:150">
       <c r="A197" s="1">
-        <v>43374</v>
+        <v>43419</v>
       </c>
       <c r="DS197">
         <v>0.01732351667388135</v>
@@ -66828,7 +66828,7 @@
     </row>
     <row r="198" spans="1:150">
       <c r="A198" s="1">
-        <v>43466</v>
+        <v>43511</v>
       </c>
       <c r="DT198">
         <v>0.4243526457088377</v>
@@ -66914,7 +66914,7 @@
     </row>
     <row r="199" spans="1:150">
       <c r="A199" s="1">
-        <v>43556</v>
+        <v>43600</v>
       </c>
       <c r="DU199">
         <v>-0.07468957146858211</v>
@@ -66997,7 +66997,7 @@
     </row>
     <row r="200" spans="1:150">
       <c r="A200" s="1">
-        <v>43647</v>
+        <v>43692</v>
       </c>
       <c r="DV200">
         <v>0.08415934168693044</v>
@@ -67077,7 +67077,7 @@
     </row>
     <row r="201" spans="1:150">
       <c r="A201" s="1">
-        <v>43739</v>
+        <v>43784</v>
       </c>
       <c r="DW201">
         <v>0.02799552071668639</v>
@@ -67154,7 +67154,7 @@
     </row>
     <row r="202" spans="1:150">
       <c r="A202" s="1">
-        <v>43831</v>
+        <v>43876</v>
       </c>
       <c r="DX202">
         <v>-2.221807318894706</v>
@@ -67228,7 +67228,7 @@
     </row>
     <row r="203" spans="1:150">
       <c r="A203" s="1">
-        <v>43922</v>
+        <v>43966</v>
       </c>
       <c r="DY203">
         <v>-9.690957649751999</v>
@@ -67299,7 +67299,7 @@
     </row>
     <row r="204" spans="1:150">
       <c r="A204" s="1">
-        <v>44013</v>
+        <v>44058</v>
       </c>
       <c r="DZ204">
         <v>8.48030415038547</v>
@@ -67367,7 +67367,7 @@
     </row>
     <row r="205" spans="1:150">
       <c r="A205" s="1">
-        <v>44105</v>
+        <v>44150</v>
       </c>
       <c r="EA205">
         <v>0.3406326034063205</v>
@@ -67432,7 +67432,7 @@
     </row>
     <row r="206" spans="1:150">
       <c r="A206" s="1">
-        <v>44197</v>
+        <v>44242</v>
       </c>
       <c r="EB206">
         <v>-1.806937868393072</v>
@@ -67494,7 +67494,7 @@
     </row>
     <row r="207" spans="1:150">
       <c r="A207" s="1">
-        <v>44287</v>
+        <v>44331</v>
       </c>
       <c r="EC207">
         <v>1.633092118130258</v>
@@ -67553,7 +67553,7 @@
     </row>
     <row r="208" spans="1:150">
       <c r="A208" s="1">
-        <v>44378</v>
+        <v>44423</v>
       </c>
       <c r="ED208">
         <v>1.694266296544459</v>
@@ -67609,7 +67609,7 @@
     </row>
     <row r="209" spans="1:150">
       <c r="A209" s="1">
-        <v>44470</v>
+        <v>44515</v>
       </c>
       <c r="EE209">
         <v>-0.3471896406117954</v>
@@ -67662,7 +67662,7 @@
     </row>
     <row r="210" spans="1:150">
       <c r="A210" s="1">
-        <v>44562</v>
+        <v>44607</v>
       </c>
       <c r="EF210">
         <v>0.2354048964218456</v>
@@ -67712,7 +67712,7 @@
     </row>
     <row r="211" spans="1:150">
       <c r="A211" s="1">
-        <v>44652</v>
+        <v>44696</v>
       </c>
       <c r="EG211">
         <v>0.1397298556124878</v>
@@ -67759,7 +67759,7 @@
     </row>
     <row r="212" spans="1:150">
       <c r="A212" s="1">
-        <v>44743</v>
+        <v>44788</v>
       </c>
       <c r="EH212">
         <v>0.4001488926112106</v>
@@ -67803,7 +67803,7 @@
     </row>
     <row r="213" spans="1:150">
       <c r="A213" s="1">
-        <v>44835</v>
+        <v>44880</v>
       </c>
       <c r="EI213">
         <v>-0.4353061035472806</v>
@@ -67844,7 +67844,7 @@
     </row>
     <row r="214" spans="1:150">
       <c r="A214" s="1">
-        <v>44927</v>
+        <v>44972</v>
       </c>
       <c r="EJ214">
         <v>-0.3352267436446591</v>
@@ -67882,7 +67882,7 @@
     </row>
     <row r="215" spans="1:150">
       <c r="A215" s="1">
-        <v>45017</v>
+        <v>45061</v>
       </c>
       <c r="EK215">
         <v>0.01855976243503714</v>
@@ -67917,7 +67917,7 @@
     </row>
     <row r="216" spans="1:150">
       <c r="A216" s="1">
-        <v>45108</v>
+        <v>45153</v>
       </c>
       <c r="EL216">
         <v>-0.1296176279974082</v>
@@ -67949,7 +67949,7 @@
     </row>
     <row r="217" spans="1:150">
       <c r="A217" s="1">
-        <v>45200</v>
+        <v>45245</v>
       </c>
       <c r="EM217">
         <v>-0.2870636170015632</v>
@@ -67978,7 +67978,7 @@
     </row>
     <row r="218" spans="1:150">
       <c r="A218" s="1">
-        <v>45292</v>
+        <v>45337</v>
       </c>
       <c r="EN218">
         <v>0.2135958395245076</v>
@@ -68004,7 +68004,7 @@
     </row>
     <row r="219" spans="1:150">
       <c r="A219" s="1">
-        <v>45383</v>
+        <v>45427</v>
       </c>
       <c r="EO219">
         <v>-0.06676204101096155</v>
@@ -68027,7 +68027,7 @@
     </row>
     <row r="220" spans="1:150">
       <c r="A220" s="1">
-        <v>45474</v>
+        <v>45519</v>
       </c>
       <c r="EP220">
         <v>0.1052128168340501</v>
@@ -68047,7 +68047,7 @@
     </row>
     <row r="221" spans="1:150">
       <c r="A221" s="1">
-        <v>45566</v>
+        <v>45611</v>
       </c>
       <c r="EQ221">
         <v>-0.2006497229122814</v>
@@ -68064,7 +68064,7 @@
     </row>
     <row r="222" spans="1:150">
       <c r="A222" s="1">
-        <v>45658</v>
+        <v>45703</v>
       </c>
       <c r="ER222">
         <v>0.4116802297750048</v>
@@ -68078,7 +68078,7 @@
     </row>
     <row r="223" spans="1:150">
       <c r="A223" s="1">
-        <v>45748</v>
+        <v>45792</v>
       </c>
       <c r="ES223">
         <v>-0.2766911554241067</v>
@@ -68089,7 +68089,7 @@
     </row>
     <row r="224" spans="1:150">
       <c r="A224" s="1">
-        <v>45839</v>
+        <v>45884</v>
       </c>
       <c r="ET224">
         <v>0</v>
@@ -68097,7 +68097,7 @@
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="1">
-        <v>45931</v>
+        <v>45976</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/2_Processed_Data/1_combined_GDP_series/qoq_combined_GDP_data.xlsx
+++ b/0_0_Data/2_Processed_Data/1_combined_GDP_series/qoq_combined_GDP_data.xlsx
@@ -826,12 +826,12 @@
     </row>
     <row r="2" spans="1:150">
       <c r="A2" s="1">
-        <v>25614</v>
+        <v>25569</v>
       </c>
     </row>
     <row r="3" spans="1:150">
       <c r="A3" s="1">
-        <v>25703</v>
+        <v>25659</v>
       </c>
       <c r="B3">
         <v>3.949077682514932</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="4" spans="1:150">
       <c r="A4" s="1">
-        <v>25795</v>
+        <v>25750</v>
       </c>
       <c r="B4">
         <v>1.874531367158205</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="5" spans="1:150">
       <c r="A5" s="1">
-        <v>25887</v>
+        <v>25842</v>
       </c>
       <c r="B5">
         <v>0.858684985279704</v>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="6" spans="1:150">
       <c r="A6" s="1">
-        <v>25979</v>
+        <v>25934</v>
       </c>
       <c r="B6">
         <v>-1.945998540501099</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="7" spans="1:150">
       <c r="A7" s="1">
-        <v>26068</v>
+        <v>26024</v>
       </c>
       <c r="B7">
         <v>2.133465641280079</v>
@@ -3091,7 +3091,7 @@
     </row>
     <row r="8" spans="1:150">
       <c r="A8" s="1">
-        <v>26160</v>
+        <v>26115</v>
       </c>
       <c r="B8">
         <v>1.700267184843334</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="9" spans="1:150">
       <c r="A9" s="1">
-        <v>26252</v>
+        <v>26207</v>
       </c>
       <c r="B9">
         <v>-0.09553379508001725</v>
@@ -3995,7 +3995,7 @@
     </row>
     <row r="10" spans="1:150">
       <c r="A10" s="1">
-        <v>26344</v>
+        <v>26299</v>
       </c>
       <c r="B10">
         <v>0.09562514941430368</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="11" spans="1:150">
       <c r="A11" s="1">
-        <v>26434</v>
+        <v>26390</v>
       </c>
       <c r="B11">
         <v>1.647957965130165</v>
@@ -4899,7 +4899,7 @@
     </row>
     <row r="12" spans="1:150">
       <c r="A12" s="1">
-        <v>26526</v>
+        <v>26481</v>
       </c>
       <c r="B12">
         <v>2.326127819548863</v>
@@ -5351,7 +5351,7 @@
     </row>
     <row r="13" spans="1:150">
       <c r="A13" s="1">
-        <v>26618</v>
+        <v>26573</v>
       </c>
       <c r="B13">
         <v>1.538461538461551</v>
@@ -5803,7 +5803,7 @@
     </row>
     <row r="14" spans="1:150">
       <c r="A14" s="1">
-        <v>26710</v>
+        <v>26665</v>
       </c>
       <c r="B14">
         <v>1.447308909995468</v>
@@ -6255,7 +6255,7 @@
     </row>
     <row r="15" spans="1:150">
       <c r="A15" s="1">
-        <v>26799</v>
+        <v>26755</v>
       </c>
       <c r="B15">
         <v>0.6910387873383952</v>
@@ -6707,7 +6707,7 @@
     </row>
     <row r="16" spans="1:150">
       <c r="A16" s="1">
-        <v>26891</v>
+        <v>26846</v>
       </c>
       <c r="B16">
         <v>0.3542174009298183</v>
@@ -7159,7 +7159,7 @@
     </row>
     <row r="17" spans="1:150">
       <c r="A17" s="1">
-        <v>26983</v>
+        <v>26938</v>
       </c>
       <c r="B17">
         <v>0.2206044562100178</v>
@@ -7611,7 +7611,7 @@
     </row>
     <row r="18" spans="1:150">
       <c r="A18" s="1">
-        <v>27075</v>
+        <v>27030</v>
       </c>
       <c r="B18">
         <v>0.836451683909317</v>
@@ -8063,7 +8063,7 @@
     </row>
     <row r="19" spans="1:150">
       <c r="A19" s="1">
-        <v>27164</v>
+        <v>27120</v>
       </c>
       <c r="B19">
         <v>-0.08731717965510417</v>
@@ -8515,7 +8515,7 @@
     </row>
     <row r="20" spans="1:150">
       <c r="A20" s="1">
-        <v>27256</v>
+        <v>27211</v>
       </c>
       <c r="B20">
         <v>0.02184837229626569</v>
@@ -8967,7 +8967,7 @@
     </row>
     <row r="21" spans="1:150">
       <c r="A21" s="1">
-        <v>27348</v>
+        <v>27303</v>
       </c>
       <c r="B21">
         <v>-1.245085190039327</v>
@@ -9419,7 +9419,7 @@
     </row>
     <row r="22" spans="1:150">
       <c r="A22" s="1">
-        <v>27440</v>
+        <v>27395</v>
       </c>
       <c r="B22">
         <v>-0.5750940057509247</v>
@@ -9871,7 +9871,7 @@
     </row>
     <row r="23" spans="1:150">
       <c r="A23" s="1">
-        <v>27529</v>
+        <v>27485</v>
       </c>
       <c r="B23">
         <v>-0.5116796440489535</v>
@@ -10323,7 +10323,7 @@
     </row>
     <row r="24" spans="1:150">
       <c r="A24" s="1">
-        <v>27621</v>
+        <v>27576</v>
       </c>
       <c r="B24">
         <v>1.095706618962428</v>
@@ -10775,7 +10775,7 @@
     </row>
     <row r="25" spans="1:150">
       <c r="A25" s="1">
-        <v>27713</v>
+        <v>27668</v>
       </c>
       <c r="B25">
         <v>1.968591019685915</v>
@@ -11227,7 +11227,7 @@
     </row>
     <row r="26" spans="1:150">
       <c r="A26" s="1">
-        <v>27805</v>
+        <v>27760</v>
       </c>
       <c r="B26">
         <v>0.8676789587852438</v>
@@ -11679,7 +11679,7 @@
     </row>
     <row r="27" spans="1:150">
       <c r="A27" s="1">
-        <v>27895</v>
+        <v>27851</v>
       </c>
       <c r="B27">
         <v>1.505376344086038</v>
@@ -12131,7 +12131,7 @@
     </row>
     <row r="28" spans="1:150">
       <c r="A28" s="1">
-        <v>27987</v>
+        <v>27942</v>
       </c>
       <c r="B28">
         <v>0.02118644067795302</v>
@@ -12583,7 +12583,7 @@
     </row>
     <row r="29" spans="1:150">
       <c r="A29" s="1">
-        <v>28079</v>
+        <v>28034</v>
       </c>
       <c r="B29">
         <v>1.864011861893669</v>
@@ -13035,7 +13035,7 @@
     </row>
     <row r="30" spans="1:150">
       <c r="A30" s="1">
-        <v>28171</v>
+        <v>28126</v>
       </c>
       <c r="B30">
         <v>0.873362445414845</v>
@@ -13487,7 +13487,7 @@
     </row>
     <row r="31" spans="1:150">
       <c r="A31" s="1">
-        <v>28260</v>
+        <v>28216</v>
       </c>
       <c r="B31">
         <v>0.5565862708719869</v>
@@ -13939,7 +13939,7 @@
     </row>
     <row r="32" spans="1:150">
       <c r="A32" s="1">
-        <v>28352</v>
+        <v>28307</v>
       </c>
       <c r="B32">
         <v>-0.04100041000410335</v>
@@ -14391,7 +14391,7 @@
     </row>
     <row r="33" spans="1:150">
       <c r="A33" s="1">
-        <v>28444</v>
+        <v>28399</v>
       </c>
       <c r="B33">
         <v>1.722723543888443</v>
@@ -14843,7 +14843,7 @@
     </row>
     <row r="34" spans="1:150">
       <c r="A34" s="1">
-        <v>28536</v>
+        <v>28491</v>
       </c>
       <c r="B34">
         <v>0.4032258064516032</v>
@@ -15295,7 +15295,7 @@
     </row>
     <row r="35" spans="1:150">
       <c r="A35" s="1">
-        <v>28625</v>
+        <v>28581</v>
       </c>
       <c r="B35">
         <v>0.4216867469879438</v>
@@ -15747,7 +15747,7 @@
     </row>
     <row r="36" spans="1:150">
       <c r="A36" s="1">
-        <v>28717</v>
+        <v>28672</v>
       </c>
       <c r="B36">
         <v>1.299740051989609</v>
@@ -16199,7 +16199,7 @@
     </row>
     <row r="37" spans="1:150">
       <c r="A37" s="1">
-        <v>28809</v>
+        <v>28764</v>
       </c>
       <c r="B37">
         <v>1.164626924595339</v>
@@ -16651,7 +16651,7 @@
     </row>
     <row r="38" spans="1:150">
       <c r="A38" s="1">
-        <v>28901</v>
+        <v>28856</v>
       </c>
       <c r="B38">
         <v>0.1365853658536696</v>
@@ -17103,7 +17103,7 @@
     </row>
     <row r="39" spans="1:150">
       <c r="A39" s="1">
-        <v>28990</v>
+        <v>28946</v>
       </c>
       <c r="B39">
         <v>3.098207326578323</v>
@@ -17555,7 +17555,7 @@
     </row>
     <row r="40" spans="1:150">
       <c r="A40" s="1">
-        <v>29082</v>
+        <v>29037</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -18007,7 +18007,7 @@
     </row>
     <row r="41" spans="1:150">
       <c r="A41" s="1">
-        <v>29174</v>
+        <v>29129</v>
       </c>
       <c r="B41">
         <v>0.6237006237006345</v>
@@ -18459,7 +18459,7 @@
     </row>
     <row r="42" spans="1:150">
       <c r="A42" s="1">
-        <v>29266</v>
+        <v>29221</v>
       </c>
       <c r="B42">
         <v>0.7888805409466416</v>
@@ -18911,7 +18911,7 @@
     </row>
     <row r="43" spans="1:150">
       <c r="A43" s="1">
-        <v>29356</v>
+        <v>29312</v>
       </c>
       <c r="B43">
         <v>-0.6522549385016648</v>
@@ -19363,7 +19363,7 @@
     </row>
     <row r="44" spans="1:150">
       <c r="A44" s="1">
-        <v>29448</v>
+        <v>29403</v>
       </c>
       <c r="B44">
         <v>-0.4126805477396301</v>
@@ -19815,7 +19815,7 @@
     </row>
     <row r="45" spans="1:150">
       <c r="A45" s="1">
-        <v>29540</v>
+        <v>29495</v>
       </c>
       <c r="B45">
         <v>-0.1318515728009148</v>
@@ -20267,7 +20267,7 @@
     </row>
     <row r="46" spans="1:150">
       <c r="A46" s="1">
-        <v>29632</v>
+        <v>29587</v>
       </c>
       <c r="B46">
         <v>1.207091663523191</v>
@@ -20719,7 +20719,7 @@
     </row>
     <row r="47" spans="1:150">
       <c r="A47" s="1">
-        <v>29721</v>
+        <v>29677</v>
       </c>
       <c r="B47">
         <v>-0.2609019754006529</v>
@@ -21171,7 +21171,7 @@
     </row>
     <row r="48" spans="1:150">
       <c r="A48" s="1">
-        <v>29813</v>
+        <v>29768</v>
       </c>
       <c r="B48">
         <v>0.2802690582959607</v>
@@ -21623,7 +21623,7 @@
     </row>
     <row r="49" spans="1:150">
       <c r="A49" s="1">
-        <v>29905</v>
+        <v>29860</v>
       </c>
       <c r="B49">
         <v>-0.111794298490786</v>
@@ -22075,7 +22075,7 @@
     </row>
     <row r="50" spans="1:150">
       <c r="A50" s="1">
-        <v>29997</v>
+        <v>29952</v>
       </c>
       <c r="B50">
         <v>0.4103711994030905</v>
@@ -22527,7 +22527,7 @@
     </row>
     <row r="51" spans="1:150">
       <c r="A51" s="1">
-        <v>30086</v>
+        <v>30042</v>
       </c>
       <c r="B51">
         <v>-0.6316180568456113</v>
@@ -22979,7 +22979,7 @@
     </row>
     <row r="52" spans="1:150">
       <c r="A52" s="1">
-        <v>30178</v>
+        <v>30133</v>
       </c>
       <c r="B52">
         <v>-0.9534492428491423</v>
@@ -23431,7 +23431,7 @@
     </row>
     <row r="53" spans="1:150">
       <c r="A53" s="1">
-        <v>30270</v>
+        <v>30225</v>
       </c>
       <c r="B53">
         <v>0.2076255190638144</v>
@@ -23883,7 +23883,7 @@
     </row>
     <row r="54" spans="1:150">
       <c r="A54" s="1">
-        <v>30362</v>
+        <v>30317</v>
       </c>
       <c r="B54">
         <v>0.9229610096063111</v>
@@ -24335,7 +24335,7 @@
     </row>
     <row r="55" spans="1:150">
       <c r="A55" s="1">
-        <v>30451</v>
+        <v>30407</v>
       </c>
       <c r="B55">
         <v>1.06382978723405</v>
@@ -24787,7 +24787,7 @@
     </row>
     <row r="56" spans="1:150">
       <c r="A56" s="1">
-        <v>30543</v>
+        <v>30498</v>
       </c>
       <c r="B56">
         <v>-0.2400738688827267</v>
@@ -25239,7 +25239,7 @@
     </row>
     <row r="57" spans="1:150">
       <c r="A57" s="1">
-        <v>30635</v>
+        <v>30590</v>
       </c>
       <c r="B57">
         <v>1.388374676045905</v>
@@ -25691,7 +25691,7 @@
     </row>
     <row r="58" spans="1:150">
       <c r="A58" s="1">
-        <v>30727</v>
+        <v>30682</v>
       </c>
       <c r="B58">
         <v>1.314588278254523</v>
@@ -26143,7 +26143,7 @@
     </row>
     <row r="59" spans="1:150">
       <c r="A59" s="1">
-        <v>30817</v>
+        <v>30773</v>
       </c>
       <c r="B59">
         <v>-1.567850063074441</v>
@@ -26595,7 +26595,7 @@
     </row>
     <row r="60" spans="1:150">
       <c r="A60" s="1">
-        <v>30909</v>
+        <v>30864</v>
       </c>
       <c r="B60">
         <v>2.727938484071772</v>
@@ -27047,7 +27047,7 @@
     </row>
     <row r="61" spans="1:150">
       <c r="A61" s="1">
-        <v>31001</v>
+        <v>30956</v>
       </c>
       <c r="B61">
         <v>0.8376403493138532</v>
@@ -27499,7 +27499,7 @@
     </row>
     <row r="62" spans="1:150">
       <c r="A62" s="1">
-        <v>31093</v>
+        <v>31048</v>
       </c>
       <c r="B62">
         <v>-0.5302226935312889</v>
@@ -27951,7 +27951,7 @@
     </row>
     <row r="63" spans="1:150">
       <c r="A63" s="1">
-        <v>31182</v>
+        <v>31138</v>
       </c>
       <c r="B63">
         <v>0.9772565742715041</v>
@@ -28403,7 +28403,7 @@
     </row>
     <row r="64" spans="1:150">
       <c r="A64" s="1">
-        <v>31274</v>
+        <v>31229</v>
       </c>
       <c r="B64">
         <v>1.30212915713531</v>
@@ -28855,7 +28855,7 @@
     </row>
     <row r="65" spans="1:150">
       <c r="A65" s="1">
-        <v>31366</v>
+        <v>31321</v>
       </c>
       <c r="B65">
         <v>0.6079555323953575</v>
@@ -29307,7 +29307,7 @@
     </row>
     <row r="66" spans="1:150">
       <c r="A66" s="1">
-        <v>31458</v>
+        <v>31413</v>
       </c>
       <c r="B66">
         <v>-0.5697513812154674</v>
@@ -29759,7 +29759,7 @@
     </row>
     <row r="67" spans="1:150">
       <c r="A67" s="1">
-        <v>31547</v>
+        <v>31503</v>
       </c>
       <c r="B67">
         <v>1.163396422990087</v>
@@ -30211,7 +30211,7 @@
     </row>
     <row r="68" spans="1:150">
       <c r="A68" s="1">
-        <v>31639</v>
+        <v>31594</v>
       </c>
       <c r="B68">
         <v>0.7380707174733948</v>
@@ -30663,7 +30663,7 @@
     </row>
     <row r="69" spans="1:150">
       <c r="A69" s="1">
-        <v>31731</v>
+        <v>31686</v>
       </c>
       <c r="B69">
         <v>0.9882433123189726</v>
@@ -31115,7 +31115,7 @@
     </row>
     <row r="70" spans="1:150">
       <c r="A70" s="1">
-        <v>31823</v>
+        <v>31778</v>
       </c>
       <c r="B70">
         <v>-2.513919352117431</v>
@@ -31567,7 +31567,7 @@
     </row>
     <row r="71" spans="1:150">
       <c r="A71" s="1">
-        <v>31912</v>
+        <v>31868</v>
       </c>
       <c r="B71">
         <v>2.249913464866736</v>
@@ -32019,7 +32019,7 @@
     </row>
     <row r="72" spans="1:150">
       <c r="A72" s="1">
-        <v>32004</v>
+        <v>31959</v>
       </c>
       <c r="B72">
         <v>0.7109004739336476</v>
@@ -32471,7 +32471,7 @@
     </row>
     <row r="73" spans="1:150">
       <c r="A73" s="1">
-        <v>32096</v>
+        <v>32051</v>
       </c>
       <c r="B73">
         <v>1.579831932773108</v>
@@ -32923,7 +32923,7 @@
     </row>
     <row r="74" spans="1:150">
       <c r="A74" s="1">
-        <v>32188</v>
+        <v>32143</v>
       </c>
       <c r="B74">
         <v>-0.8934480476505654</v>
@@ -33375,7 +33375,7 @@
     </row>
     <row r="75" spans="1:150">
       <c r="A75" s="1">
-        <v>32278</v>
+        <v>32234</v>
       </c>
       <c r="B75">
         <v>1.819699499165283</v>
@@ -33827,7 +33827,7 @@
     </row>
     <row r="76" spans="1:150">
       <c r="A76" s="1">
-        <v>32370</v>
+        <v>32325</v>
       </c>
       <c r="B76">
         <v>1.098540744384322</v>
@@ -34279,7 +34279,7 @@
     </row>
     <row r="77" spans="1:150">
       <c r="A77" s="1">
-        <v>32462</v>
+        <v>32417</v>
       </c>
       <c r="C77">
         <v>1.200129743756077</v>
@@ -34728,7 +34728,7 @@
     </row>
     <row r="78" spans="1:150">
       <c r="A78" s="1">
-        <v>32554</v>
+        <v>32509</v>
       </c>
       <c r="D78">
         <v>1.025641025641019</v>
@@ -35174,7 +35174,7 @@
     </row>
     <row r="79" spans="1:150">
       <c r="A79" s="1">
-        <v>32643</v>
+        <v>32599</v>
       </c>
       <c r="E79">
         <v>0.4124365482233615</v>
@@ -35617,7 +35617,7 @@
     </row>
     <row r="80" spans="1:150">
       <c r="A80" s="1">
-        <v>32735</v>
+        <v>32690</v>
       </c>
       <c r="F80">
         <v>0.9004739336492845</v>
@@ -36057,7 +36057,7 @@
     </row>
     <row r="81" spans="1:150">
       <c r="A81" s="1">
-        <v>32827</v>
+        <v>32782</v>
       </c>
       <c r="G81">
         <v>1.174260216063898</v>
@@ -36494,7 +36494,7 @@
     </row>
     <row r="82" spans="1:150">
       <c r="A82" s="1">
-        <v>32919</v>
+        <v>32874</v>
       </c>
       <c r="H82">
         <v>2.073661405137701</v>
@@ -36928,7 +36928,7 @@
     </row>
     <row r="83" spans="1:150">
       <c r="A83" s="1">
-        <v>33008</v>
+        <v>32964</v>
       </c>
       <c r="I83">
         <v>0.4851425106125105</v>
@@ -37359,7 +37359,7 @@
     </row>
     <row r="84" spans="1:150">
       <c r="A84" s="1">
-        <v>33100</v>
+        <v>33055</v>
       </c>
       <c r="J84">
         <v>2.11225105612553</v>
@@ -37787,7 +37787,7 @@
     </row>
     <row r="85" spans="1:150">
       <c r="A85" s="1">
-        <v>33192</v>
+        <v>33147</v>
       </c>
       <c r="K85">
         <v>1.773049645390049</v>
@@ -38212,7 +38212,7 @@
     </row>
     <row r="86" spans="1:150">
       <c r="A86" s="1">
-        <v>33284</v>
+        <v>33239</v>
       </c>
       <c r="L86">
         <v>2.758420441347291</v>
@@ -38634,7 +38634,7 @@
     </row>
     <row r="87" spans="1:150">
       <c r="A87" s="1">
-        <v>33373</v>
+        <v>33329</v>
       </c>
       <c r="M87">
         <v>1.113617141246129</v>
@@ -39053,7 +39053,7 @@
     </row>
     <row r="88" spans="1:150">
       <c r="A88" s="1">
-        <v>33465</v>
+        <v>33420</v>
       </c>
       <c r="N88">
         <v>-0.5994702356057567</v>
@@ -39469,7 +39469,7 @@
     </row>
     <row r="89" spans="1:150">
       <c r="A89" s="1">
-        <v>33557</v>
+        <v>33512</v>
       </c>
       <c r="O89">
         <v>0.8695652173913095</v>
@@ -39882,7 +39882,7 @@
     </row>
     <row r="90" spans="1:150">
       <c r="A90" s="1">
-        <v>33649</v>
+        <v>33604</v>
       </c>
       <c r="P90">
         <v>1.348720800889869</v>
@@ -40292,7 +40292,7 @@
     </row>
     <row r="91" spans="1:150">
       <c r="A91" s="1">
-        <v>33739</v>
+        <v>33695</v>
       </c>
       <c r="Q91">
         <v>-0.04115790917821152</v>
@@ -40699,7 +40699,7 @@
     </row>
     <row r="92" spans="1:150">
       <c r="A92" s="1">
-        <v>33831</v>
+        <v>33786</v>
       </c>
       <c r="R92">
         <v>-0.1509744715893349</v>
@@ -41103,7 +41103,7 @@
     </row>
     <row r="93" spans="1:150">
       <c r="A93" s="1">
-        <v>33923</v>
+        <v>33878</v>
       </c>
       <c r="S93">
         <v>-0.1374570446735577</v>
@@ -41504,7 +41504,7 @@
     </row>
     <row r="94" spans="1:150">
       <c r="A94" s="1">
-        <v>34015</v>
+        <v>33970</v>
       </c>
       <c r="T94">
         <v>-1.789401238816229</v>
@@ -41902,7 +41902,7 @@
     </row>
     <row r="95" spans="1:150">
       <c r="A95" s="1">
-        <v>34104</v>
+        <v>34060</v>
       </c>
       <c r="U95">
         <v>0.6306937631394585</v>
@@ -42297,7 +42297,7 @@
     </row>
     <row r="96" spans="1:150">
       <c r="A96" s="1">
-        <v>34196</v>
+        <v>34151</v>
       </c>
       <c r="V96">
         <v>0.7242339832868948</v>
@@ -42689,7 +42689,7 @@
     </row>
     <row r="97" spans="1:150">
       <c r="A97" s="1">
-        <v>34288</v>
+        <v>34243</v>
       </c>
       <c r="W97">
         <v>-0.1935840707964626</v>
@@ -43078,7 +43078,7 @@
     </row>
     <row r="98" spans="1:150">
       <c r="A98" s="1">
-        <v>34380</v>
+        <v>34335</v>
       </c>
       <c r="X98">
         <v>1.17761152673871</v>
@@ -43464,7 +43464,7 @@
     </row>
     <row r="99" spans="1:150">
       <c r="A99" s="1">
-        <v>34469</v>
+        <v>34425</v>
       </c>
       <c r="Y99">
         <v>1.232370258797764</v>
@@ -43847,7 +43847,7 @@
     </row>
     <row r="100" spans="1:150">
       <c r="A100" s="1">
-        <v>34561</v>
+        <v>34516</v>
       </c>
       <c r="Z100">
         <v>0.622210198836729</v>
@@ -44227,7 +44227,7 @@
     </row>
     <row r="101" spans="1:150">
       <c r="A101" s="1">
-        <v>34653</v>
+        <v>34608</v>
       </c>
       <c r="AA101">
         <v>0.6183626831563487</v>
@@ -44604,7 +44604,7 @@
     </row>
     <row r="102" spans="1:150">
       <c r="A102" s="1">
-        <v>34745</v>
+        <v>34700</v>
       </c>
       <c r="AB102">
         <v>0.2137608550434148</v>
@@ -44978,7 +44978,7 @@
     </row>
     <row r="103" spans="1:150">
       <c r="A103" s="1">
-        <v>34834</v>
+        <v>34790</v>
       </c>
       <c r="AC103">
         <v>1.066524463404871</v>
@@ -45349,7 +45349,7 @@
     </row>
     <row r="104" spans="1:150">
       <c r="A104" s="1">
-        <v>34926</v>
+        <v>34881</v>
       </c>
       <c r="AD104">
         <v>-0.01319087191662068</v>
@@ -45717,7 +45717,7 @@
     </row>
     <row r="105" spans="1:150">
       <c r="A105" s="1">
-        <v>35018</v>
+        <v>34973</v>
       </c>
       <c r="AE105">
         <v>-0.4082707757144763</v>
@@ -46082,7 +46082,7 @@
     </row>
     <row r="106" spans="1:150">
       <c r="A106" s="1">
-        <v>35110</v>
+        <v>35065</v>
       </c>
       <c r="AF106">
         <v>-0.3698811096433335</v>
@@ -46444,7 +46444,7 @@
     </row>
     <row r="107" spans="1:150">
       <c r="A107" s="1">
-        <v>35200</v>
+        <v>35156</v>
       </c>
       <c r="AG107">
         <v>1.484623541887593</v>
@@ -46803,7 +46803,7 @@
     </row>
     <row r="108" spans="1:150">
       <c r="A108" s="1">
-        <v>35292</v>
+        <v>35247</v>
       </c>
       <c r="AH108">
         <v>0.8096108644554579</v>
@@ -47159,7 +47159,7 @@
     </row>
     <row r="109" spans="1:150">
       <c r="A109" s="1">
-        <v>35384</v>
+        <v>35339</v>
       </c>
       <c r="AI109">
         <v>0.07776049766718085</v>
@@ -47512,7 +47512,7 @@
     </row>
     <row r="110" spans="1:150">
       <c r="A110" s="1">
-        <v>35476</v>
+        <v>35431</v>
       </c>
       <c r="AJ110">
         <v>0.4403004403004406</v>
@@ -47862,7 +47862,7 @@
     </row>
     <row r="111" spans="1:150">
       <c r="A111" s="1">
-        <v>35565</v>
+        <v>35521</v>
       </c>
       <c r="AK111">
         <v>1.010493587252234</v>
@@ -48209,7 +48209,7 @@
     </row>
     <row r="112" spans="1:150">
       <c r="A112" s="1">
-        <v>35657</v>
+        <v>35612</v>
       </c>
       <c r="AL112">
         <v>0.782251859451141</v>
@@ -48553,7 +48553,7 @@
     </row>
     <row r="113" spans="1:150">
       <c r="A113" s="1">
-        <v>35749</v>
+        <v>35704</v>
       </c>
       <c r="AM113">
         <v>0.280183392766165</v>
@@ -48894,7 +48894,7 @@
     </row>
     <row r="114" spans="1:150">
       <c r="A114" s="1">
-        <v>35841</v>
+        <v>35796</v>
       </c>
       <c r="AN114">
         <v>0.9522600304723229</v>
@@ -49232,7 +49232,7 @@
     </row>
     <row r="115" spans="1:150">
       <c r="A115" s="1">
-        <v>35930</v>
+        <v>35886</v>
       </c>
       <c r="AO115">
         <v>0.1008191556395778</v>
@@ -49567,7 +49567,7 @@
     </row>
     <row r="116" spans="1:150">
       <c r="A116" s="1">
-        <v>36022</v>
+        <v>35977</v>
       </c>
       <c r="AP116">
         <v>0.8692365835223037</v>
@@ -49899,7 +49899,7 @@
     </row>
     <row r="117" spans="1:150">
       <c r="A117" s="1">
-        <v>36114</v>
+        <v>36069</v>
       </c>
       <c r="AQ117">
         <v>-0.3749062734316393</v>
@@ -50228,7 +50228,7 @@
     </row>
     <row r="118" spans="1:150">
       <c r="A118" s="1">
-        <v>36206</v>
+        <v>36161</v>
       </c>
       <c r="AR118">
         <v>0.4382529163932056</v>
@@ -50554,7 +50554,7 @@
     </row>
     <row r="119" spans="1:150">
       <c r="A119" s="1">
-        <v>36295</v>
+        <v>36251</v>
       </c>
       <c r="AS119">
         <v>0.04238186056368139</v>
@@ -50877,7 +50877,7 @@
     </row>
     <row r="120" spans="1:150">
       <c r="A120" s="1">
-        <v>36387</v>
+        <v>36342</v>
       </c>
       <c r="AT120">
         <v>0.7183604479188681</v>
@@ -51197,7 +51197,7 @@
     </row>
     <row r="121" spans="1:150">
       <c r="A121" s="1">
-        <v>36479</v>
+        <v>36434</v>
       </c>
       <c r="AU121">
         <v>0.6910994764397971</v>
@@ -51514,7 +51514,7 @@
     </row>
     <row r="122" spans="1:150">
       <c r="A122" s="1">
-        <v>36571</v>
+        <v>36526</v>
       </c>
       <c r="AV122">
         <v>0.659619626284904</v>
@@ -51828,7 +51828,7 @@
     </row>
     <row r="123" spans="1:150">
       <c r="A123" s="1">
-        <v>36661</v>
+        <v>36617</v>
       </c>
       <c r="AW123">
         <v>1.148285832300693</v>
@@ -52139,7 +52139,7 @@
     </row>
     <row r="124" spans="1:150">
       <c r="A124" s="1">
-        <v>36753</v>
+        <v>36708</v>
       </c>
       <c r="AX124">
         <v>0.5648565427516806</v>
@@ -52447,7 +52447,7 @@
     </row>
     <row r="125" spans="1:150">
       <c r="A125" s="1">
-        <v>36845</v>
+        <v>36800</v>
       </c>
       <c r="AY125">
         <v>0.207068759008509</v>
@@ -52752,7 +52752,7 @@
     </row>
     <row r="126" spans="1:150">
       <c r="A126" s="1">
-        <v>36937</v>
+        <v>36892</v>
       </c>
       <c r="AZ126">
         <v>0.3707380320495879</v>
@@ -53054,7 +53054,7 @@
     </row>
     <row r="127" spans="1:150">
       <c r="A127" s="1">
-        <v>37026</v>
+        <v>36982</v>
       </c>
       <c r="BA127">
         <v>-0.03022670025188753</v>
@@ -53353,7 +53353,7 @@
     </row>
     <row r="128" spans="1:150">
       <c r="A128" s="1">
-        <v>37118</v>
+        <v>37073</v>
       </c>
       <c r="BB128">
         <v>-0.1411005845595663</v>
@@ -53649,7 +53649,7 @@
     </row>
     <row r="129" spans="1:150">
       <c r="A129" s="1">
-        <v>37210</v>
+        <v>37165</v>
       </c>
       <c r="BC129">
         <v>-0.2542372881355935</v>
@@ -53942,7 +53942,7 @@
     </row>
     <row r="130" spans="1:150">
       <c r="A130" s="1">
-        <v>37302</v>
+        <v>37257</v>
       </c>
       <c r="BD130">
         <v>0.1699235344095065</v>
@@ -54232,7 +54232,7 @@
     </row>
     <row r="131" spans="1:150">
       <c r="A131" s="1">
-        <v>37391</v>
+        <v>37347</v>
       </c>
       <c r="BE131">
         <v>0.2723861022557598</v>
@@ -54519,7 +54519,7 @@
     </row>
     <row r="132" spans="1:150">
       <c r="A132" s="1">
-        <v>37483</v>
+        <v>37438</v>
       </c>
       <c r="BF132">
         <v>0.2679452827527801</v>
@@ -54803,7 +54803,7 @@
     </row>
     <row r="133" spans="1:150">
       <c r="A133" s="1">
-        <v>37575</v>
+        <v>37530</v>
       </c>
       <c r="BG133">
         <v>-0.03213174013455929</v>
@@ -55084,7 +55084,7 @@
     </row>
     <row r="134" spans="1:150">
       <c r="A134" s="1">
-        <v>37667</v>
+        <v>37622</v>
       </c>
       <c r="BH134">
         <v>-0.2270033548283337</v>
@@ -55362,7 +55362,7 @@
     </row>
     <row r="135" spans="1:150">
       <c r="A135" s="1">
-        <v>37756</v>
+        <v>37712</v>
       </c>
       <c r="BI135">
         <v>-0.06231782088652726</v>
@@ -55637,7 +55637,7 @@
     </row>
     <row r="136" spans="1:150">
       <c r="A136" s="1">
-        <v>37848</v>
+        <v>37803</v>
       </c>
       <c r="BJ136">
         <v>0.2194748711340181</v>
@@ -55909,7 +55909,7 @@
     </row>
     <row r="137" spans="1:150">
       <c r="A137" s="1">
-        <v>37940</v>
+        <v>37895</v>
       </c>
       <c r="BK137">
         <v>0.215019190965168</v>
@@ -56178,7 +56178,7 @@
     </row>
     <row r="138" spans="1:150">
       <c r="A138" s="1">
-        <v>38032</v>
+        <v>37987</v>
       </c>
       <c r="BL138">
         <v>0.4390009221023837</v>
@@ -56444,7 +56444,7 @@
     </row>
     <row r="139" spans="1:150">
       <c r="A139" s="1">
-        <v>38122</v>
+        <v>38078</v>
       </c>
       <c r="BM139">
         <v>0.4754484797634859</v>
@@ -56707,7 +56707,7 @@
     </row>
     <row r="140" spans="1:150">
       <c r="A140" s="1">
-        <v>38214</v>
+        <v>38169</v>
       </c>
       <c r="BN140">
         <v>0.09947279419078808</v>
@@ -56967,7 +56967,7 @@
     </row>
     <row r="141" spans="1:150">
       <c r="A141" s="1">
-        <v>38306</v>
+        <v>38261</v>
       </c>
       <c r="BO141">
         <v>-0.2327107822662463</v>
@@ -57224,7 +57224,7 @@
     </row>
     <row r="142" spans="1:150">
       <c r="A142" s="1">
-        <v>38398</v>
+        <v>38353</v>
       </c>
       <c r="BP142">
         <v>1.04410616705698</v>
@@ -57478,7 +57478,7 @@
     </row>
     <row r="143" spans="1:150">
       <c r="A143" s="1">
-        <v>38487</v>
+        <v>38443</v>
       </c>
       <c r="BQ143">
         <v>0.00970120294917066</v>
@@ -57729,7 +57729,7 @@
     </row>
     <row r="144" spans="1:150">
       <c r="A144" s="1">
-        <v>38579</v>
+        <v>38534</v>
       </c>
       <c r="BR144">
         <v>0.6204556471158512</v>
@@ -57977,7 +57977,7 @@
     </row>
     <row r="145" spans="1:150">
       <c r="A145" s="1">
-        <v>38671</v>
+        <v>38626</v>
       </c>
       <c r="BS145">
         <v>0.009625565501978165</v>
@@ -58222,7 +58222,7 @@
     </row>
     <row r="146" spans="1:150">
       <c r="A146" s="1">
-        <v>38763</v>
+        <v>38718</v>
       </c>
       <c r="BT146">
         <v>0.3653494856263777</v>
@@ -58464,7 +58464,7 @@
     </row>
     <row r="147" spans="1:150">
       <c r="A147" s="1">
-        <v>38852</v>
+        <v>38808</v>
       </c>
       <c r="BU147">
         <v>0.9010736196319133</v>
@@ -58703,7 +58703,7 @@
     </row>
     <row r="148" spans="1:150">
       <c r="A148" s="1">
-        <v>38944</v>
+        <v>38899</v>
       </c>
       <c r="BV148">
         <v>0.6346499952638076</v>
@@ -58939,7 +58939,7 @@
     </row>
     <row r="149" spans="1:150">
       <c r="A149" s="1">
-        <v>39036</v>
+        <v>38991</v>
       </c>
       <c r="BW149">
         <v>0.8728296574378289</v>
@@ -59172,7 +59172,7 @@
     </row>
     <row r="150" spans="1:150">
       <c r="A150" s="1">
-        <v>39128</v>
+        <v>39083</v>
       </c>
       <c r="BX150">
         <v>0.5106778087279453</v>
@@ -59402,7 +59402,7 @@
     </row>
     <row r="151" spans="1:150">
       <c r="A151" s="1">
-        <v>39217</v>
+        <v>39173</v>
       </c>
       <c r="BY151">
         <v>0.2592832669691649</v>
@@ -59629,7 +59629,7 @@
     </row>
     <row r="152" spans="1:150">
       <c r="A152" s="1">
-        <v>39309</v>
+        <v>39264</v>
       </c>
       <c r="BZ152">
         <v>0.6834764939503178</v>
@@ -59853,7 +59853,7 @@
     </row>
     <row r="153" spans="1:150">
       <c r="A153" s="1">
-        <v>39401</v>
+        <v>39356</v>
       </c>
       <c r="CA153">
         <v>0.2660550458715654</v>
@@ -60074,7 +60074,7 @@
     </row>
     <row r="154" spans="1:150">
       <c r="A154" s="1">
-        <v>39493</v>
+        <v>39448</v>
       </c>
       <c r="CB154">
         <v>1.528044651843707</v>
@@ -60292,7 +60292,7 @@
     </row>
     <row r="155" spans="1:150">
       <c r="A155" s="1">
-        <v>39583</v>
+        <v>39539</v>
       </c>
       <c r="CC155">
         <v>-0.4957634757526566</v>
@@ -60507,7 +60507,7 @@
     </row>
     <row r="156" spans="1:150">
       <c r="A156" s="1">
-        <v>39675</v>
+        <v>39630</v>
       </c>
       <c r="CD156">
         <v>-0.5244122965641937</v>
@@ -60719,7 +60719,7 @@
     </row>
     <row r="157" spans="1:150">
       <c r="A157" s="1">
-        <v>39767</v>
+        <v>39722</v>
       </c>
       <c r="CE157">
         <v>-2.107941123023812</v>
@@ -60928,7 +60928,7 @@
     </row>
     <row r="158" spans="1:150">
       <c r="A158" s="1">
-        <v>39859</v>
+        <v>39814</v>
       </c>
       <c r="CF158">
         <v>-3.800762010965527</v>
@@ -61134,7 +61134,7 @@
     </row>
     <row r="159" spans="1:150">
       <c r="A159" s="1">
-        <v>39948</v>
+        <v>39904</v>
       </c>
       <c r="CG159">
         <v>0.3175214086404294</v>
@@ -61337,7 +61337,7 @@
     </row>
     <row r="160" spans="1:150">
       <c r="A160" s="1">
-        <v>40040</v>
+        <v>39995</v>
       </c>
       <c r="CH160">
         <v>0.7280390842034727</v>
@@ -61537,7 +61537,7 @@
     </row>
     <row r="161" spans="1:150">
       <c r="A161" s="1">
-        <v>40132</v>
+        <v>40087</v>
       </c>
       <c r="CI161">
         <v>0.009508414947233161</v>
@@ -61734,7 +61734,7 @@
     </row>
     <row r="162" spans="1:150">
       <c r="A162" s="1">
-        <v>40224</v>
+        <v>40179</v>
       </c>
       <c r="CJ162">
         <v>0.1613515565679591</v>
@@ -61928,7 +61928,7 @@
     </row>
     <row r="163" spans="1:150">
       <c r="A163" s="1">
-        <v>40313</v>
+        <v>40269</v>
       </c>
       <c r="CK163">
         <v>2.182091798344627</v>
@@ -62119,7 +62119,7 @@
     </row>
     <row r="164" spans="1:150">
       <c r="A164" s="1">
-        <v>40405</v>
+        <v>40360</v>
       </c>
       <c r="CL164">
         <v>0.6980161645848688</v>
@@ -62307,7 +62307,7 @@
     </row>
     <row r="165" spans="1:150">
       <c r="A165" s="1">
-        <v>40497</v>
+        <v>40452</v>
       </c>
       <c r="CM165">
         <v>0.3647970816233392</v>
@@ -62492,7 +62492,7 @@
     </row>
     <row r="166" spans="1:150">
       <c r="A166" s="1">
-        <v>40589</v>
+        <v>40544</v>
       </c>
       <c r="CN166">
         <v>1.499182264219509</v>
@@ -62674,7 +62674,7 @@
     </row>
     <row r="167" spans="1:150">
       <c r="A167" s="1">
-        <v>40678</v>
+        <v>40634</v>
       </c>
       <c r="CO167">
         <v>0.119222303741742</v>
@@ -62853,7 +62853,7 @@
     </row>
     <row r="168" spans="1:150">
       <c r="A168" s="1">
-        <v>40770</v>
+        <v>40725</v>
       </c>
       <c r="CP168">
         <v>0.5030181086519089</v>
@@ -63029,7 +63029,7 @@
     </row>
     <row r="169" spans="1:150">
       <c r="A169" s="1">
-        <v>40862</v>
+        <v>40817</v>
       </c>
       <c r="CQ169">
         <v>-0.1818677821223996</v>
@@ -63202,7 +63202,7 @@
     </row>
     <row r="170" spans="1:150">
       <c r="A170" s="1">
-        <v>40954</v>
+        <v>40909</v>
       </c>
       <c r="CR170">
         <v>0.5101576022592715</v>
@@ -63372,7 +63372,7 @@
     </row>
     <row r="171" spans="1:150">
       <c r="A171" s="1">
-        <v>41044</v>
+        <v>41000</v>
       </c>
       <c r="CS171">
         <v>0.2707092582566427</v>
@@ -63539,7 +63539,7 @@
     </row>
     <row r="172" spans="1:150">
       <c r="A172" s="1">
-        <v>41136</v>
+        <v>41091</v>
       </c>
       <c r="CT172">
         <v>0.233981281497472</v>
@@ -63703,7 +63703,7 @@
     </row>
     <row r="173" spans="1:150">
       <c r="A173" s="1">
-        <v>41228</v>
+        <v>41183</v>
       </c>
       <c r="CU173">
         <v>-0.5925127928898435</v>
@@ -63864,7 +63864,7 @@
     </row>
     <row r="174" spans="1:150">
       <c r="A174" s="1">
-        <v>41320</v>
+        <v>41275</v>
       </c>
       <c r="CV174">
         <v>0.06328541723172172</v>
@@ -64022,7 +64022,7 @@
     </row>
     <row r="175" spans="1:150">
       <c r="A175" s="1">
-        <v>41409</v>
+        <v>41365</v>
       </c>
       <c r="CW175">
         <v>0.7214356569573426</v>
@@ -64177,7 +64177,7 @@
     </row>
     <row r="176" spans="1:150">
       <c r="A176" s="1">
-        <v>41501</v>
+        <v>41456</v>
       </c>
       <c r="CX176">
         <v>0.3223207091055595</v>
@@ -64329,7 +64329,7 @@
     </row>
     <row r="177" spans="1:150">
       <c r="A177" s="1">
-        <v>41593</v>
+        <v>41548</v>
       </c>
       <c r="CY177">
         <v>0.3837572512271369</v>
@@ -64478,7 +64478,7 @@
     </row>
     <row r="178" spans="1:150">
       <c r="A178" s="1">
-        <v>41685</v>
+        <v>41640</v>
       </c>
       <c r="CZ178">
         <v>0.8179231863442404</v>
@@ -64624,7 +64624,7 @@
     </row>
     <row r="179" spans="1:150">
       <c r="A179" s="1">
-        <v>41774</v>
+        <v>41730</v>
       </c>
       <c r="DA179">
         <v>-0.1608782057348365</v>
@@ -64767,7 +64767,7 @@
     </row>
     <row r="180" spans="1:150">
       <c r="A180" s="1">
-        <v>41866</v>
+        <v>41821</v>
       </c>
       <c r="DB180">
         <v>0.06623769871308968</v>
@@ -64907,7 +64907,7 @@
     </row>
     <row r="181" spans="1:150">
       <c r="A181" s="1">
-        <v>41958</v>
+        <v>41913</v>
       </c>
       <c r="DC181">
         <v>0.6996974281391782</v>
@@ -65044,7 +65044,7 @@
     </row>
     <row r="182" spans="1:150">
       <c r="A182" s="1">
-        <v>42050</v>
+        <v>42005</v>
       </c>
       <c r="DD182">
         <v>0.2723004694835739</v>
@@ -65178,7 +65178,7 @@
     </row>
     <row r="183" spans="1:150">
       <c r="A183" s="1">
-        <v>42139</v>
+        <v>42095</v>
       </c>
       <c r="DE183">
         <v>0.4386374241717208</v>
@@ -65309,7 +65309,7 @@
     </row>
     <row r="184" spans="1:150">
       <c r="A184" s="1">
-        <v>42231</v>
+        <v>42186</v>
       </c>
       <c r="DF184">
         <v>0.315926407730895</v>
@@ -65437,7 +65437,7 @@
     </row>
     <row r="185" spans="1:150">
       <c r="A185" s="1">
-        <v>42323</v>
+        <v>42278</v>
       </c>
       <c r="DG185">
         <v>0.2686926711757547</v>
@@ -65562,7 +65562,7 @@
     </row>
     <row r="186" spans="1:150">
       <c r="A186" s="1">
-        <v>42415</v>
+        <v>42370</v>
       </c>
       <c r="DH186">
         <v>0.6653114026982063</v>
@@ -65684,7 +65684,7 @@
     </row>
     <row r="187" spans="1:150">
       <c r="A187" s="1">
-        <v>42505</v>
+        <v>42461</v>
       </c>
       <c r="DI187">
         <v>0.4112593675744862</v>
@@ -65803,7 +65803,7 @@
     </row>
     <row r="188" spans="1:150">
       <c r="A188" s="1">
-        <v>42597</v>
+        <v>42552</v>
       </c>
       <c r="DJ188">
         <v>0.1911349777009136</v>
@@ -65919,7 +65919,7 @@
     </row>
     <row r="189" spans="1:150">
       <c r="A189" s="1">
-        <v>42689</v>
+        <v>42644</v>
       </c>
       <c r="DK189">
         <v>0.4269234262875818</v>
@@ -66032,7 +66032,7 @@
     </row>
     <row r="190" spans="1:150">
       <c r="A190" s="1">
-        <v>42781</v>
+        <v>42736</v>
       </c>
       <c r="DL190">
         <v>0.6058961837583665</v>
@@ -66142,7 +66142,7 @@
     </row>
     <row r="191" spans="1:150">
       <c r="A191" s="1">
-        <v>42870</v>
+        <v>42826</v>
       </c>
       <c r="DM191">
         <v>0.6164567140176875</v>
@@ -66249,7 +66249,7 @@
     </row>
     <row r="192" spans="1:150">
       <c r="A192" s="1">
-        <v>42962</v>
+        <v>42917</v>
       </c>
       <c r="DN192">
         <v>0.8241758241758176</v>
@@ -66353,7 +66353,7 @@
     </row>
     <row r="193" spans="1:150">
       <c r="A193" s="1">
-        <v>43054</v>
+        <v>43009</v>
       </c>
       <c r="DO193">
         <v>0.6069669247009128</v>
@@ -66454,7 +66454,7 @@
     </row>
     <row r="194" spans="1:150">
       <c r="A194" s="1">
-        <v>43146</v>
+        <v>43101</v>
       </c>
       <c r="DP194">
         <v>0.2972807554428514</v>
@@ -66552,7 +66552,7 @@
     </row>
     <row r="195" spans="1:150">
       <c r="A195" s="1">
-        <v>43235</v>
+        <v>43191</v>
       </c>
       <c r="DQ195">
         <v>0.4515848892748554</v>
@@ -66647,7 +66647,7 @@
     </row>
     <row r="196" spans="1:150">
       <c r="A196" s="1">
-        <v>43327</v>
+        <v>43282</v>
       </c>
       <c r="DR196">
         <v>-0.1988415319443278</v>
@@ -66739,7 +66739,7 @@
     </row>
     <row r="197" spans="1:150">
       <c r="A197" s="1">
-        <v>43419</v>
+        <v>43374</v>
       </c>
       <c r="DS197">
         <v>0.01732351667388135</v>
@@ -66828,7 +66828,7 @@
     </row>
     <row r="198" spans="1:150">
       <c r="A198" s="1">
-        <v>43511</v>
+        <v>43466</v>
       </c>
       <c r="DT198">
         <v>0.4243526457088377</v>
@@ -66914,7 +66914,7 @@
     </row>
     <row r="199" spans="1:150">
       <c r="A199" s="1">
-        <v>43600</v>
+        <v>43556</v>
       </c>
       <c r="DU199">
         <v>-0.07468957146858211</v>
@@ -66997,7 +66997,7 @@
     </row>
     <row r="200" spans="1:150">
       <c r="A200" s="1">
-        <v>43692</v>
+        <v>43647</v>
       </c>
       <c r="DV200">
         <v>0.08415934168693044</v>
@@ -67077,7 +67077,7 @@
     </row>
     <row r="201" spans="1:150">
       <c r="A201" s="1">
-        <v>43784</v>
+        <v>43739</v>
       </c>
       <c r="DW201">
         <v>0.02799552071668639</v>
@@ -67154,7 +67154,7 @@
     </row>
     <row r="202" spans="1:150">
       <c r="A202" s="1">
-        <v>43876</v>
+        <v>43831</v>
       </c>
       <c r="DX202">
         <v>-2.221807318894706</v>
@@ -67228,7 +67228,7 @@
     </row>
     <row r="203" spans="1:150">
       <c r="A203" s="1">
-        <v>43966</v>
+        <v>43922</v>
       </c>
       <c r="DY203">
         <v>-9.690957649751999</v>
@@ -67299,7 +67299,7 @@
     </row>
     <row r="204" spans="1:150">
       <c r="A204" s="1">
-        <v>44058</v>
+        <v>44013</v>
       </c>
       <c r="DZ204">
         <v>8.48030415038547</v>
@@ -67367,7 +67367,7 @@
     </row>
     <row r="205" spans="1:150">
       <c r="A205" s="1">
-        <v>44150</v>
+        <v>44105</v>
       </c>
       <c r="EA205">
         <v>0.3406326034063205</v>
@@ -67432,7 +67432,7 @@
     </row>
     <row r="206" spans="1:150">
       <c r="A206" s="1">
-        <v>44242</v>
+        <v>44197</v>
       </c>
       <c r="EB206">
         <v>-1.806937868393072</v>
@@ -67494,7 +67494,7 @@
     </row>
     <row r="207" spans="1:150">
       <c r="A207" s="1">
-        <v>44331</v>
+        <v>44287</v>
       </c>
       <c r="EC207">
         <v>1.633092118130258</v>
@@ -67553,7 +67553,7 @@
     </row>
     <row r="208" spans="1:150">
       <c r="A208" s="1">
-        <v>44423</v>
+        <v>44378</v>
       </c>
       <c r="ED208">
         <v>1.694266296544459</v>
@@ -67609,7 +67609,7 @@
     </row>
     <row r="209" spans="1:150">
       <c r="A209" s="1">
-        <v>44515</v>
+        <v>44470</v>
       </c>
       <c r="EE209">
         <v>-0.3471896406117954</v>
@@ -67662,7 +67662,7 @@
     </row>
     <row r="210" spans="1:150">
       <c r="A210" s="1">
-        <v>44607</v>
+        <v>44562</v>
       </c>
       <c r="EF210">
         <v>0.2354048964218456</v>
@@ -67712,7 +67712,7 @@
     </row>
     <row r="211" spans="1:150">
       <c r="A211" s="1">
-        <v>44696</v>
+        <v>44652</v>
       </c>
       <c r="EG211">
         <v>0.1397298556124878</v>
@@ -67759,7 +67759,7 @@
     </row>
     <row r="212" spans="1:150">
       <c r="A212" s="1">
-        <v>44788</v>
+        <v>44743</v>
       </c>
       <c r="EH212">
         <v>0.4001488926112106</v>
@@ -67803,7 +67803,7 @@
     </row>
     <row r="213" spans="1:150">
       <c r="A213" s="1">
-        <v>44880</v>
+        <v>44835</v>
       </c>
       <c r="EI213">
         <v>-0.4353061035472806</v>
@@ -67844,7 +67844,7 @@
     </row>
     <row r="214" spans="1:150">
       <c r="A214" s="1">
-        <v>44972</v>
+        <v>44927</v>
       </c>
       <c r="EJ214">
         <v>-0.3352267436446591</v>
@@ -67882,7 +67882,7 @@
     </row>
     <row r="215" spans="1:150">
       <c r="A215" s="1">
-        <v>45061</v>
+        <v>45017</v>
       </c>
       <c r="EK215">
         <v>0.01855976243503714</v>
@@ -67917,7 +67917,7 @@
     </row>
     <row r="216" spans="1:150">
       <c r="A216" s="1">
-        <v>45153</v>
+        <v>45108</v>
       </c>
       <c r="EL216">
         <v>-0.1296176279974082</v>
@@ -67949,7 +67949,7 @@
     </row>
     <row r="217" spans="1:150">
       <c r="A217" s="1">
-        <v>45245</v>
+        <v>45200</v>
       </c>
       <c r="EM217">
         <v>-0.2870636170015632</v>
@@ -67978,7 +67978,7 @@
     </row>
     <row r="218" spans="1:150">
       <c r="A218" s="1">
-        <v>45337</v>
+        <v>45292</v>
       </c>
       <c r="EN218">
         <v>0.2135958395245076</v>
@@ -68004,7 +68004,7 @@
     </row>
     <row r="219" spans="1:150">
       <c r="A219" s="1">
-        <v>45427</v>
+        <v>45383</v>
       </c>
       <c r="EO219">
         <v>-0.06676204101096155</v>
@@ -68027,7 +68027,7 @@
     </row>
     <row r="220" spans="1:150">
       <c r="A220" s="1">
-        <v>45519</v>
+        <v>45474</v>
       </c>
       <c r="EP220">
         <v>0.1052128168340501</v>
@@ -68047,7 +68047,7 @@
     </row>
     <row r="221" spans="1:150">
       <c r="A221" s="1">
-        <v>45611</v>
+        <v>45566</v>
       </c>
       <c r="EQ221">
         <v>-0.2006497229122814</v>
@@ -68064,7 +68064,7 @@
     </row>
     <row r="222" spans="1:150">
       <c r="A222" s="1">
-        <v>45703</v>
+        <v>45658</v>
       </c>
       <c r="ER222">
         <v>0.4116802297750048</v>
@@ -68078,7 +68078,7 @@
     </row>
     <row r="223" spans="1:150">
       <c r="A223" s="1">
-        <v>45792</v>
+        <v>45748</v>
       </c>
       <c r="ES223">
         <v>-0.2766911554241067</v>
@@ -68089,7 +68089,7 @@
     </row>
     <row r="224" spans="1:150">
       <c r="A224" s="1">
-        <v>45884</v>
+        <v>45839</v>
       </c>
       <c r="ET224">
         <v>0</v>
@@ -68097,7 +68097,7 @@
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="1">
-        <v>45976</v>
+        <v>45931</v>
       </c>
     </row>
   </sheetData>
